--- a/output/BOOSTresult.xlsx
+++ b/output/BOOSTresult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="43">
   <si>
     <t>学号</t>
   </si>
@@ -34,129 +34,138 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>T老师</t>
-  </si>
-  <si>
-    <t>R老师</t>
-  </si>
-  <si>
-    <t>Ac老师</t>
-  </si>
-  <si>
-    <t>G老师</t>
-  </si>
-  <si>
-    <t>Q老师</t>
-  </si>
-  <si>
-    <t>N老师</t>
-  </si>
-  <si>
-    <t>F老师</t>
-  </si>
-  <si>
-    <t>Af老师</t>
-  </si>
-  <si>
-    <t>Y老师</t>
-  </si>
-  <si>
-    <t>C老师</t>
-  </si>
-  <si>
-    <t>M老师</t>
-  </si>
-  <si>
-    <t>I老师</t>
-  </si>
-  <si>
-    <t>H老师</t>
-  </si>
-  <si>
-    <t>S老师</t>
-  </si>
-  <si>
-    <t>U老师</t>
-  </si>
-  <si>
-    <t>Ab老师</t>
-  </si>
-  <si>
-    <t>W老师</t>
-  </si>
-  <si>
-    <t>Ae老师</t>
-  </si>
-  <si>
-    <t>A老师</t>
-  </si>
-  <si>
-    <t>K老师</t>
-  </si>
-  <si>
-    <t>D老师</t>
-  </si>
-  <si>
-    <t>O老师</t>
-  </si>
-  <si>
-    <t>J老师</t>
-  </si>
-  <si>
-    <t>E老师</t>
-  </si>
-  <si>
-    <t>Ag老师</t>
-  </si>
-  <si>
-    <t>Z老师</t>
-  </si>
-  <si>
-    <t>B老师</t>
-  </si>
-  <si>
-    <t>X老师</t>
-  </si>
-  <si>
-    <t>P老师</t>
-  </si>
-  <si>
-    <t>Ad老师</t>
-  </si>
-  <si>
-    <t>L老师</t>
-  </si>
-  <si>
-    <t>V老师</t>
-  </si>
-  <si>
-    <t>Aa老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y老师,
-Aa老师,
-C老师,
-Ae老师,
+    <t>牛玉贞</t>
+  </si>
+  <si>
+    <t>苏雅茹</t>
+  </si>
+  <si>
+    <t>谢丽聪</t>
+  </si>
+  <si>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>王秀</t>
+  </si>
+  <si>
+    <t>谢伙生</t>
+  </si>
+  <si>
+    <t>于志敏</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
+    <t>柯逍</t>
+  </si>
+  <si>
+    <t>陈欢</t>
+  </si>
+  <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>刘文犀</t>
+  </si>
+  <si>
+    <t>陈勃</t>
+  </si>
+  <si>
+    <t>叶东毅</t>
+  </si>
+  <si>
+    <t>林秋月</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
+  </si>
+  <si>
+    <t>张栋</t>
+  </si>
+  <si>
+    <t>郭昆</t>
+  </si>
+  <si>
+    <t>程永利</t>
+  </si>
+  <si>
+    <t>何振峰</t>
+  </si>
+  <si>
+    <t>傅仰耿</t>
+  </si>
+  <si>
+    <t>朱丹红</t>
+  </si>
+  <si>
+    <t>韩晓芸</t>
+  </si>
+  <si>
+    <t>于元隆</t>
+  </si>
+  <si>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>吴运兵</t>
+  </si>
+  <si>
+    <t>白清源</t>
+  </si>
+  <si>
+    <t>孙岚</t>
+  </si>
+  <si>
+    <t>阮一文</t>
+  </si>
+  <si>
+    <t>余小燕</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何振峰,
+刘文犀,
+孙岚,
+郭龙坤,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">P老师,
-K老师,
-X老师,
-T老师,
+    <t xml:space="preserve">傅仰耿,
+程永利,
+余春艳,
+郭昆,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Af老师,
-H老师,
-M老师,
+    <t xml:space="preserve">张栋,
+叶菁,
+吴运兵,
+阮一文,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ac老师,
-S老师,
-I老师,
-N老师,
+    <t xml:space="preserve">王秀,
+苏雅茹,
+柯逍,
+于志敏,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余小燕,
+陈欢,
+白清源,
+陈勃,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谢丽聪,
+林秋月,
+朱丹红,
+吴英杰,
 </t>
   </si>
 </sst>
@@ -515,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,19 +552,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31402066</v>
+        <v>31602147</v>
       </c>
       <c r="C2">
-        <v>3.711243</v>
+        <v>3.61732</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,19 +572,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31402067</v>
+        <v>31602148</v>
       </c>
       <c r="C3">
-        <v>2.198923</v>
+        <v>3.602326</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,19 +592,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31402068</v>
+        <v>81600144</v>
       </c>
       <c r="C4">
-        <v>2.043161</v>
+        <v>3.190164</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -603,19 +612,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31402069</v>
+        <v>31602114</v>
       </c>
       <c r="C5">
-        <v>2.810137</v>
+        <v>3.257516</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -623,19 +632,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31402059</v>
+        <v>51601414</v>
       </c>
       <c r="C6">
-        <v>2.722936</v>
+        <v>2.719745</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,19 +652,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31402060</v>
+        <v>31602406</v>
       </c>
       <c r="C7">
-        <v>3.072115</v>
+        <v>3.157333</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -663,19 +672,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31402061</v>
+        <v>31602438</v>
       </c>
       <c r="C8">
-        <v>2.606954</v>
+        <v>2.525974</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -683,19 +692,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31402097</v>
+        <v>31602634</v>
       </c>
       <c r="C9">
-        <v>2.56422</v>
+        <v>2.873377</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -703,19 +712,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31402017</v>
+        <v>31602209</v>
       </c>
       <c r="C10">
-        <v>3.158599</v>
+        <v>2.429217</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -723,19 +732,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31402110</v>
+        <v>31602611</v>
       </c>
       <c r="C11">
-        <v>3.352063</v>
+        <v>2.831642</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -743,19 +752,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31402111</v>
+        <v>31602610</v>
       </c>
       <c r="C12">
-        <v>1.966361</v>
+        <v>3.023659</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -763,19 +772,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31402053</v>
+        <v>31602113</v>
       </c>
       <c r="C13">
-        <v>3.574038</v>
+        <v>2.24183</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -783,19 +792,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31402054</v>
+        <v>31602115</v>
       </c>
       <c r="C14">
-        <v>2.878221</v>
+        <v>1.957941</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -803,19 +812,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31402055</v>
+        <v>31602302</v>
       </c>
       <c r="C15">
-        <v>2.79624</v>
+        <v>2.223476</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -823,19 +832,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31402056</v>
+        <v>31602303</v>
       </c>
       <c r="C16">
-        <v>2.842877</v>
+        <v>2.004438</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -843,19 +852,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31402057</v>
+        <v>31602421</v>
       </c>
       <c r="C17">
-        <v>3.053205</v>
+        <v>3.062712</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -863,19 +872,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31402058</v>
+        <v>81600107</v>
       </c>
       <c r="C18">
-        <v>3.158599</v>
+        <v>3.823843</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -883,19 +892,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31402038</v>
+        <v>31602128</v>
       </c>
       <c r="C19">
-        <v>2.935714</v>
+        <v>3.233677</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -903,19 +912,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31402039</v>
+        <v>31602333</v>
       </c>
       <c r="C20">
-        <v>3.290705</v>
+        <v>2.112805</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -923,39 +932,39 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31402013</v>
+        <v>31602506</v>
       </c>
       <c r="C21">
-        <v>1.980091</v>
+        <v>3.457333</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>31402014</v>
-      </c>
-      <c r="C22">
-        <v>3.105346</v>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -963,19 +972,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31402015</v>
+        <v>31602642</v>
       </c>
       <c r="C23">
-        <v>2.876825</v>
+        <v>2.539498</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -983,19 +992,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31402016</v>
+        <v>31602310</v>
       </c>
       <c r="C24">
-        <v>2.221068</v>
+        <v>2.176687</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1003,19 +1012,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31402018</v>
+        <v>31602512</v>
       </c>
       <c r="C25">
-        <v>2.722936</v>
+        <v>2.435347</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1023,19 +1032,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31402103</v>
+        <v>31602607</v>
       </c>
       <c r="C26">
-        <v>2.405864</v>
+        <v>2.646885</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1043,19 +1052,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31402104</v>
+        <v>31602309</v>
       </c>
       <c r="C27">
-        <v>2.066867</v>
+        <v>3.175478</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1063,19 +1072,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>31402105</v>
+        <v>31602205</v>
       </c>
       <c r="C28">
-        <v>2.327287</v>
+        <v>3.394953</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1083,39 +1092,39 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31402106</v>
+        <v>31602527</v>
       </c>
       <c r="C29">
-        <v>2.92994</v>
+        <v>3.507237</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
+      <c r="B30">
+        <v>31602143</v>
+      </c>
+      <c r="C30">
+        <v>3.367846</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1123,19 +1132,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31402082</v>
+        <v>31602538</v>
       </c>
       <c r="C31">
-        <v>2.691692</v>
+        <v>2.018567</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1143,19 +1152,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31402083</v>
+        <v>31602619</v>
       </c>
       <c r="C32">
-        <v>2.262539</v>
+        <v>2.067398</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1163,19 +1172,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31402084</v>
+        <v>31602307</v>
       </c>
       <c r="C33">
-        <v>2.006024</v>
+        <v>3.200631</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1183,19 +1192,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31402085</v>
+        <v>31602532</v>
       </c>
       <c r="C34">
-        <v>2.405864</v>
+        <v>1.861677</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1203,19 +1212,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31402086</v>
+        <v>31602405</v>
       </c>
       <c r="C35">
-        <v>3.352063</v>
+        <v>2.866559</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1223,19 +1232,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31402087</v>
+        <v>31602423</v>
       </c>
       <c r="C36">
-        <v>2.327287</v>
+        <v>2.736333</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1243,19 +1252,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31402088</v>
+        <v>31602328</v>
       </c>
       <c r="C37">
-        <v>2.92994</v>
+        <v>2.366993</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1263,19 +1272,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31402004</v>
+        <v>31602206</v>
       </c>
       <c r="C38">
-        <v>3.711243</v>
+        <v>3.307419</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1283,19 +1292,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31402005</v>
+        <v>31602315</v>
       </c>
       <c r="C39">
-        <v>1.964815</v>
+        <v>3.306954</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1303,19 +1312,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31402006</v>
+        <v>31602444</v>
       </c>
       <c r="C40">
-        <v>3.105346</v>
+        <v>3.673422</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1323,19 +1332,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31402007</v>
+        <v>31602345</v>
       </c>
       <c r="C41">
-        <v>2.353618</v>
+        <v>3.846284</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1343,39 +1352,39 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31402008</v>
+        <v>31602341</v>
       </c>
       <c r="C42">
-        <v>3.963973</v>
+        <v>3.918065</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>31402009</v>
-      </c>
-      <c r="C43">
-        <v>2.720973</v>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1383,19 +1392,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31402034</v>
+        <v>81600410</v>
       </c>
       <c r="C44">
-        <v>3.195427</v>
+        <v>3.025857</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1403,19 +1412,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31402035</v>
+        <v>31602210</v>
       </c>
       <c r="C45">
-        <v>2.729503</v>
+        <v>1.601246</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1423,19 +1432,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31402036</v>
+        <v>31602437</v>
       </c>
       <c r="C46">
-        <v>3.385987</v>
+        <v>2.188328</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1443,19 +1452,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31402037</v>
+        <v>31602531</v>
       </c>
       <c r="C47">
-        <v>2.889759</v>
+        <v>2.150459</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1463,19 +1472,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31402049</v>
+        <v>131601154</v>
       </c>
       <c r="C48">
-        <v>2.610726</v>
+        <v>2.563192</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1483,19 +1492,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31402050</v>
+        <v>31602630</v>
       </c>
       <c r="C49">
-        <v>2.946965</v>
+        <v>3.517685</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1503,19 +1512,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31402051</v>
+        <v>31602502</v>
       </c>
       <c r="C50">
-        <v>3.30639</v>
+        <v>3.674751</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1523,19 +1532,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>31402052</v>
+        <v>31602541</v>
       </c>
       <c r="C51">
-        <v>2.530878</v>
+        <v>3.17476</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1543,19 +1552,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31402019</v>
+        <v>31602620</v>
       </c>
       <c r="C52">
-        <v>3.072115</v>
+        <v>3.603909</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1563,19 +1572,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31402020</v>
+        <v>51501124</v>
       </c>
       <c r="C53">
-        <v>2.639936</v>
+        <v>2.790032</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1583,19 +1592,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31402065</v>
+        <v>31502531</v>
       </c>
       <c r="C54">
-        <v>2.977976</v>
+        <v>2.636977</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1603,19 +1612,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31402070</v>
+        <v>31602501</v>
       </c>
       <c r="C55">
-        <v>1.991818</v>
+        <v>3.517799</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1623,19 +1632,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>31402071</v>
+        <v>131601249</v>
       </c>
       <c r="C56">
-        <v>1.980091</v>
+        <v>3.25768</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1643,19 +1652,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>31402072</v>
+        <v>31602105</v>
       </c>
       <c r="C57">
-        <v>2.722823</v>
+        <v>3.174096</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1663,39 +1672,39 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31402073</v>
+        <v>31602228</v>
       </c>
       <c r="C58">
-        <v>3.399385</v>
+        <v>2.419878</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
+      <c r="B59">
+        <v>31602412</v>
+      </c>
+      <c r="C59">
+        <v>2.831348</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1703,19 +1712,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31402092</v>
+        <v>31602505</v>
       </c>
       <c r="C60">
-        <v>3.287667</v>
+        <v>3.393189</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1723,19 +1732,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31402093</v>
+        <v>111600112</v>
       </c>
       <c r="C61">
-        <v>2.743544</v>
+        <v>3.056436</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1743,19 +1752,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31402094</v>
+        <v>31602427</v>
       </c>
       <c r="C62">
-        <v>2.813497</v>
+        <v>2.418868</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1763,39 +1772,39 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31402095</v>
+        <v>31602403</v>
       </c>
       <c r="C63">
-        <v>3.963973</v>
+        <v>2.404389</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>31402077</v>
-      </c>
-      <c r="C64">
-        <v>3.033951</v>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1803,19 +1812,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31402078</v>
+        <v>31602606</v>
       </c>
       <c r="C65">
-        <v>1.785455</v>
+        <v>2.883912</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1823,19 +1832,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>31402079</v>
+        <v>31602608</v>
       </c>
       <c r="C66">
-        <v>2.802719</v>
+        <v>2.200322</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1843,19 +1852,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>31402080</v>
+        <v>31602605</v>
       </c>
       <c r="C67">
-        <v>1.980091</v>
+        <v>3.349667</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1863,19 +1872,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31402099</v>
+        <v>31602636</v>
       </c>
       <c r="C68">
-        <v>2.03597</v>
+        <v>3.351104</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1883,19 +1892,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31402100</v>
+        <v>31502301</v>
       </c>
       <c r="C69">
-        <v>3.822373</v>
+        <v>2.48065</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1903,19 +1912,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31402101</v>
+        <v>31602327</v>
       </c>
       <c r="C70">
-        <v>2.876221</v>
+        <v>1.856677</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1923,19 +1932,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31402102</v>
+        <v>31602326</v>
       </c>
       <c r="C71">
-        <v>2.006024</v>
+        <v>2.217325</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1943,19 +1952,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31402001</v>
+        <v>31602544</v>
       </c>
       <c r="C72">
-        <v>2.56422</v>
+        <v>3.105643</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1963,19 +1972,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31402002</v>
+        <v>111500206</v>
       </c>
       <c r="C73">
-        <v>2.787896</v>
+        <v>2.942384</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1983,19 +1992,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>31402062</v>
+        <v>31602543</v>
       </c>
       <c r="C74">
-        <v>2.378056</v>
+        <v>3.016835</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2003,19 +2012,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>31402063</v>
+        <v>31602523</v>
       </c>
       <c r="C75">
-        <v>3.248428</v>
+        <v>3.892233</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2023,19 +2032,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>31402064</v>
+        <v>31602507</v>
       </c>
       <c r="C76">
-        <v>3.250746</v>
+        <v>3.730645</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2043,19 +2052,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>31402032</v>
+        <v>41602204</v>
       </c>
       <c r="C77">
-        <v>2.570303</v>
+        <v>3.164865</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2063,19 +2072,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31402096</v>
+        <v>41602630</v>
       </c>
       <c r="C78">
-        <v>2.720195</v>
+        <v>3.369014</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2083,19 +2092,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31402010</v>
+        <v>31602146</v>
       </c>
       <c r="C79">
-        <v>2.088623</v>
+        <v>3.780795</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2103,19 +2112,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31402021</v>
+        <v>31601232</v>
       </c>
       <c r="C80">
-        <v>2.56901</v>
+        <v>3.789667</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2123,19 +2132,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31402022</v>
+        <v>31602511</v>
       </c>
       <c r="C81">
-        <v>3.263522</v>
+        <v>3.124063</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2143,19 +2152,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31402023</v>
+        <v>31602144</v>
       </c>
       <c r="C82">
-        <v>3.255346</v>
+        <v>2.550789</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2163,19 +2172,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31402024</v>
+        <v>31602248</v>
       </c>
       <c r="C83">
-        <v>3.033951</v>
+        <v>2.463057</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2183,39 +2192,39 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31402040</v>
+        <v>31601123</v>
       </c>
       <c r="C84">
-        <v>2.096884</v>
+        <v>2.726875</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>31402041</v>
-      </c>
-      <c r="C85">
-        <v>2.720973</v>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2223,16 +2232,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>31402042</v>
+        <v>31602246</v>
       </c>
       <c r="C86">
-        <v>2.088623</v>
+        <v>2.596942</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -2243,16 +2252,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31402043</v>
+        <v>31602320</v>
       </c>
       <c r="C87">
-        <v>2.743544</v>
+        <v>2.368807</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -2262,20 +2271,20 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
+      <c r="B88">
+        <v>31602323</v>
+      </c>
+      <c r="C88">
+        <v>2.228664</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2283,19 +2292,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31402025</v>
+        <v>131601225</v>
       </c>
       <c r="C89">
-        <v>1.785455</v>
+        <v>2.417284</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2303,19 +2312,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31402026</v>
+        <v>181600112</v>
       </c>
       <c r="C90">
-        <v>2.802719</v>
+        <v>3.12283</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2323,19 +2332,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31402027</v>
+        <v>31502607</v>
       </c>
       <c r="C91">
-        <v>3.963973</v>
+        <v>3.796564</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2343,19 +2352,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31402028</v>
+        <v>31601124</v>
       </c>
       <c r="C92">
-        <v>2.946965</v>
+        <v>2.956563</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2363,19 +2372,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31402029</v>
+        <v>31602201</v>
       </c>
       <c r="C93">
-        <v>3.30639</v>
+        <v>4.000683</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2383,19 +2392,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31402030</v>
+        <v>31602204</v>
       </c>
       <c r="C94">
-        <v>2.530878</v>
+        <v>3.411613</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2403,19 +2412,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31402031</v>
+        <v>31602312</v>
       </c>
       <c r="C95">
-        <v>2.69269</v>
+        <v>3.003754</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2423,19 +2432,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31402048</v>
+        <v>31602203</v>
       </c>
       <c r="C96">
-        <v>2.903145</v>
+        <v>3.19873</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2443,19 +2452,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31402011</v>
+        <v>31602242</v>
       </c>
       <c r="C97">
-        <v>2.059079</v>
+        <v>2.110938</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2463,19 +2472,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31402012</v>
+        <v>31602137</v>
       </c>
       <c r="C98">
-        <v>3.104776</v>
+        <v>3.312752</v>
       </c>
       <c r="D98" t="s">
         <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2483,19 +2492,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31402107</v>
+        <v>81600143</v>
       </c>
       <c r="C99">
-        <v>1.966361</v>
+        <v>3.859539</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2503,19 +2512,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31402108</v>
+        <v>31602402</v>
       </c>
       <c r="C100">
-        <v>2.69622</v>
+        <v>2.952145</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2523,19 +2532,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31402109</v>
+        <v>31602131</v>
       </c>
       <c r="C101">
-        <v>3.466454</v>
+        <v>3.456209</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2543,19 +2552,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31402089</v>
+        <v>31602431</v>
       </c>
       <c r="C102">
-        <v>1.966361</v>
+        <v>3.644408</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2563,19 +2572,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31402003</v>
+        <v>31602140</v>
       </c>
       <c r="C103">
-        <v>2.03597</v>
+        <v>3.172871</v>
       </c>
       <c r="D103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" t="s">
         <v>32</v>
       </c>
-      <c r="E103" t="s">
-        <v>36</v>
-      </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2583,19 +2592,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31402081</v>
+        <v>31602530</v>
       </c>
       <c r="C104">
-        <v>2.281346</v>
+        <v>2.536991</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2603,39 +2612,39 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31402044</v>
+        <v>31602245</v>
       </c>
       <c r="C105">
-        <v>2.813497</v>
+        <v>2.663855</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>31402045</v>
-      </c>
-      <c r="C106">
-        <v>3.548878</v>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2643,16 +2652,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31402046</v>
+        <v>31602624</v>
       </c>
       <c r="C107">
-        <v>3.466454</v>
+        <v>2.097476</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -2663,16 +2672,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31402047</v>
+        <v>31602442</v>
       </c>
       <c r="C108">
-        <v>3.352063</v>
+        <v>2.022961</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -2683,13 +2692,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>31402098</v>
+        <v>31602404</v>
       </c>
       <c r="C109">
-        <v>2.787896</v>
+        <v>3.111726</v>
       </c>
       <c r="D109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E109" t="s">
         <v>29</v>
@@ -2703,16 +2712,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>31402033</v>
+        <v>31602218</v>
       </c>
       <c r="C110">
-        <v>2.180731</v>
+        <v>3.0081</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -2723,16 +2732,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>31402074</v>
+        <v>31602217</v>
       </c>
       <c r="C111">
-        <v>2.393617</v>
+        <v>3.170779</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -2743,16 +2752,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31402075</v>
+        <v>31602631</v>
       </c>
       <c r="C112">
-        <v>3.263522</v>
+        <v>3.607492</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -2763,16 +2772,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31402076</v>
+        <v>31602331</v>
       </c>
       <c r="C113">
-        <v>3.255346</v>
+        <v>2.419536</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -2783,16 +2792,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>31402090</v>
+        <v>31602417</v>
       </c>
       <c r="C114">
-        <v>2.69622</v>
+        <v>3.349843</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -2803,16 +2812,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31402091</v>
+        <v>31602235</v>
       </c>
       <c r="C115">
-        <v>2.800326</v>
+        <v>3.516719</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -2822,19 +2831,239 @@
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>31602643</v>
+      </c>
+      <c r="C116">
+        <v>3.140683</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>51601135</v>
+      </c>
+      <c r="C117">
+        <v>2.002564</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>181600235</v>
+      </c>
+      <c r="C118">
+        <v>2.771154</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>31502103</v>
+      </c>
+      <c r="C119">
+        <v>1.83858</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>31602227</v>
+      </c>
+      <c r="C120">
+        <v>2.619934</v>
+      </c>
+      <c r="D120" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>31602425</v>
+      </c>
+      <c r="C121">
+        <v>2.561875</v>
+      </c>
+      <c r="D121" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>31602415</v>
+      </c>
+      <c r="C122">
+        <v>3.616294</v>
+      </c>
+      <c r="D122" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>31602332</v>
+      </c>
+      <c r="C123">
+        <v>2.49373</v>
+      </c>
+      <c r="D123" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>31602247</v>
+      </c>
+      <c r="C124">
+        <v>3.279655</v>
+      </c>
+      <c r="D124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>41602209</v>
+      </c>
+      <c r="C125">
+        <v>2.851827</v>
+      </c>
+      <c r="D125" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>31602136</v>
+      </c>
+      <c r="C126">
+        <v>2.599676</v>
+      </c>
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D127" t="s">
         <v>5</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E127" t="s">
         <v>5</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F127" t="s">
         <v>5</v>
       </c>
     </row>

--- a/output/BOOSTresult.xlsx
+++ b/output/BOOSTresult.xlsx
@@ -34,138 +34,138 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>张栋</t>
+  </si>
+  <si>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>苏雅茹</t>
+  </si>
+  <si>
     <t>牛玉贞</t>
   </si>
   <si>
-    <t>苏雅茹</t>
+    <t>王秀</t>
   </si>
   <si>
     <t>谢丽聪</t>
   </si>
   <si>
-    <t>吴英杰</t>
-  </si>
-  <si>
-    <t>王秀</t>
+    <t>孙岚</t>
+  </si>
+  <si>
+    <t>余小燕</t>
   </si>
   <si>
     <t>谢伙生</t>
   </si>
   <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>于元隆</t>
+  </si>
+  <si>
+    <t>郭昆</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
+  </si>
+  <si>
+    <t>叶东毅</t>
+  </si>
+  <si>
+    <t>刘文犀</t>
+  </si>
+  <si>
+    <t>程永利</t>
+  </si>
+  <si>
+    <t>何振峰</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
+    <t>傅仰耿</t>
+  </si>
+  <si>
+    <t>吴运兵</t>
+  </si>
+  <si>
     <t>于志敏</t>
   </si>
   <si>
-    <t>陈昭炯</t>
+    <t>陈勃</t>
+  </si>
+  <si>
+    <t>陈欢</t>
+  </si>
+  <si>
+    <t>朱丹红</t>
+  </si>
+  <si>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>白清源</t>
+  </si>
+  <si>
+    <t>阮一文</t>
+  </si>
+  <si>
+    <t>林秋月</t>
   </si>
   <si>
     <t>柯逍</t>
   </si>
   <si>
-    <t>陈欢</t>
-  </si>
-  <si>
-    <t>余春艳</t>
-  </si>
-  <si>
-    <t>刘文犀</t>
-  </si>
-  <si>
-    <t>陈勃</t>
-  </si>
-  <si>
-    <t>叶东毅</t>
-  </si>
-  <si>
-    <t>林秋月</t>
-  </si>
-  <si>
-    <t>王一蕾</t>
-  </si>
-  <si>
-    <t>张栋</t>
-  </si>
-  <si>
-    <t>郭昆</t>
-  </si>
-  <si>
-    <t>程永利</t>
-  </si>
-  <si>
-    <t>何振峰</t>
-  </si>
-  <si>
-    <t>傅仰耿</t>
-  </si>
-  <si>
-    <t>朱丹红</t>
-  </si>
-  <si>
     <t>韩晓芸</t>
   </si>
   <si>
-    <t>于元隆</t>
-  </si>
-  <si>
-    <t>叶菁</t>
-  </si>
-  <si>
-    <t>吴运兵</t>
-  </si>
-  <si>
-    <t>白清源</t>
-  </si>
-  <si>
-    <t>孙岚</t>
-  </si>
-  <si>
-    <t>阮一文</t>
-  </si>
-  <si>
-    <t>余小燕</t>
-  </si>
-  <si>
-    <t>郭龙坤</t>
+    <t xml:space="preserve">郭龙坤,
+刘文犀,
+王秀,
+叶东毅,
+</t>
   </si>
   <si>
     <t xml:space="preserve">何振峰,
-刘文犀,
-孙岚,
-郭龙坤,
+王一蕾,
+朱丹红,
+傅仰耿,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">傅仰耿,
-程永利,
-余春艳,
+    <t xml:space="preserve">白清源,
+柯逍,
+谢丽聪,
+谢伙生,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴运兵,
+张栋,
+于志敏,
+牛玉贞,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">程永利,
+叶菁,
+韩晓芸,
+余小燕,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈勃,
+于元隆,
 郭昆,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张栋,
-叶菁,
-吴运兵,
-阮一文,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王秀,
-苏雅茹,
-柯逍,
-于志敏,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余小燕,
 陈欢,
-白清源,
-陈勃,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">谢丽聪,
-林秋月,
-朱丹红,
-吴英杰,
 </t>
   </si>
 </sst>
@@ -552,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31602147</v>
+        <v>31502301</v>
       </c>
       <c r="C2">
-        <v>3.61732</v>
+        <v>2.48065</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31602148</v>
+        <v>31602327</v>
       </c>
       <c r="C3">
-        <v>3.602326</v>
+        <v>1.856677</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -592,16 +592,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>81600144</v>
+        <v>31602326</v>
       </c>
       <c r="C4">
-        <v>3.190164</v>
+        <v>2.217325</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -612,16 +612,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31602114</v>
+        <v>31602544</v>
       </c>
       <c r="C5">
-        <v>3.257516</v>
+        <v>3.105643</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -632,16 +632,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>51601414</v>
+        <v>111500206</v>
       </c>
       <c r="C6">
-        <v>2.719745</v>
+        <v>2.942384</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -652,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31602406</v>
+        <v>31602543</v>
       </c>
       <c r="C7">
-        <v>3.157333</v>
+        <v>3.016835</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -672,16 +672,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31602438</v>
+        <v>31602523</v>
       </c>
       <c r="C8">
-        <v>2.525974</v>
+        <v>3.892233</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -692,16 +692,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31602634</v>
+        <v>31602507</v>
       </c>
       <c r="C9">
-        <v>2.873377</v>
+        <v>3.730645</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -712,16 +712,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31602209</v>
+        <v>31602421</v>
       </c>
       <c r="C10">
-        <v>2.429217</v>
+        <v>3.062712</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -732,16 +732,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31602611</v>
+        <v>81600107</v>
       </c>
       <c r="C11">
-        <v>2.831642</v>
+        <v>3.823843</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -752,16 +752,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31602610</v>
+        <v>31602128</v>
       </c>
       <c r="C12">
-        <v>3.023659</v>
+        <v>3.233677</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -772,16 +772,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31602113</v>
+        <v>31602333</v>
       </c>
       <c r="C13">
-        <v>2.24183</v>
+        <v>2.112805</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -792,16 +792,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31602115</v>
+        <v>31602506</v>
       </c>
       <c r="C14">
-        <v>1.957941</v>
+        <v>3.457333</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -812,16 +812,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31602302</v>
+        <v>31602406</v>
       </c>
       <c r="C15">
-        <v>2.223476</v>
+        <v>3.157333</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -832,16 +832,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31602303</v>
+        <v>31602438</v>
       </c>
       <c r="C16">
-        <v>2.004438</v>
+        <v>2.525974</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -852,16 +852,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31602421</v>
+        <v>31602634</v>
       </c>
       <c r="C17">
-        <v>3.062712</v>
+        <v>2.873377</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -872,16 +872,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81600107</v>
+        <v>31602209</v>
       </c>
       <c r="C18">
-        <v>3.823843</v>
+        <v>2.429217</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -892,16 +892,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31602128</v>
+        <v>31602611</v>
       </c>
       <c r="C19">
-        <v>3.233677</v>
+        <v>2.831642</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -912,16 +912,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31602333</v>
+        <v>31602610</v>
       </c>
       <c r="C20">
-        <v>2.112805</v>
+        <v>3.023659</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -932,16 +932,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31602506</v>
+        <v>31602113</v>
       </c>
       <c r="C21">
-        <v>3.457333</v>
+        <v>2.24183</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -972,16 +972,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31602642</v>
+        <v>31602147</v>
       </c>
       <c r="C23">
-        <v>2.539498</v>
+        <v>3.61732</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -992,16 +992,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31602310</v>
+        <v>31602148</v>
       </c>
       <c r="C24">
-        <v>2.176687</v>
+        <v>3.602326</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -1012,16 +1012,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31602512</v>
+        <v>81600144</v>
       </c>
       <c r="C25">
-        <v>2.435347</v>
+        <v>3.190164</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
         <v>38</v>
@@ -1032,16 +1032,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31602607</v>
+        <v>31602114</v>
       </c>
       <c r="C26">
-        <v>2.646885</v>
+        <v>3.257516</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -1052,16 +1052,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31602309</v>
+        <v>51601414</v>
       </c>
       <c r="C27">
-        <v>3.175478</v>
+        <v>2.719745</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -1072,16 +1072,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>31602205</v>
+        <v>31602642</v>
       </c>
       <c r="C28">
-        <v>3.394953</v>
+        <v>2.539498</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -1092,16 +1092,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31602527</v>
+        <v>31602310</v>
       </c>
       <c r="C29">
-        <v>3.507237</v>
+        <v>2.176687</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -1112,16 +1112,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>31602143</v>
+        <v>31602512</v>
       </c>
       <c r="C30">
-        <v>3.367846</v>
+        <v>2.435347</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -1132,16 +1132,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31602538</v>
+        <v>31602607</v>
       </c>
       <c r="C31">
-        <v>2.018567</v>
+        <v>2.646885</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -1152,16 +1152,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31602619</v>
+        <v>31602115</v>
       </c>
       <c r="C32">
-        <v>2.067398</v>
+        <v>1.957941</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
         <v>38</v>
@@ -1172,16 +1172,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31602307</v>
+        <v>31602302</v>
       </c>
       <c r="C33">
-        <v>3.200631</v>
+        <v>2.223476</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
         <v>38</v>
@@ -1192,16 +1192,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31602532</v>
+        <v>31602303</v>
       </c>
       <c r="C34">
-        <v>1.861677</v>
+        <v>2.004438</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
@@ -1212,16 +1212,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31602405</v>
+        <v>31602235</v>
       </c>
       <c r="C35">
-        <v>2.866559</v>
+        <v>3.516719</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -1232,16 +1232,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31602423</v>
+        <v>31602643</v>
       </c>
       <c r="C36">
-        <v>2.736333</v>
+        <v>3.140683</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
@@ -1252,16 +1252,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31602328</v>
+        <v>51601135</v>
       </c>
       <c r="C37">
-        <v>2.366993</v>
+        <v>2.002564</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -1272,16 +1272,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31602206</v>
+        <v>31602227</v>
       </c>
       <c r="C38">
-        <v>3.307419</v>
+        <v>2.619934</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -1292,16 +1292,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31602315</v>
+        <v>31602309</v>
       </c>
       <c r="C39">
-        <v>3.306954</v>
+        <v>3.175478</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
@@ -1312,16 +1312,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31602444</v>
+        <v>31602205</v>
       </c>
       <c r="C40">
-        <v>3.673422</v>
+        <v>3.394953</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -1332,16 +1332,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31602345</v>
+        <v>31602527</v>
       </c>
       <c r="C41">
-        <v>3.846284</v>
+        <v>3.507237</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
         <v>38</v>
@@ -1352,16 +1352,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31602341</v>
+        <v>31602143</v>
       </c>
       <c r="C42">
-        <v>3.918065</v>
+        <v>3.367846</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
         <v>38</v>
@@ -1392,16 +1392,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>81600410</v>
+        <v>31602437</v>
       </c>
       <c r="C44">
-        <v>3.025857</v>
+        <v>2.188328</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
@@ -1412,16 +1412,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31602210</v>
+        <v>31602531</v>
       </c>
       <c r="C45">
-        <v>1.601246</v>
+        <v>2.150459</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
         <v>39</v>
@@ -1432,16 +1432,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31602437</v>
+        <v>131601154</v>
       </c>
       <c r="C46">
-        <v>2.188328</v>
+        <v>2.563192</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -1452,16 +1452,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31602531</v>
+        <v>31602137</v>
       </c>
       <c r="C47">
-        <v>2.150459</v>
+        <v>3.312752</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
         <v>39</v>
@@ -1472,16 +1472,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>131601154</v>
+        <v>81600143</v>
       </c>
       <c r="C48">
-        <v>2.563192</v>
+        <v>3.859539</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -1492,16 +1492,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31602630</v>
+        <v>31602402</v>
       </c>
       <c r="C49">
-        <v>3.517685</v>
+        <v>2.952145</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
@@ -1512,16 +1512,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31602502</v>
+        <v>31602131</v>
       </c>
       <c r="C50">
-        <v>3.674751</v>
+        <v>3.456209</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -1532,16 +1532,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>31602541</v>
+        <v>31602431</v>
       </c>
       <c r="C51">
-        <v>3.17476</v>
+        <v>3.644408</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -1552,16 +1552,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31602620</v>
+        <v>31602140</v>
       </c>
       <c r="C52">
-        <v>3.603909</v>
+        <v>3.172871</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -1572,16 +1572,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>51501124</v>
+        <v>41602204</v>
       </c>
       <c r="C53">
-        <v>2.790032</v>
+        <v>3.164865</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
@@ -1592,16 +1592,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31502531</v>
+        <v>41602630</v>
       </c>
       <c r="C54">
-        <v>2.636977</v>
+        <v>3.369014</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -1612,16 +1612,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31602501</v>
+        <v>31602146</v>
       </c>
       <c r="C55">
-        <v>3.517799</v>
+        <v>3.780795</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -1632,16 +1632,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>131601249</v>
+        <v>31601232</v>
       </c>
       <c r="C56">
-        <v>3.25768</v>
+        <v>3.789667</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -1652,16 +1652,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>31602105</v>
+        <v>31602511</v>
       </c>
       <c r="C57">
-        <v>3.174096</v>
+        <v>3.124063</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -1672,16 +1672,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31602228</v>
+        <v>31602144</v>
       </c>
       <c r="C58">
-        <v>2.419878</v>
+        <v>2.550789</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
         <v>39</v>
@@ -1692,16 +1692,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>31602412</v>
+        <v>31602248</v>
       </c>
       <c r="C59">
-        <v>2.831348</v>
+        <v>2.463057</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -1712,16 +1712,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31602505</v>
+        <v>31602619</v>
       </c>
       <c r="C60">
-        <v>3.393189</v>
+        <v>2.067398</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
         <v>39</v>
@@ -1732,16 +1732,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>111600112</v>
+        <v>31602307</v>
       </c>
       <c r="C61">
-        <v>3.056436</v>
+        <v>3.200631</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
         <v>39</v>
@@ -1752,16 +1752,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31602427</v>
+        <v>31602532</v>
       </c>
       <c r="C62">
-        <v>2.418868</v>
+        <v>1.861677</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -1772,16 +1772,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31602403</v>
+        <v>31602405</v>
       </c>
       <c r="C63">
-        <v>2.404389</v>
+        <v>2.866559</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -1818,7 +1818,7 @@
         <v>2.883912</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -1838,7 +1838,7 @@
         <v>2.200322</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -1858,7 +1858,7 @@
         <v>3.349667</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -1878,7 +1878,7 @@
         <v>3.351104</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -1892,16 +1892,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31502301</v>
+        <v>31602505</v>
       </c>
       <c r="C69">
-        <v>2.48065</v>
+        <v>3.393189</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F69" t="s">
         <v>40</v>
@@ -1912,16 +1912,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31602327</v>
+        <v>111600112</v>
       </c>
       <c r="C70">
-        <v>1.856677</v>
+        <v>3.056436</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
         <v>40</v>
@@ -1932,16 +1932,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31602326</v>
+        <v>31602630</v>
       </c>
       <c r="C71">
-        <v>2.217325</v>
+        <v>3.517685</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
         <v>40</v>
@@ -1952,16 +1952,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31602544</v>
+        <v>31602502</v>
       </c>
       <c r="C72">
-        <v>3.105643</v>
+        <v>3.674751</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -1972,16 +1972,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>111500206</v>
+        <v>31602541</v>
       </c>
       <c r="C73">
-        <v>2.942384</v>
+        <v>3.17476</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
         <v>40</v>
@@ -1992,16 +1992,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>31602543</v>
+        <v>31602620</v>
       </c>
       <c r="C74">
-        <v>3.016835</v>
+        <v>3.603909</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
         <v>40</v>
@@ -2012,16 +2012,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>31602523</v>
+        <v>51501124</v>
       </c>
       <c r="C75">
-        <v>3.892233</v>
+        <v>2.790032</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="s">
         <v>40</v>
@@ -2032,16 +2032,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>31602507</v>
+        <v>31502531</v>
       </c>
       <c r="C76">
-        <v>3.730645</v>
+        <v>2.636977</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
         <v>40</v>
@@ -2052,16 +2052,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>41602204</v>
+        <v>31602501</v>
       </c>
       <c r="C77">
-        <v>3.164865</v>
+        <v>3.517799</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
         <v>40</v>
@@ -2072,16 +2072,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>41602630</v>
+        <v>131601249</v>
       </c>
       <c r="C78">
-        <v>3.369014</v>
+        <v>3.25768</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
         <v>40</v>
@@ -2092,16 +2092,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31602146</v>
+        <v>31601123</v>
       </c>
       <c r="C79">
-        <v>3.780795</v>
+        <v>2.726875</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
         <v>40</v>
@@ -2112,16 +2112,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31601232</v>
+        <v>31602246</v>
       </c>
       <c r="C80">
-        <v>3.789667</v>
+        <v>2.596942</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>40</v>
@@ -2132,16 +2132,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31602511</v>
+        <v>31602320</v>
       </c>
       <c r="C81">
-        <v>3.124063</v>
+        <v>2.368807</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>40</v>
@@ -2152,16 +2152,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31602144</v>
+        <v>31602323</v>
       </c>
       <c r="C82">
-        <v>2.550789</v>
+        <v>2.228664</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>40</v>
@@ -2172,16 +2172,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31602248</v>
+        <v>131601225</v>
       </c>
       <c r="C83">
-        <v>2.463057</v>
+        <v>2.417284</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>40</v>
@@ -2192,16 +2192,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31601123</v>
+        <v>181600112</v>
       </c>
       <c r="C84">
-        <v>2.726875</v>
+        <v>3.12283</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
         <v>40</v>
@@ -2232,16 +2232,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>31602246</v>
+        <v>31602425</v>
       </c>
       <c r="C86">
-        <v>2.596942</v>
+        <v>2.561875</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -2252,16 +2252,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31602320</v>
+        <v>31602415</v>
       </c>
       <c r="C87">
-        <v>2.368807</v>
+        <v>3.616294</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -2272,16 +2272,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>31602323</v>
+        <v>31602332</v>
       </c>
       <c r="C88">
-        <v>2.228664</v>
+        <v>2.49373</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
@@ -2292,16 +2292,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>131601225</v>
+        <v>31602247</v>
       </c>
       <c r="C89">
-        <v>2.417284</v>
+        <v>3.279655</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
         <v>41</v>
@@ -2312,16 +2312,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>181600112</v>
+        <v>41602209</v>
       </c>
       <c r="C90">
-        <v>3.12283</v>
+        <v>2.851827</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -2332,16 +2332,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31502607</v>
+        <v>31602136</v>
       </c>
       <c r="C91">
-        <v>3.796564</v>
+        <v>2.599676</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -2352,16 +2352,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31601124</v>
+        <v>31502607</v>
       </c>
       <c r="C92">
-        <v>2.956563</v>
+        <v>3.796564</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
         <v>41</v>
@@ -2372,16 +2372,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31602201</v>
+        <v>31601124</v>
       </c>
       <c r="C93">
-        <v>4.000683</v>
+        <v>2.956563</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -2392,16 +2392,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31602204</v>
+        <v>31602201</v>
       </c>
       <c r="C94">
-        <v>3.411613</v>
+        <v>4.000683</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -2412,16 +2412,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31602312</v>
+        <v>31602204</v>
       </c>
       <c r="C95">
-        <v>3.003754</v>
+        <v>3.411613</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -2432,16 +2432,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31602203</v>
+        <v>31602312</v>
       </c>
       <c r="C96">
-        <v>3.19873</v>
+        <v>3.003754</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
         <v>41</v>
@@ -2452,16 +2452,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31602242</v>
+        <v>31602624</v>
       </c>
       <c r="C97">
-        <v>2.110938</v>
+        <v>2.097476</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
         <v>41</v>
@@ -2472,16 +2472,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31602137</v>
+        <v>31602442</v>
       </c>
       <c r="C98">
-        <v>3.312752</v>
+        <v>2.022961</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
         <v>41</v>
@@ -2492,16 +2492,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>81600143</v>
+        <v>31602538</v>
       </c>
       <c r="C99">
-        <v>3.859539</v>
+        <v>2.018567</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
@@ -2512,16 +2512,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31602402</v>
+        <v>31602105</v>
       </c>
       <c r="C100">
-        <v>2.952145</v>
+        <v>3.174096</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
         <v>41</v>
@@ -2532,16 +2532,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31602131</v>
+        <v>31602228</v>
       </c>
       <c r="C101">
-        <v>3.456209</v>
+        <v>2.419878</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
         <v>41</v>
@@ -2552,16 +2552,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31602431</v>
+        <v>31602412</v>
       </c>
       <c r="C102">
-        <v>3.644408</v>
+        <v>2.831348</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
         <v>41</v>
@@ -2572,16 +2572,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31602140</v>
+        <v>81600410</v>
       </c>
       <c r="C103">
-        <v>3.172871</v>
+        <v>3.025857</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
         <v>41</v>
@@ -2592,16 +2592,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31602530</v>
+        <v>31602210</v>
       </c>
       <c r="C104">
-        <v>2.536991</v>
+        <v>1.601246</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
         <v>41</v>
@@ -2612,16 +2612,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31602245</v>
+        <v>31602203</v>
       </c>
       <c r="C105">
-        <v>2.663855</v>
+        <v>3.19873</v>
       </c>
       <c r="D105" t="s">
         <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
         <v>41</v>
@@ -2652,16 +2652,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31602624</v>
+        <v>31602530</v>
       </c>
       <c r="C107">
-        <v>2.097476</v>
+        <v>2.536991</v>
       </c>
       <c r="D107" t="s">
         <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -2672,16 +2672,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31602442</v>
+        <v>31602245</v>
       </c>
       <c r="C108">
-        <v>2.022961</v>
+        <v>2.663855</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -2701,7 +2701,7 @@
         <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -2721,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -2741,7 +2741,7 @@
         <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -2761,7 +2761,7 @@
         <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -2781,7 +2781,7 @@
         <v>32</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -2801,7 +2801,7 @@
         <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -2812,16 +2812,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31602235</v>
+        <v>181600235</v>
       </c>
       <c r="C115">
-        <v>3.516719</v>
+        <v>2.771154</v>
       </c>
       <c r="D115" t="s">
         <v>33</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -2832,16 +2832,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>31602643</v>
+        <v>31502103</v>
       </c>
       <c r="C116">
-        <v>3.140683</v>
+        <v>1.83858</v>
       </c>
       <c r="D116" t="s">
         <v>33</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -2852,16 +2852,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>51601135</v>
+        <v>31602427</v>
       </c>
       <c r="C117">
-        <v>2.002564</v>
+        <v>2.418868</v>
       </c>
       <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" t="s">
         <v>33</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
       </c>
       <c r="F117" t="s">
         <v>42</v>
@@ -2872,16 +2872,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>181600235</v>
+        <v>31602403</v>
       </c>
       <c r="C118">
-        <v>2.771154</v>
+        <v>2.404389</v>
       </c>
       <c r="D118" t="s">
         <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
         <v>42</v>
@@ -2892,16 +2892,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>31502103</v>
+        <v>31602423</v>
       </c>
       <c r="C119">
-        <v>1.83858</v>
+        <v>2.736333</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -2912,16 +2912,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>31602227</v>
+        <v>31602328</v>
       </c>
       <c r="C120">
-        <v>2.619934</v>
+        <v>2.366993</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
@@ -2932,16 +2932,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>31602425</v>
+        <v>31602206</v>
       </c>
       <c r="C121">
-        <v>2.561875</v>
+        <v>3.307419</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F121" t="s">
         <v>42</v>
@@ -2952,16 +2952,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>31602415</v>
+        <v>31602315</v>
       </c>
       <c r="C122">
-        <v>3.616294</v>
+        <v>3.306954</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F122" t="s">
         <v>42</v>
@@ -2972,16 +2972,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>31602332</v>
+        <v>31602444</v>
       </c>
       <c r="C123">
-        <v>2.49373</v>
+        <v>3.673422</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F123" t="s">
         <v>42</v>
@@ -2992,16 +2992,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>31602247</v>
+        <v>31602345</v>
       </c>
       <c r="C124">
-        <v>3.279655</v>
+        <v>3.846284</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F124" t="s">
         <v>42</v>
@@ -3012,16 +3012,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>41602209</v>
+        <v>31602341</v>
       </c>
       <c r="C125">
-        <v>2.851827</v>
+        <v>3.918065</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F125" t="s">
         <v>42</v>
@@ -3032,16 +3032,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>31602136</v>
+        <v>31602242</v>
       </c>
       <c r="C126">
-        <v>2.599676</v>
+        <v>2.110938</v>
       </c>
       <c r="D126" t="s">
         <v>36</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
         <v>42</v>

--- a/output/BOOSTresult.xlsx
+++ b/output/BOOSTresult.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="23256" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="44">
   <si>
     <t>学号</t>
   </si>
@@ -31,100 +31,10 @@
     <t>答辩老师</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>张栋</t>
   </si>
   <si>
-    <t>吴英杰</t>
-  </si>
-  <si>
     <t>苏雅茹</t>
-  </si>
-  <si>
-    <t>牛玉贞</t>
-  </si>
-  <si>
-    <t>王秀</t>
-  </si>
-  <si>
-    <t>谢丽聪</t>
-  </si>
-  <si>
-    <t>孙岚</t>
-  </si>
-  <si>
-    <t>余小燕</t>
-  </si>
-  <si>
-    <t>谢伙生</t>
-  </si>
-  <si>
-    <t>余春艳</t>
-  </si>
-  <si>
-    <t>于元隆</t>
-  </si>
-  <si>
-    <t>郭昆</t>
-  </si>
-  <si>
-    <t>陈昭炯</t>
-  </si>
-  <si>
-    <t>王一蕾</t>
-  </si>
-  <si>
-    <t>叶东毅</t>
-  </si>
-  <si>
-    <t>刘文犀</t>
-  </si>
-  <si>
-    <t>程永利</t>
-  </si>
-  <si>
-    <t>何振峰</t>
-  </si>
-  <si>
-    <t>郭龙坤</t>
-  </si>
-  <si>
-    <t>傅仰耿</t>
-  </si>
-  <si>
-    <t>吴运兵</t>
-  </si>
-  <si>
-    <t>于志敏</t>
-  </si>
-  <si>
-    <t>陈勃</t>
-  </si>
-  <si>
-    <t>陈欢</t>
-  </si>
-  <si>
-    <t>朱丹红</t>
-  </si>
-  <si>
-    <t>叶菁</t>
-  </si>
-  <si>
-    <t>白清源</t>
-  </si>
-  <si>
-    <t>阮一文</t>
-  </si>
-  <si>
-    <t>林秋月</t>
-  </si>
-  <si>
-    <t>柯逍</t>
-  </si>
-  <si>
-    <t>韩晓芸</t>
   </si>
   <si>
     <t xml:space="preserve">郭龙坤,
@@ -134,6 +44,24 @@
 </t>
   </si>
   <si>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
+    <t>刘文犀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>牛玉贞</t>
+  </si>
+  <si>
+    <t>何振峰</t>
+  </si>
+  <si>
     <t xml:space="preserve">何振峰,
 王一蕾,
 朱丹红,
@@ -141,6 +69,39 @@
 </t>
   </si>
   <si>
+    <t>王秀</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
+  </si>
+  <si>
+    <t>谢丽聪</t>
+  </si>
+  <si>
+    <t>孙 岚</t>
+  </si>
+  <si>
+    <t>孙岚</t>
+  </si>
+  <si>
+    <t>余小燕</t>
+  </si>
+  <si>
+    <t>朱丹红</t>
+  </si>
+  <si>
+    <t>谢伙生</t>
+  </si>
+  <si>
+    <t>傅仰耿</t>
+  </si>
+  <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
     <t xml:space="preserve">白清源,
 柯逍,
 谢丽聪,
@@ -148,6 +109,18 @@
 </t>
   </si>
   <si>
+    <t>于元隆</t>
+  </si>
+  <si>
+    <t>白清源</t>
+  </si>
+  <si>
+    <t>郭昆</t>
+  </si>
+  <si>
+    <t>柯逍</t>
+  </si>
+  <si>
     <t xml:space="preserve">吴运兵,
 张栋,
 于志敏,
@@ -155,6 +128,18 @@
 </t>
   </si>
   <si>
+    <t>叶东毅</t>
+  </si>
+  <si>
+    <t>吴运兵</t>
+  </si>
+  <si>
+    <t>程永利</t>
+  </si>
+  <si>
+    <t>于志敏</t>
+  </si>
+  <si>
     <t xml:space="preserve">程永利,
 叶菁,
 韩晓芸,
@@ -162,43 +147,404 @@
 </t>
   </si>
   <si>
+    <t>陈勃</t>
+  </si>
+  <si>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>陈欢</t>
+  </si>
+  <si>
+    <t>韩晓芸</t>
+  </si>
+  <si>
     <t xml:space="preserve">陈勃,
 于元隆,
 郭昆,
 陈欢,
 </t>
   </si>
+  <si>
+    <t>阮一文</t>
+  </si>
+  <si>
+    <t>林秋月</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -221,9 +567,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -231,11 +819,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,19 +1158,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,13 +1200,13 @@
         <v>2.48065</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -578,13 +1220,13 @@
         <v>1.856677</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -598,13 +1240,13 @@
         <v>2.217325</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -618,13 +1260,13 @@
         <v>3.105643</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -638,13 +1280,13 @@
         <v>2.942384</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -658,13 +1300,13 @@
         <v>3.016835</v>
       </c>
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -678,13 +1320,13 @@
         <v>3.892233</v>
       </c>
       <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -698,13 +1340,13 @@
         <v>3.730645</v>
       </c>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -718,13 +1360,13 @@
         <v>3.062712</v>
       </c>
       <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -738,13 +1380,13 @@
         <v>3.823843</v>
       </c>
       <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
         <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -758,13 +1400,13 @@
         <v>3.233677</v>
       </c>
       <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -778,13 +1420,13 @@
         <v>2.112805</v>
       </c>
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -798,13 +1440,13 @@
         <v>3.457333</v>
       </c>
       <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -818,13 +1460,13 @@
         <v>3.157333</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,13 +1480,13 @@
         <v>2.525974</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -858,13 +1500,13 @@
         <v>2.873377</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -878,13 +1520,13 @@
         <v>2.429217</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -898,13 +1540,13 @@
         <v>2.831642</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -918,13 +1560,13 @@
         <v>3.023659</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -938,13 +1580,13 @@
         <v>2.24183</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -952,19 +1594,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -978,13 +1620,13 @@
         <v>3.61732</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -998,13 +1640,13 @@
         <v>3.602326</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1018,13 +1660,13 @@
         <v>3.190164</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1038,13 +1680,13 @@
         <v>3.257516</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1058,13 +1700,13 @@
         <v>2.719745</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1078,13 +1720,13 @@
         <v>2.539498</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1098,13 +1740,13 @@
         <v>2.176687</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1118,13 +1760,13 @@
         <v>2.435347</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1138,13 +1780,13 @@
         <v>2.646885</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1158,13 +1800,13 @@
         <v>1.957941</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1178,13 +1820,13 @@
         <v>2.223476</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1198,13 +1840,13 @@
         <v>2.004438</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1218,13 +1860,13 @@
         <v>3.516719</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1238,13 +1880,13 @@
         <v>3.140683</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1258,13 +1900,13 @@
         <v>2.002564</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1278,13 +1920,13 @@
         <v>2.619934</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1298,13 +1940,13 @@
         <v>3.175478</v>
       </c>
       <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
         <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1318,13 +1960,13 @@
         <v>3.394953</v>
       </c>
       <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
         <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1338,13 +1980,13 @@
         <v>3.507237</v>
       </c>
       <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
         <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1358,13 +2000,13 @@
         <v>3.367846</v>
       </c>
       <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
         <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1372,19 +2014,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1398,13 +2040,13 @@
         <v>2.188328</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1418,13 +2060,13 @@
         <v>2.150459</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1438,13 +2080,13 @@
         <v>2.563192</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1458,13 +2100,13 @@
         <v>3.312752</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1478,13 +2120,13 @@
         <v>3.859539</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1498,13 +2140,13 @@
         <v>2.952145</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1518,13 +2160,13 @@
         <v>3.456209</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1538,13 +2180,13 @@
         <v>3.644408</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1558,13 +2200,13 @@
         <v>3.172871</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1578,13 +2220,13 @@
         <v>3.164865</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1598,13 +2240,13 @@
         <v>3.369014</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1618,13 +2260,13 @@
         <v>3.780795</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1638,13 +2280,13 @@
         <v>3.789667</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1658,13 +2300,13 @@
         <v>3.124063</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1678,13 +2320,13 @@
         <v>2.550789</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1698,13 +2340,13 @@
         <v>2.463057</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1718,13 +2360,13 @@
         <v>2.067398</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1738,13 +2380,13 @@
         <v>3.200631</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1758,13 +2400,13 @@
         <v>1.861677</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1778,13 +2420,13 @@
         <v>2.866559</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1792,19 +2434,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1818,13 +2460,13 @@
         <v>2.883912</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1838,13 +2480,13 @@
         <v>2.200322</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1858,13 +2500,13 @@
         <v>3.349667</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1878,13 +2520,13 @@
         <v>3.351104</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1898,13 +2540,13 @@
         <v>3.393189</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1918,13 +2560,13 @@
         <v>3.056436</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1938,13 +2580,13 @@
         <v>3.517685</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1958,13 +2600,13 @@
         <v>3.674751</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1978,13 +2620,13 @@
         <v>3.17476</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1998,13 +2640,13 @@
         <v>3.603909</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2018,13 +2660,13 @@
         <v>2.790032</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2038,13 +2680,13 @@
         <v>2.636977</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2058,13 +2700,13 @@
         <v>3.517799</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2078,13 +2720,13 @@
         <v>3.25768</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2098,13 +2740,13 @@
         <v>2.726875</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2118,13 +2760,13 @@
         <v>2.596942</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2138,13 +2780,13 @@
         <v>2.368807</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2158,13 +2800,13 @@
         <v>2.228664</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2178,13 +2820,13 @@
         <v>2.417284</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2198,13 +2840,13 @@
         <v>3.12283</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2212,19 +2854,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2238,13 +2880,13 @@
         <v>2.561875</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2258,13 +2900,13 @@
         <v>3.616294</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2278,13 +2920,13 @@
         <v>2.49373</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2298,13 +2940,13 @@
         <v>3.279655</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2318,13 +2960,13 @@
         <v>2.851827</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2338,13 +2980,13 @@
         <v>2.599676</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2358,13 +3000,13 @@
         <v>3.796564</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2378,13 +3020,13 @@
         <v>2.956563</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2398,13 +3040,13 @@
         <v>4.000683</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2418,13 +3060,13 @@
         <v>3.411613</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2438,13 +3080,13 @@
         <v>3.003754</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2458,13 +3100,13 @@
         <v>2.097476</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2478,13 +3120,13 @@
         <v>2.022961</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2498,13 +3140,13 @@
         <v>2.018567</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2518,13 +3160,13 @@
         <v>3.174096</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2538,13 +3180,13 @@
         <v>2.419878</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2558,13 +3200,13 @@
         <v>2.831348</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2578,13 +3220,13 @@
         <v>3.025857</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" t="s">
         <v>36</v>
-      </c>
-      <c r="F103" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2598,13 +3240,13 @@
         <v>1.601246</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s">
         <v>36</v>
-      </c>
-      <c r="F104" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2618,13 +3260,13 @@
         <v>3.19873</v>
       </c>
       <c r="D105" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2632,19 +3274,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2658,13 +3300,13 @@
         <v>2.536991</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2678,13 +3320,13 @@
         <v>2.663855</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2698,13 +3340,13 @@
         <v>3.111726</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2718,13 +3360,13 @@
         <v>3.0081</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2738,13 +3380,13 @@
         <v>3.170779</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2758,13 +3400,13 @@
         <v>3.607492</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2778,13 +3420,13 @@
         <v>2.419536</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2798,13 +3440,13 @@
         <v>3.349843</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2818,13 +3460,13 @@
         <v>2.771154</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2838,13 +3480,13 @@
         <v>1.83858</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2858,13 +3500,13 @@
         <v>2.418868</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2878,13 +3520,13 @@
         <v>2.404389</v>
       </c>
       <c r="D118" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2898,13 +3540,13 @@
         <v>2.736333</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2918,13 +3560,13 @@
         <v>2.366993</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2938,13 +3580,13 @@
         <v>3.307419</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2958,13 +3600,13 @@
         <v>3.306954</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2978,13 +3620,13 @@
         <v>3.673422</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2998,13 +3640,13 @@
         <v>3.846284</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3018,13 +3660,13 @@
         <v>3.918065</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3038,13 +3680,13 @@
         <v>2.110938</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3052,22 +3694,23 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/output/BOOSTresult.xlsx
+++ b/output/BOOSTresult.xlsx
@@ -37,6 +37,42 @@
     <t>答辩老师</t>
   </si>
   <si>
+    <t>陈伟杰</t>
+  </si>
+  <si>
+    <t>蒋熊</t>
+  </si>
+  <si>
+    <t>蔡鸿毅</t>
+  </si>
+  <si>
+    <t>陈加伟</t>
+  </si>
+  <si>
+    <t>洪泽波</t>
+  </si>
+  <si>
+    <t>程晓宏</t>
+  </si>
+  <si>
+    <t>叶一帆</t>
+  </si>
+  <si>
+    <t>吴志鸿</t>
+  </si>
+  <si>
+    <t>陈志炜</t>
+  </si>
+  <si>
+    <t>陈泽钜</t>
+  </si>
+  <si>
+    <t>陈远根</t>
+  </si>
+  <si>
+    <t>何宇恒</t>
+  </si>
+  <si>
     <t>黄家雄</t>
   </si>
   <si>
@@ -46,6 +82,144 @@
     <t>陈景荣</t>
   </si>
   <si>
+    <t>林世杰</t>
+  </si>
+  <si>
+    <t>傅滨</t>
+  </si>
+  <si>
+    <t>林志华</t>
+  </si>
+  <si>
+    <t>王宇鹏</t>
+  </si>
+  <si>
+    <t>陈欣</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>黄洪文</t>
+  </si>
+  <si>
+    <t>陈玉婷</t>
+  </si>
+  <si>
+    <t>吴嘉蕊</t>
+  </si>
+  <si>
+    <t>陈艺芬</t>
+  </si>
+  <si>
+    <t>邱怡琳</t>
+  </si>
+  <si>
+    <t>陈诗</t>
+  </si>
+  <si>
+    <t>陈朗</t>
+  </si>
+  <si>
+    <t>陈韬宇</t>
+  </si>
+  <si>
+    <t>陈浩</t>
+  </si>
+  <si>
+    <t>许舒玲</t>
+  </si>
+  <si>
+    <t>陈芳</t>
+  </si>
+  <si>
+    <t>杨欣</t>
+  </si>
+  <si>
+    <t>缪欣</t>
+  </si>
+  <si>
+    <t>陈柏涛</t>
+  </si>
+  <si>
+    <t>章邴瀚</t>
+  </si>
+  <si>
+    <t>李琦</t>
+  </si>
+  <si>
+    <t>王彬</t>
+  </si>
+  <si>
+    <t>吴佳炜</t>
+  </si>
+  <si>
+    <t>蔡宇航</t>
+  </si>
+  <si>
+    <t>赵艳姣</t>
+  </si>
+  <si>
+    <t>包斌虎</t>
+  </si>
+  <si>
+    <t>刘嗣林</t>
+  </si>
+  <si>
+    <t>林颜锡</t>
+  </si>
+  <si>
+    <t>庄怡静</t>
+  </si>
+  <si>
+    <t>赵畅</t>
+  </si>
+  <si>
+    <t>周政演</t>
+  </si>
+  <si>
+    <t>刘宏岩</t>
+  </si>
+  <si>
+    <t>陈俞辛</t>
+  </si>
+  <si>
+    <t>吕振威</t>
+  </si>
+  <si>
+    <t>蓝梦婕</t>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>郑钧兰</t>
+  </si>
+  <si>
+    <t>黄毓明</t>
+  </si>
+  <si>
+    <t>魏璐炜</t>
+  </si>
+  <si>
+    <t>陈晓彬</t>
+  </si>
+  <si>
+    <t>黄聿镔</t>
+  </si>
+  <si>
+    <t>黄培鑫</t>
+  </si>
+  <si>
+    <t>苏韫月</t>
+  </si>
+  <si>
+    <t>王全炯</t>
+  </si>
+  <si>
+    <t>李彩贞</t>
+  </si>
+  <si>
     <t>丁水源</t>
   </si>
   <si>
@@ -67,37 +241,142 @@
     <t>郑智文</t>
   </si>
   <si>
+    <t>郑莹</t>
+  </si>
+  <si>
+    <t>甘伟坤</t>
+  </si>
+  <si>
+    <t>胡继文</t>
+  </si>
+  <si>
+    <t>陈思龙</t>
+  </si>
+  <si>
+    <t>吴竞凯</t>
+  </si>
+  <si>
+    <t>钟林泱</t>
+  </si>
+  <si>
+    <t>陈璟</t>
+  </si>
+  <si>
+    <t>佘岳昕</t>
+  </si>
+  <si>
+    <t>王源</t>
+  </si>
+  <si>
+    <t>许文霖</t>
+  </si>
+  <si>
+    <t>杨月琪</t>
+  </si>
+  <si>
+    <t>王之杰</t>
+  </si>
+  <si>
+    <t>张俊耀</t>
+  </si>
+  <si>
+    <t>林雅静</t>
+  </si>
+  <si>
+    <t>邓沁兰</t>
+  </si>
+  <si>
+    <t>陈少捷</t>
+  </si>
+  <si>
+    <t>钱若杨</t>
+  </si>
+  <si>
+    <t>尤庆源</t>
+  </si>
+  <si>
+    <t>张安仲</t>
+  </si>
+  <si>
+    <t>蔡正浩</t>
+  </si>
+  <si>
+    <t>郑建禹</t>
+  </si>
+  <si>
+    <t>李恒达</t>
+  </si>
+  <si>
+    <t>廖钰萍</t>
+  </si>
+  <si>
+    <t>刘丽珍</t>
+  </si>
+  <si>
+    <t>黄禄松</t>
+  </si>
+  <si>
+    <t>陈慧琳</t>
+  </si>
+  <si>
+    <t>林子青</t>
+  </si>
+  <si>
+    <t>黄伟达</t>
+  </si>
+  <si>
+    <t>郑愈明</t>
+  </si>
+  <si>
+    <t>朱文婧</t>
+  </si>
+  <si>
+    <t>周依婷</t>
+  </si>
+  <si>
+    <t>胡绪佩</t>
+  </si>
+  <si>
+    <t>邱润</t>
+  </si>
+  <si>
+    <t>胡青元</t>
+  </si>
+  <si>
+    <t>邓明锴</t>
+  </si>
+  <si>
+    <t>王玙</t>
+  </si>
+  <si>
+    <t>朱惠斌</t>
+  </si>
+  <si>
+    <t>岳冠宇</t>
+  </si>
+  <si>
+    <t>袁玉珍</t>
+  </si>
+  <si>
+    <t>林伟嘉</t>
+  </si>
+  <si>
+    <t>郑孔宇</t>
+  </si>
+  <si>
     <t>黄志铭</t>
   </si>
   <si>
-    <t>陈朗</t>
-  </si>
-  <si>
-    <t>陈韬宇</t>
-  </si>
-  <si>
-    <t>陈浩</t>
-  </si>
-  <si>
-    <t>许舒玲</t>
-  </si>
-  <si>
-    <t>陈伟杰</t>
-  </si>
-  <si>
-    <t>蒋熊</t>
-  </si>
-  <si>
-    <t>蔡鸿毅</t>
-  </si>
-  <si>
-    <t>陈加伟</t>
-  </si>
-  <si>
-    <t>洪泽波</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>王柯鑫</t>
+  </si>
+  <si>
+    <t>张小强</t>
+  </si>
+  <si>
+    <t>陈顺兴</t>
+  </si>
+  <si>
+    <t>李凌凯</t>
   </si>
   <si>
     <t>刘浩</t>
@@ -121,283 +400,40 @@
     <t>伊碧霞</t>
   </si>
   <si>
-    <t>程晓宏</t>
-  </si>
-  <si>
-    <t>叶一帆</t>
-  </si>
-  <si>
-    <t>吴志鸿</t>
-  </si>
-  <si>
-    <t>陈志炜</t>
-  </si>
-  <si>
-    <t>陈泽钜</t>
-  </si>
-  <si>
-    <t>陈远根</t>
-  </si>
-  <si>
-    <t>何宇恒</t>
-  </si>
-  <si>
-    <t>陈晓彬</t>
-  </si>
-  <si>
-    <t>黄聿镔</t>
-  </si>
-  <si>
-    <t>黄培鑫</t>
-  </si>
-  <si>
-    <t>苏韫月</t>
-  </si>
-  <si>
-    <t>王全炯</t>
-  </si>
-  <si>
-    <t>李彩贞</t>
-  </si>
-  <si>
-    <t>郑莹</t>
-  </si>
-  <si>
-    <t>甘伟坤</t>
-  </si>
-  <si>
-    <t>胡继文</t>
-  </si>
-  <si>
-    <t>陈思龙</t>
-  </si>
-  <si>
-    <t>林伟嘉</t>
-  </si>
-  <si>
-    <t>郑孔宇</t>
-  </si>
-  <si>
-    <t>吴竞凯</t>
-  </si>
-  <si>
-    <t>钟林泱</t>
-  </si>
-  <si>
-    <t>陈璟</t>
-  </si>
-  <si>
-    <t>佘岳昕</t>
-  </si>
-  <si>
-    <t>王源</t>
-  </si>
-  <si>
-    <t>许文霖</t>
-  </si>
-  <si>
-    <t>黄洪文</t>
-  </si>
-  <si>
-    <t>陈玉婷</t>
-  </si>
-  <si>
-    <t>吴嘉蕊</t>
-  </si>
-  <si>
-    <t>陈艺芬</t>
-  </si>
-  <si>
-    <t>邓沁兰</t>
-  </si>
-  <si>
-    <t>陈少捷</t>
-  </si>
-  <si>
-    <t>钱若杨</t>
-  </si>
-  <si>
-    <t>尤庆源</t>
-  </si>
-  <si>
-    <t>林世杰</t>
-  </si>
-  <si>
-    <t>傅滨</t>
-  </si>
-  <si>
-    <t>林志华</t>
-  </si>
-  <si>
-    <t>王宇鹏</t>
-  </si>
-  <si>
-    <t>陈欣</t>
-  </si>
-  <si>
-    <t>王玙</t>
-  </si>
-  <si>
-    <t>朱惠斌</t>
-  </si>
-  <si>
-    <t>岳冠宇</t>
-  </si>
-  <si>
-    <t>张安仲</t>
-  </si>
-  <si>
-    <t>蔡正浩</t>
-  </si>
-  <si>
-    <t>郑愈明</t>
-  </si>
-  <si>
-    <t>朱文婧</t>
-  </si>
-  <si>
-    <t>周依婷</t>
-  </si>
-  <si>
-    <t>胡绪佩</t>
-  </si>
-  <si>
-    <t>邱润</t>
-  </si>
-  <si>
-    <t>袁玉珍</t>
-  </si>
-  <si>
-    <t>林雅静</t>
-  </si>
-  <si>
-    <t>杨月琪</t>
-  </si>
-  <si>
-    <t>王之杰</t>
-  </si>
-  <si>
-    <t>张俊耀</t>
-  </si>
-  <si>
-    <t>陈顺兴</t>
-  </si>
-  <si>
-    <t>李凌凯</t>
-  </si>
-  <si>
-    <t>吕振威</t>
-  </si>
-  <si>
-    <t>蓝梦婕</t>
-  </si>
-  <si>
-    <t>王伟</t>
-  </si>
-  <si>
-    <t>郑钧兰</t>
-  </si>
-  <si>
-    <t>黄毓明</t>
-  </si>
-  <si>
-    <t>魏璐炜</t>
-  </si>
-  <si>
-    <t>陈慧琳</t>
-  </si>
-  <si>
-    <t>林子青</t>
-  </si>
-  <si>
-    <t>黄伟达</t>
-  </si>
-  <si>
-    <t>包斌虎</t>
-  </si>
-  <si>
-    <t>刘嗣林</t>
-  </si>
-  <si>
-    <t>林颜锡</t>
-  </si>
-  <si>
-    <t>庄怡静</t>
-  </si>
-  <si>
-    <t>赵畅</t>
-  </si>
-  <si>
-    <t>周政演</t>
-  </si>
-  <si>
-    <t>刘宏岩</t>
-  </si>
-  <si>
-    <t>陈俞辛</t>
-  </si>
-  <si>
-    <t>杨欣</t>
-  </si>
-  <si>
-    <t>胡青元</t>
-  </si>
-  <si>
-    <t>邓明锴</t>
-  </si>
-  <si>
-    <t>王柯鑫</t>
-  </si>
-  <si>
-    <t>张小强</t>
-  </si>
-  <si>
-    <t>缪欣</t>
-  </si>
-  <si>
-    <t>陈柏涛</t>
-  </si>
-  <si>
-    <t>章邴瀚</t>
-  </si>
-  <si>
-    <t>李琦</t>
-  </si>
-  <si>
-    <t>王彬</t>
-  </si>
-  <si>
-    <t>吴佳炜</t>
-  </si>
-  <si>
-    <t>蔡宇航</t>
-  </si>
-  <si>
-    <t>赵艳姣</t>
-  </si>
-  <si>
-    <t>郑建禹</t>
-  </si>
-  <si>
-    <t>李恒达</t>
-  </si>
-  <si>
-    <t>廖钰萍</t>
-  </si>
-  <si>
-    <t>刘丽珍</t>
-  </si>
-  <si>
-    <t>黄禄松</t>
-  </si>
-  <si>
-    <t>邱怡琳</t>
-  </si>
-  <si>
-    <t>陈诗</t>
-  </si>
-  <si>
-    <t>陈芳</t>
+    <t>031502607</t>
+  </si>
+  <si>
+    <t>031601124</t>
+  </si>
+  <si>
+    <t>031602201</t>
+  </si>
+  <si>
+    <t>031602204</t>
+  </si>
+  <si>
+    <t>031602312</t>
+  </si>
+  <si>
+    <t>031602406</t>
+  </si>
+  <si>
+    <t>031602438</t>
+  </si>
+  <si>
+    <t>031602634</t>
+  </si>
+  <si>
+    <t>031602209</t>
+  </si>
+  <si>
+    <t>031602611</t>
+  </si>
+  <si>
+    <t>031602610</t>
+  </si>
+  <si>
+    <t>031602113</t>
   </si>
   <si>
     <t>031602115</t>
@@ -409,6 +445,141 @@
     <t>031602303</t>
   </si>
   <si>
+    <t>031602421</t>
+  </si>
+  <si>
+    <t>081600107</t>
+  </si>
+  <si>
+    <t>031602128</t>
+  </si>
+  <si>
+    <t>031602333</t>
+  </si>
+  <si>
+    <t>031602506</t>
+  </si>
+  <si>
+    <t>031602619</t>
+  </si>
+  <si>
+    <t>031602307</t>
+  </si>
+  <si>
+    <t>031602532</t>
+  </si>
+  <si>
+    <t>031602405</t>
+  </si>
+  <si>
+    <t>031602427</t>
+  </si>
+  <si>
+    <t>031602403</t>
+  </si>
+  <si>
+    <t>031602606</t>
+  </si>
+  <si>
+    <t>031602608</t>
+  </si>
+  <si>
+    <t>031602605</t>
+  </si>
+  <si>
+    <t>031602636</t>
+  </si>
+  <si>
+    <t>031602203</t>
+  </si>
+  <si>
+    <t>031602242</t>
+  </si>
+  <si>
+    <t>031602630</t>
+  </si>
+  <si>
+    <t>031602502</t>
+  </si>
+  <si>
+    <t>031602541</t>
+  </si>
+  <si>
+    <t>031602620</t>
+  </si>
+  <si>
+    <t>051501124</t>
+  </si>
+  <si>
+    <t>031502531</t>
+  </si>
+  <si>
+    <t>031602501</t>
+  </si>
+  <si>
+    <t>131601249</t>
+  </si>
+  <si>
+    <t>031502301</t>
+  </si>
+  <si>
+    <t>031602327</t>
+  </si>
+  <si>
+    <t>031602326</t>
+  </si>
+  <si>
+    <t>031602544</t>
+  </si>
+  <si>
+    <t>111500206</t>
+  </si>
+  <si>
+    <t>031602543</t>
+  </si>
+  <si>
+    <t>031602523</t>
+  </si>
+  <si>
+    <t>031602507</t>
+  </si>
+  <si>
+    <t>031602425</t>
+  </si>
+  <si>
+    <t>031602415</t>
+  </si>
+  <si>
+    <t>031602332</t>
+  </si>
+  <si>
+    <t>031602247</t>
+  </si>
+  <si>
+    <t>041602209</t>
+  </si>
+  <si>
+    <t>031602136</t>
+  </si>
+  <si>
+    <t>031602404</t>
+  </si>
+  <si>
+    <t>031602218</t>
+  </si>
+  <si>
+    <t>031602217</t>
+  </si>
+  <si>
+    <t>031602631</t>
+  </si>
+  <si>
+    <t>031602331</t>
+  </si>
+  <si>
+    <t>031602417</t>
+  </si>
+  <si>
     <t>041602204</t>
   </si>
   <si>
@@ -430,34 +601,142 @@
     <t>031602248</t>
   </si>
   <si>
+    <t>031602642</t>
+  </si>
+  <si>
+    <t>031602310</t>
+  </si>
+  <si>
+    <t>031602512</t>
+  </si>
+  <si>
+    <t>031602607</t>
+  </si>
+  <si>
+    <t>031602137</t>
+  </si>
+  <si>
+    <t>081600143</t>
+  </si>
+  <si>
+    <t>031602402</t>
+  </si>
+  <si>
+    <t>031602131</t>
+  </si>
+  <si>
+    <t>031602431</t>
+  </si>
+  <si>
+    <t>031602140</t>
+  </si>
+  <si>
+    <t>031602437</t>
+  </si>
+  <si>
+    <t>031602531</t>
+  </si>
+  <si>
+    <t>131601154</t>
+  </si>
+  <si>
+    <t>031602227</t>
+  </si>
+  <si>
+    <t>031602309</t>
+  </si>
+  <si>
+    <t>031602205</t>
+  </si>
+  <si>
+    <t>031602527</t>
+  </si>
+  <si>
+    <t>031602143</t>
+  </si>
+  <si>
+    <t>181600235</t>
+  </si>
+  <si>
+    <t>031502103</t>
+  </si>
+  <si>
+    <t>031602246</t>
+  </si>
+  <si>
+    <t>031602320</t>
+  </si>
+  <si>
+    <t>031602323</t>
+  </si>
+  <si>
+    <t>131601225</t>
+  </si>
+  <si>
+    <t>181600112</t>
+  </si>
+  <si>
+    <t>031602105</t>
+  </si>
+  <si>
+    <t>031602228</t>
+  </si>
+  <si>
+    <t>031602412</t>
+  </si>
+  <si>
+    <t>031602147</t>
+  </si>
+  <si>
+    <t>031602148</t>
+  </si>
+  <si>
+    <t>081600144</t>
+  </si>
+  <si>
+    <t>031602114</t>
+  </si>
+  <si>
+    <t>051601414</t>
+  </si>
+  <si>
+    <t>081600410</t>
+  </si>
+  <si>
+    <t>031602210</t>
+  </si>
+  <si>
+    <t>031602235</t>
+  </si>
+  <si>
+    <t>031602643</t>
+  </si>
+  <si>
+    <t>051601135</t>
+  </si>
+  <si>
+    <t>031602538</t>
+  </si>
+  <si>
+    <t>031602624</t>
+  </si>
+  <si>
+    <t>031602442</t>
+  </si>
+  <si>
     <t>031601123</t>
   </si>
   <si>
-    <t>031602606</t>
-  </si>
-  <si>
-    <t>031602608</t>
-  </si>
-  <si>
-    <t>031602605</t>
-  </si>
-  <si>
-    <t>031602636</t>
-  </si>
-  <si>
-    <t>031502607</t>
-  </si>
-  <si>
-    <t>031601124</t>
-  </si>
-  <si>
-    <t>031602201</t>
-  </si>
-  <si>
-    <t>031602204</t>
-  </si>
-  <si>
-    <t>031602312</t>
+    <t>031602530</t>
+  </si>
+  <si>
+    <t>031602245</t>
+  </si>
+  <si>
+    <t>031602505</t>
+  </si>
+  <si>
+    <t>111600112</t>
   </si>
   <si>
     <t>031602423</t>
@@ -481,283 +760,40 @@
     <t>031602341</t>
   </si>
   <si>
-    <t>031602406</t>
-  </si>
-  <si>
-    <t>031602438</t>
-  </si>
-  <si>
-    <t>031602634</t>
-  </si>
-  <si>
-    <t>031602209</t>
-  </si>
-  <si>
-    <t>031602611</t>
-  </si>
-  <si>
-    <t>031602610</t>
-  </si>
-  <si>
-    <t>031602113</t>
-  </si>
-  <si>
-    <t>031602404</t>
-  </si>
-  <si>
-    <t>031602218</t>
-  </si>
-  <si>
-    <t>031602217</t>
-  </si>
-  <si>
-    <t>031602631</t>
-  </si>
-  <si>
-    <t>031602331</t>
-  </si>
-  <si>
-    <t>031602417</t>
-  </si>
-  <si>
-    <t>031602642</t>
-  </si>
-  <si>
-    <t>031602310</t>
-  </si>
-  <si>
-    <t>031602512</t>
-  </si>
-  <si>
-    <t>031602607</t>
-  </si>
-  <si>
-    <t>031602624</t>
-  </si>
-  <si>
-    <t>031602442</t>
-  </si>
-  <si>
-    <t>031602137</t>
-  </si>
-  <si>
-    <t>081600143</t>
-  </si>
-  <si>
-    <t>031602402</t>
-  </si>
-  <si>
-    <t>031602131</t>
-  </si>
-  <si>
-    <t>031602431</t>
-  </si>
-  <si>
-    <t>031602140</t>
-  </si>
-  <si>
-    <t>031602619</t>
-  </si>
-  <si>
-    <t>031602307</t>
-  </si>
-  <si>
-    <t>031602532</t>
-  </si>
-  <si>
-    <t>031602405</t>
-  </si>
-  <si>
-    <t>031602309</t>
-  </si>
-  <si>
-    <t>031602205</t>
-  </si>
-  <si>
-    <t>031602527</t>
-  </si>
-  <si>
-    <t>031602143</t>
-  </si>
-  <si>
-    <t>031602421</t>
-  </si>
-  <si>
-    <t>081600107</t>
-  </si>
-  <si>
-    <t>031602128</t>
-  </si>
-  <si>
-    <t>031602333</t>
-  </si>
-  <si>
-    <t>031602506</t>
-  </si>
-  <si>
-    <t>031602235</t>
-  </si>
-  <si>
-    <t>031602643</t>
-  </si>
-  <si>
-    <t>051601135</t>
-  </si>
-  <si>
-    <t>181600235</t>
-  </si>
-  <si>
-    <t>031502103</t>
-  </si>
-  <si>
-    <t>031602147</t>
-  </si>
-  <si>
-    <t>031602148</t>
-  </si>
-  <si>
-    <t>081600144</t>
-  </si>
-  <si>
-    <t>031602114</t>
-  </si>
-  <si>
-    <t>051601414</t>
-  </si>
-  <si>
-    <t>031602538</t>
-  </si>
-  <si>
-    <t>031602227</t>
-  </si>
-  <si>
-    <t>031602437</t>
-  </si>
-  <si>
-    <t>031602531</t>
-  </si>
-  <si>
-    <t>131601154</t>
-  </si>
-  <si>
-    <t>031602505</t>
-  </si>
-  <si>
-    <t>111600112</t>
-  </si>
-  <si>
-    <t>031602425</t>
-  </si>
-  <si>
-    <t>031602415</t>
-  </si>
-  <si>
-    <t>031602332</t>
-  </si>
-  <si>
-    <t>031602247</t>
-  </si>
-  <si>
-    <t>041602209</t>
-  </si>
-  <si>
-    <t>031602136</t>
-  </si>
-  <si>
-    <t>031602105</t>
-  </si>
-  <si>
-    <t>031602228</t>
-  </si>
-  <si>
-    <t>031602412</t>
-  </si>
-  <si>
-    <t>031502301</t>
-  </si>
-  <si>
-    <t>031602327</t>
-  </si>
-  <si>
-    <t>031602326</t>
-  </si>
-  <si>
-    <t>031602544</t>
-  </si>
-  <si>
-    <t>111500206</t>
-  </si>
-  <si>
-    <t>031602543</t>
-  </si>
-  <si>
-    <t>031602523</t>
-  </si>
-  <si>
-    <t>031602507</t>
-  </si>
-  <si>
-    <t>031602242</t>
-  </si>
-  <si>
-    <t>081600410</t>
-  </si>
-  <si>
-    <t>031602210</t>
-  </si>
-  <si>
-    <t>031602530</t>
-  </si>
-  <si>
-    <t>031602245</t>
-  </si>
-  <si>
-    <t>031602630</t>
-  </si>
-  <si>
-    <t>031602502</t>
-  </si>
-  <si>
-    <t>031602541</t>
-  </si>
-  <si>
-    <t>031602620</t>
-  </si>
-  <si>
-    <t>051501124</t>
-  </si>
-  <si>
-    <t>031502531</t>
-  </si>
-  <si>
-    <t>031602501</t>
-  </si>
-  <si>
-    <t>131601249</t>
-  </si>
-  <si>
-    <t>031602246</t>
-  </si>
-  <si>
-    <t>031602320</t>
-  </si>
-  <si>
-    <t>031602323</t>
-  </si>
-  <si>
-    <t>131601225</t>
-  </si>
-  <si>
-    <t>181600112</t>
-  </si>
-  <si>
-    <t>031602427</t>
-  </si>
-  <si>
-    <t>031602403</t>
-  </si>
-  <si>
-    <t>031602203</t>
+    <t>基于布线驱动的VLSI混合单元布局问题研究</t>
+  </si>
+  <si>
+    <t>基于SVM的WIFI指纹室内定位算法研究</t>
+  </si>
+  <si>
+    <t>基于Hierarchical Navigable Small World的扩展置信规则库推理方法</t>
+  </si>
+  <si>
+    <t>基于神经网络的代价敏感数据的分类算法研究</t>
+  </si>
+  <si>
+    <t>基于深度学习的WIFI指纹室内定位算法研究</t>
+  </si>
+  <si>
+    <t>基于Go语言的权限管理系统</t>
+  </si>
+  <si>
+    <t>基于Vue的智能读书打卡系统</t>
+  </si>
+  <si>
+    <t>基于协同过滤的智能交友推荐系统</t>
+  </si>
+  <si>
+    <t>基于Transformer的短文本相似度匹配算法</t>
+  </si>
+  <si>
+    <t>非局部神经网络在图像降噪中的应用研究</t>
+  </si>
+  <si>
+    <t>基于android的征稿app的设计与实现</t>
+  </si>
+  <si>
+    <t>低秩稀疏分解在背景建模中的应用研究</t>
   </si>
   <si>
     <t>基于SSM的云打印系统的设计与实现</t>
@@ -769,6 +805,141 @@
     <t>基于java的在线考试平台设计与实现</t>
   </si>
   <si>
+    <t>基于机器学习的细粒度用户行为分析系统</t>
+  </si>
+  <si>
+    <t>基于Mask R-CNN算法的细胞实例分割</t>
+  </si>
+  <si>
+    <t>智慧教室学生状态检测系统</t>
+  </si>
+  <si>
+    <t>基于SVM和KNN算法的微博情绪识别</t>
+  </si>
+  <si>
+    <t>基于android的垃圾识别软件</t>
+  </si>
+  <si>
+    <t>基于SVM的航拍图像语义场景识别</t>
+  </si>
+  <si>
+    <t>基于特征抽取的图像艺术风格分类及实现</t>
+  </si>
+  <si>
+    <t>山水画布局标签图生成的聚类算法设计与实现</t>
+  </si>
+  <si>
+    <t>工笔画线条及超像素特征的计算与实现</t>
+  </si>
+  <si>
+    <t>基于RPGMaker MV开发的像素meta游戏</t>
+  </si>
+  <si>
+    <t>基于SSM框架的博客系统</t>
+  </si>
+  <si>
+    <t>基于人脸识别的口罩佩戴检测系统</t>
+  </si>
+  <si>
+    <t>基于深度学习的交通标志识别</t>
+  </si>
+  <si>
+    <t>基于深度学习的人脸图像识别技术的研究</t>
+  </si>
+  <si>
+    <t>基于深度学习的文本情感分析的研究与实现</t>
+  </si>
+  <si>
+    <t>基于Spring Boot的诗词问答APP设计与实现</t>
+  </si>
+  <si>
+    <t>基于SSM框架的在线考试系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于人体骨架的动作识别</t>
+  </si>
+  <si>
+    <t>基于深度学习的垃圾分类算法研究</t>
+  </si>
+  <si>
+    <t>基于SpringBoot和数据分析的进销存业务系统</t>
+  </si>
+  <si>
+    <t>基于对抗生成网络的局部图像融合</t>
+  </si>
+  <si>
+    <t>基于Unity引擎的移动端AR塔防游戏设计</t>
+  </si>
+  <si>
+    <t>基于JavaFX的可视化布局系统</t>
+  </si>
+  <si>
+    <t>细粒度车辆识别</t>
+  </si>
+  <si>
+    <t>基于深度学习的文字识别</t>
+  </si>
+  <si>
+    <t>基于机器学习的茶花品种分类识别</t>
+  </si>
+  <si>
+    <t>基于Cocos2d-x的智能策略牌类游戏</t>
+  </si>
+  <si>
+    <t>基于cocos2d-x的roguelike风格闯关类游戏</t>
+  </si>
+  <si>
+    <t>基于Unity3D的乙酰苯胺制备虚拟仿真实验软件</t>
+  </si>
+  <si>
+    <t>网络报文过滤器原理和机制研究</t>
+  </si>
+  <si>
+    <t>基于强化学习的网络流量异常检测系统</t>
+  </si>
+  <si>
+    <t>一种分布式可编程交换机资源扩容方法</t>
+  </si>
+  <si>
+    <t>基于SDN的网络功能服务链扩容算法研究</t>
+  </si>
+  <si>
+    <t>基于基站传感器的最优栅栏覆盖研究</t>
+  </si>
+  <si>
+    <t>现代芯片设计中的新布线问题研究</t>
+  </si>
+  <si>
+    <t>基于深度神经网络的用户流动监管系统</t>
+  </si>
+  <si>
+    <t>面向数据中心的实时资源调度</t>
+  </si>
+  <si>
+    <t>智能电网的需求响应管理</t>
+  </si>
+  <si>
+    <t>摄像网络中的目标覆盖研究</t>
+  </si>
+  <si>
+    <t>基于数据挖掘的糖尿病预测模型</t>
+  </si>
+  <si>
+    <t>基于Spring MVC的大学生创业平台开发</t>
+  </si>
+  <si>
+    <t>基于Spring MVC的网上商城设计与开发</t>
+  </si>
+  <si>
+    <t>深度学习提取音乐特征在DeepFM音乐推荐算法中的效果增益</t>
+  </si>
+  <si>
+    <t>基于机器阅读理解的问答模型</t>
+  </si>
+  <si>
+    <t>基于Java Web的线上房屋智能匹配租赁管理系统</t>
+  </si>
+  <si>
     <t>基于种子扩展的社区发现算法研究</t>
   </si>
   <si>
@@ -790,34 +961,142 @@
     <t>基于流计算的实时书籍推荐系统</t>
   </si>
   <si>
+    <t>基于unity 3D的击打小游戏开发</t>
+  </si>
+  <si>
+    <t>个性化图书推荐系统的设计与实现</t>
+  </si>
+  <si>
+    <t>预约停车收费微信小程序的设计与实现</t>
+  </si>
+  <si>
+    <t>基于深度神经网络的智能问答系统</t>
+  </si>
+  <si>
+    <t>基于胶囊网络的分类方法</t>
+  </si>
+  <si>
+    <t>基于点云的3D目标检测</t>
+  </si>
+  <si>
+    <t>基于注意力机制的细粒度分类方法</t>
+  </si>
+  <si>
+    <t>基于路径坐标优化的压缩感知重构算法</t>
+  </si>
+  <si>
+    <t>基于姿态分析和3D-CNN的视频行人重识别方法</t>
+  </si>
+  <si>
+    <t>基于矩阵L_2,0范数的特征选择方法</t>
+  </si>
+  <si>
+    <t>同步手绘板的设计与实现</t>
+  </si>
+  <si>
+    <t>跨平台文件快速传递应用的设计与实现</t>
+  </si>
+  <si>
+    <t>防疫地图与个人健康打卡微信小程序的设计与实现</t>
+  </si>
+  <si>
+    <t>基于springboot的点餐系统</t>
+  </si>
+  <si>
+    <t>国网电网项目中区域生态保护红线监测管理软件开发</t>
+  </si>
+  <si>
+    <t>基于卷积神经网络的视频烟雾检测</t>
+  </si>
+  <si>
+    <t>基于机器学习的降雨预报</t>
+  </si>
+  <si>
+    <t>基于视频图像的烟雾检测算法实现</t>
+  </si>
+  <si>
+    <t>教师点名辅助系统</t>
+  </si>
+  <si>
+    <t>基于计算机视觉的高空抛物检测系统</t>
+  </si>
+  <si>
+    <t>心电序列的分类分析</t>
+  </si>
+  <si>
+    <t>基于Android Studio的福大校园生活app开发</t>
+  </si>
+  <si>
+    <t>基于Unity引擎的游戏开发</t>
+  </si>
+  <si>
+    <t>平衡聚类算法的实现及其可视化</t>
+  </si>
+  <si>
+    <t>冰壶对抗仿真</t>
+  </si>
+  <si>
+    <t>基于微信小程序的文章分享系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于ARKit的增强现实模拟经营游戏设计与实现</t>
+  </si>
+  <si>
+    <t>基于微信小程序的文库系统的设计与前端开发</t>
+  </si>
+  <si>
+    <t>基于视差注意机制的立体图像颜色校正方法研究</t>
+  </si>
+  <si>
+    <t>基于匹配图像的立体图像颜色校正方法研究</t>
+  </si>
+  <si>
+    <t>超大规模集成电路布局合法化问题研究</t>
+  </si>
+  <si>
+    <t>自动创建备忘内容的备忘系统</t>
+  </si>
+  <si>
+    <t>基于OCR的身份证要素提取系统</t>
+  </si>
+  <si>
+    <t>基于安卓的大学生家教平台</t>
+  </si>
+  <si>
+    <t>网上学习课堂的设计和实现</t>
+  </si>
+  <si>
+    <t>代理商结算平台的设计与实现</t>
+  </si>
+  <si>
+    <t>新冠肺炎疫情数据可视化及查询系统</t>
+  </si>
+  <si>
+    <t>基于语义相似度算法的唐诗推荐安卓应用</t>
+  </si>
+  <si>
+    <t>基于spring boot的挂号管理系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于深度学习的微博文本情感分析</t>
+  </si>
+  <si>
+    <t>基于Web的疫情信息系统</t>
+  </si>
+  <si>
     <t>面向恶劣天气基于机器学习算法的交通信号灯识别方法研究</t>
   </si>
   <si>
-    <t>基于人脸识别的口罩佩戴检测系统</t>
-  </si>
-  <si>
-    <t>基于深度学习的交通标志识别</t>
-  </si>
-  <si>
-    <t>基于深度学习的人脸图像识别技术的研究</t>
-  </si>
-  <si>
-    <t>基于深度学习的文本情感分析的研究与实现</t>
-  </si>
-  <si>
-    <t>基于布线驱动的VLSI混合单元布局问题研究</t>
-  </si>
-  <si>
-    <t>基于SVM的WIFI指纹室内定位算法研究</t>
-  </si>
-  <si>
-    <t>基于Hierarchical Navigable Small World的扩展置信规则库推理方法</t>
-  </si>
-  <si>
-    <t>基于神经网络的代价敏感数据的分类算法研究</t>
-  </si>
-  <si>
-    <t>基于深度学习的WIFI指纹室内定位算法研究</t>
+    <t>深度学习在电影个性化推荐模型中的应用研究</t>
+  </si>
+  <si>
+    <t>融合区块链技术公益平台网站的研发</t>
+  </si>
+  <si>
+    <t>一类动态推荐算法的设计与应用</t>
+  </si>
+  <si>
+    <t>城市给水管网虚拟仿真与漏损识别系统</t>
   </si>
   <si>
     <t>基于计算机视觉的课堂学情分析系统</t>
@@ -841,411 +1120,137 @@
     <t>密文域上的可逆数据隐藏系统</t>
   </si>
   <si>
-    <t>基于Go语言的权限管理系统</t>
-  </si>
-  <si>
-    <t>基于Vue的智能读书打卡系统</t>
-  </si>
-  <si>
-    <t>基于协同过滤的智能交友推荐系统</t>
-  </si>
-  <si>
-    <t>基于Transformer的短文本相似度匹配算法</t>
-  </si>
-  <si>
-    <t>非局部神经网络在图像降噪中的应用研究</t>
-  </si>
-  <si>
-    <t>基于android的征稿app的设计与实现</t>
-  </si>
-  <si>
-    <t>低秩稀疏分解在背景建模中的应用研究</t>
-  </si>
-  <si>
-    <t>基于数据挖掘的糖尿病预测模型</t>
-  </si>
-  <si>
-    <t>基于Spring MVC的大学生创业平台开发</t>
-  </si>
-  <si>
-    <t>基于Spring MVC的网上商城设计与开发</t>
-  </si>
-  <si>
-    <t>深度学习提取音乐特征在DeepFM音乐推荐算法中的效果增益</t>
-  </si>
-  <si>
-    <t>基于机器阅读理解的问答模型</t>
-  </si>
-  <si>
-    <t>基于Java Web的线上房屋智能匹配租赁管理系统</t>
-  </si>
-  <si>
-    <t>基于unity 3D的击打小游戏开发</t>
-  </si>
-  <si>
-    <t>个性化图书推荐系统的设计与实现</t>
-  </si>
-  <si>
-    <t>预约停车收费微信小程序的设计与实现</t>
-  </si>
-  <si>
-    <t>基于深度神经网络的智能问答系统</t>
-  </si>
-  <si>
-    <t>基于深度学习的微博文本情感分析</t>
-  </si>
-  <si>
-    <t>基于Web的疫情信息系统</t>
-  </si>
-  <si>
-    <t>基于胶囊网络的分类方法</t>
-  </si>
-  <si>
-    <t>基于点云的3D目标检测</t>
-  </si>
-  <si>
-    <t>基于注意力机制的细粒度分类方法</t>
-  </si>
-  <si>
-    <t>基于路径坐标优化的压缩感知重构算法</t>
-  </si>
-  <si>
-    <t>基于姿态分析和3D-CNN的视频行人重识别方法</t>
-  </si>
-  <si>
-    <t>基于矩阵L_2,0范数的特征选择方法</t>
-  </si>
-  <si>
-    <t>基于SVM的航拍图像语义场景识别</t>
-  </si>
-  <si>
-    <t>基于特征抽取的图像艺术风格分类及实现</t>
-  </si>
-  <si>
-    <t>山水画布局标签图生成的聚类算法设计与实现</t>
-  </si>
-  <si>
-    <t>工笔画线条及超像素特征的计算与实现</t>
-  </si>
-  <si>
-    <t>国网电网项目中区域生态保护红线监测管理软件开发</t>
-  </si>
-  <si>
-    <t>基于卷积神经网络的视频烟雾检测</t>
-  </si>
-  <si>
-    <t>基于机器学习的降雨预报</t>
-  </si>
-  <si>
-    <t>基于视频图像的烟雾检测算法实现</t>
-  </si>
-  <si>
-    <t>基于机器学习的细粒度用户行为分析系统</t>
-  </si>
-  <si>
-    <t>基于Mask R-CNN算法的细胞实例分割</t>
-  </si>
-  <si>
-    <t>智慧教室学生状态检测系统</t>
-  </si>
-  <si>
-    <t>基于SVM和KNN算法的微博情绪识别</t>
-  </si>
-  <si>
-    <t>基于android的垃圾识别软件</t>
-  </si>
-  <si>
-    <t>代理商结算平台的设计与实现</t>
-  </si>
-  <si>
-    <t>新冠肺炎疫情数据可视化及查询系统</t>
-  </si>
-  <si>
-    <t>基于语义相似度算法的唐诗推荐安卓应用</t>
-  </si>
-  <si>
-    <t>教师点名辅助系统</t>
-  </si>
-  <si>
-    <t>基于计算机视觉的高空抛物检测系统</t>
-  </si>
-  <si>
-    <t>基于视差注意机制的立体图像颜色校正方法研究</t>
-  </si>
-  <si>
-    <t>基于匹配图像的立体图像颜色校正方法研究</t>
-  </si>
-  <si>
-    <t>超大规模集成电路布局合法化问题研究</t>
-  </si>
-  <si>
-    <t>自动创建备忘内容的备忘系统</t>
-  </si>
-  <si>
-    <t>基于OCR的身份证要素提取系统</t>
-  </si>
-  <si>
-    <t>基于spring boot的挂号管理系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于springboot的点餐系统</t>
-  </si>
-  <si>
-    <t>同步手绘板的设计与实现</t>
-  </si>
-  <si>
-    <t>跨平台文件快速传递应用的设计与实现</t>
-  </si>
-  <si>
-    <t>防疫地图与个人健康打卡微信小程序的设计与实现</t>
-  </si>
-  <si>
-    <t>一类动态推荐算法的设计与应用</t>
-  </si>
-  <si>
-    <t>城市给水管网虚拟仿真与漏损识别系统</t>
-  </si>
-  <si>
-    <t>基于基站传感器的最优栅栏覆盖研究</t>
-  </si>
-  <si>
-    <t>现代芯片设计中的新布线问题研究</t>
-  </si>
-  <si>
-    <t>基于深度神经网络的用户流动监管系统</t>
-  </si>
-  <si>
-    <t>面向数据中心的实时资源调度</t>
-  </si>
-  <si>
-    <t>智能电网的需求响应管理</t>
-  </si>
-  <si>
-    <t>摄像网络中的目标覆盖研究</t>
-  </si>
-  <si>
-    <t>基于微信小程序的文章分享系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于ARKit的增强现实模拟经营游戏设计与实现</t>
-  </si>
-  <si>
-    <t>基于微信小程序的文库系统的设计与前端开发</t>
-  </si>
-  <si>
-    <t>基于机器学习的茶花品种分类识别</t>
-  </si>
-  <si>
-    <t>基于Cocos2d-x的智能策略牌类游戏</t>
-  </si>
-  <si>
-    <t>基于cocos2d-x的roguelike风格闯关类游戏</t>
-  </si>
-  <si>
-    <t>基于Unity3D的乙酰苯胺制备虚拟仿真实验软件</t>
-  </si>
-  <si>
-    <t>网络报文过滤器原理和机制研究</t>
-  </si>
-  <si>
-    <t>基于强化学习的网络流量异常检测系统</t>
-  </si>
-  <si>
-    <t>一种分布式可编程交换机资源扩容方法</t>
-  </si>
-  <si>
-    <t>基于SDN的网络功能服务链扩容算法研究</t>
-  </si>
-  <si>
-    <t>基于SSM框架的在线考试系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于安卓的大学生家教平台</t>
-  </si>
-  <si>
-    <t>网上学习课堂的设计和实现</t>
-  </si>
-  <si>
-    <t>深度学习在电影个性化推荐模型中的应用研究</t>
-  </si>
-  <si>
-    <t>融合区块链技术公益平台网站的研发</t>
-  </si>
-  <si>
-    <t>基于人体骨架的动作识别</t>
-  </si>
-  <si>
-    <t>基于深度学习的垃圾分类算法研究</t>
-  </si>
-  <si>
-    <t>基于SpringBoot和数据分析的进销存业务系统</t>
-  </si>
-  <si>
-    <t>基于对抗生成网络的局部图像融合</t>
-  </si>
-  <si>
-    <t>基于Unity引擎的移动端AR塔防游戏设计</t>
-  </si>
-  <si>
-    <t>基于JavaFX的可视化布局系统</t>
-  </si>
-  <si>
-    <t>细粒度车辆识别</t>
-  </si>
-  <si>
-    <t>基于深度学习的文字识别</t>
-  </si>
-  <si>
-    <t>心电序列的分类分析</t>
-  </si>
-  <si>
-    <t>基于Android Studio的福大校园生活app开发</t>
-  </si>
-  <si>
-    <t>基于Unity引擎的游戏开发</t>
-  </si>
-  <si>
-    <t>平衡聚类算法的实现及其可视化</t>
-  </si>
-  <si>
-    <t>冰壶对抗仿真</t>
-  </si>
-  <si>
-    <t>基于RPGMaker MV开发的像素meta游戏</t>
-  </si>
-  <si>
-    <t>基于SSM框架的博客系统</t>
-  </si>
-  <si>
-    <t>基于Spring Boot的诗词问答APP设计与实现</t>
+    <t>傅仰耿</t>
+  </si>
+  <si>
+    <t>苏雅茹</t>
   </si>
   <si>
     <t>谢丽聪</t>
   </si>
   <si>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
+    <t>林秋月</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
+  </si>
+  <si>
+    <t>朱丹红</t>
+  </si>
+  <si>
+    <t>韩晓芸</t>
+  </si>
+  <si>
+    <t>刘文犀</t>
+  </si>
+  <si>
+    <t>张栋</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
+    <t>白清源</t>
+  </si>
+  <si>
     <t>郭昆</t>
   </si>
   <si>
+    <t>王秀</t>
+  </si>
+  <si>
+    <t>于元隆</t>
+  </si>
+  <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>余小燕</t>
+  </si>
+  <si>
+    <t>谢伙生</t>
+  </si>
+  <si>
+    <t>阮一文</t>
+  </si>
+  <si>
+    <t>何振峰</t>
+  </si>
+  <si>
+    <t>陈勃</t>
+  </si>
+  <si>
+    <t>牛玉贞</t>
+  </si>
+  <si>
+    <t>陈欢</t>
+  </si>
+  <si>
+    <t>孙岚</t>
+  </si>
+  <si>
+    <t>于志敏</t>
+  </si>
+  <si>
+    <t>吴运兵</t>
+  </si>
+  <si>
     <t>程永利</t>
   </si>
   <si>
-    <t>王一蕾</t>
-  </si>
-  <si>
-    <t>傅仰耿</t>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>叶东毅</t>
   </si>
   <si>
     <t>柯逍</t>
   </si>
   <si>
-    <t>苏雅茹</t>
-  </si>
-  <si>
-    <t>白清源</t>
-  </si>
-  <si>
-    <t>王秀</t>
-  </si>
-  <si>
-    <t>吴运兵</t>
-  </si>
-  <si>
-    <t>于元隆</t>
-  </si>
-  <si>
-    <t>陈昭炯</t>
-  </si>
-  <si>
-    <t>谢伙生</t>
-  </si>
-  <si>
-    <t>吴英杰</t>
-  </si>
-  <si>
-    <t>孙岚</t>
-  </si>
-  <si>
-    <t>阮一文</t>
-  </si>
-  <si>
-    <t>牛玉贞</t>
-  </si>
-  <si>
-    <t>于志敏</t>
-  </si>
-  <si>
-    <t>余小燕</t>
-  </si>
-  <si>
-    <t>余春艳</t>
-  </si>
-  <si>
-    <t>叶东毅</t>
-  </si>
-  <si>
-    <t>郭龙坤</t>
-  </si>
-  <si>
-    <t>陈勃</t>
-  </si>
-  <si>
-    <t>张栋</t>
-  </si>
-  <si>
-    <t>韩晓芸</t>
-  </si>
-  <si>
-    <t>陈欢</t>
-  </si>
-  <si>
-    <t>叶菁</t>
-  </si>
-  <si>
-    <t>刘文犀</t>
-  </si>
-  <si>
-    <t>何振峰</t>
-  </si>
-  <si>
-    <t>林秋月</t>
-  </si>
-  <si>
-    <t>朱丹红</t>
-  </si>
-  <si>
-    <t xml:space="preserve">于志敏,
-王秀,
-谢伙生,
+    <t xml:space="preserve">谢伙生,
+刘文犀,
+孙岚,
+郭龙坤,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">郭昆,
-刘文犀,
-于元隆,
+    <t xml:space="preserve">余小燕,
+陈欢,
+牛玉贞,
+程永利,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">白清源,
-余春艳,
+    <t xml:space="preserve">苏雅茹,
+于志敏,
+叶东毅,
+阮一文,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柯逍,
+王一蕾,
+陈昭炯,
+何振峰,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朱丹红,
 傅仰耿,
+林秋月,
+叶菁,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">程永利,
-朱丹红,
-陈昭炯,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">叶菁,
-苏雅茹,
-陈欢,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">牛玉贞,
-阮一文,
-余小燕,
+    <t xml:space="preserve">韩晓芸,
+陈勃,
+白清源,
 </t>
   </si>
 </sst>
@@ -1644,7 +1649,7 @@
         <v>128</v>
       </c>
       <c r="D2">
-        <v>1.957941</v>
+        <v>3.796564</v>
       </c>
       <c r="E2" t="s">
         <v>248</v>
@@ -1653,7 +1658,7 @@
         <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H2" t="s">
         <v>399</v>
@@ -1670,7 +1675,7 @@
         <v>129</v>
       </c>
       <c r="D3">
-        <v>2.223476</v>
+        <v>2.956563</v>
       </c>
       <c r="E3" t="s">
         <v>249</v>
@@ -1679,7 +1684,7 @@
         <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H3" t="s">
         <v>399</v>
@@ -1696,7 +1701,7 @@
         <v>130</v>
       </c>
       <c r="D4">
-        <v>2.004438</v>
+        <v>4.000683</v>
       </c>
       <c r="E4" t="s">
         <v>250</v>
@@ -1705,7 +1710,7 @@
         <v>368</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H4" t="s">
         <v>399</v>
@@ -1722,16 +1727,16 @@
         <v>131</v>
       </c>
       <c r="D5">
-        <v>3.164865</v>
+        <v>3.411613</v>
       </c>
       <c r="E5" t="s">
         <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H5" t="s">
         <v>399</v>
@@ -1748,16 +1753,16 @@
         <v>132</v>
       </c>
       <c r="D6">
-        <v>3.369014</v>
+        <v>3.003754</v>
       </c>
       <c r="E6" t="s">
         <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G6" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H6" t="s">
         <v>399</v>
@@ -1774,7 +1779,7 @@
         <v>133</v>
       </c>
       <c r="D7">
-        <v>3.780795</v>
+        <v>3.157333</v>
       </c>
       <c r="E7" t="s">
         <v>253</v>
@@ -1783,7 +1788,7 @@
         <v>369</v>
       </c>
       <c r="G7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
         <v>399</v>
@@ -1800,7 +1805,7 @@
         <v>134</v>
       </c>
       <c r="D8">
-        <v>3.789667</v>
+        <v>2.525974</v>
       </c>
       <c r="E8" t="s">
         <v>254</v>
@@ -1809,7 +1814,7 @@
         <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
         <v>399</v>
@@ -1826,7 +1831,7 @@
         <v>135</v>
       </c>
       <c r="D9">
-        <v>3.124063</v>
+        <v>2.873377</v>
       </c>
       <c r="E9" t="s">
         <v>255</v>
@@ -1835,7 +1840,7 @@
         <v>369</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H9" t="s">
         <v>399</v>
@@ -1852,7 +1857,7 @@
         <v>136</v>
       </c>
       <c r="D10">
-        <v>2.550789</v>
+        <v>2.429217</v>
       </c>
       <c r="E10" t="s">
         <v>256</v>
@@ -1861,7 +1866,7 @@
         <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H10" t="s">
         <v>399</v>
@@ -1878,7 +1883,7 @@
         <v>137</v>
       </c>
       <c r="D11">
-        <v>2.463057</v>
+        <v>2.831642</v>
       </c>
       <c r="E11" t="s">
         <v>257</v>
@@ -1887,7 +1892,7 @@
         <v>369</v>
       </c>
       <c r="G11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H11" t="s">
         <v>399</v>
@@ -1904,16 +1909,16 @@
         <v>138</v>
       </c>
       <c r="D12">
-        <v>2.726875</v>
+        <v>3.023659</v>
       </c>
       <c r="E12" t="s">
         <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H12" t="s">
         <v>399</v>
@@ -1930,16 +1935,16 @@
         <v>139</v>
       </c>
       <c r="D13">
-        <v>2.883912</v>
+        <v>2.24183</v>
       </c>
       <c r="E13" t="s">
         <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H13" t="s">
         <v>399</v>
@@ -1956,16 +1961,16 @@
         <v>140</v>
       </c>
       <c r="D14">
-        <v>2.200322</v>
+        <v>1.957941</v>
       </c>
       <c r="E14" t="s">
         <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H14" t="s">
         <v>399</v>
@@ -1982,16 +1987,16 @@
         <v>141</v>
       </c>
       <c r="D15">
-        <v>3.349667</v>
+        <v>2.223476</v>
       </c>
       <c r="E15" t="s">
         <v>261</v>
       </c>
       <c r="F15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H15" t="s">
         <v>399</v>
@@ -2008,16 +2013,16 @@
         <v>142</v>
       </c>
       <c r="D16">
-        <v>3.351104</v>
+        <v>2.004438</v>
       </c>
       <c r="E16" t="s">
         <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G16" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H16" t="s">
         <v>399</v>
@@ -2034,16 +2039,16 @@
         <v>143</v>
       </c>
       <c r="D17">
-        <v>3.796564</v>
+        <v>3.062712</v>
       </c>
       <c r="E17" t="s">
         <v>263</v>
       </c>
       <c r="F17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H17" t="s">
         <v>399</v>
@@ -2060,16 +2065,16 @@
         <v>144</v>
       </c>
       <c r="D18">
-        <v>2.956563</v>
+        <v>3.823843</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H18" t="s">
         <v>399</v>
@@ -2086,16 +2091,16 @@
         <v>145</v>
       </c>
       <c r="D19">
-        <v>4.000683</v>
+        <v>3.233677</v>
       </c>
       <c r="E19" t="s">
         <v>265</v>
       </c>
       <c r="F19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H19" t="s">
         <v>399</v>
@@ -2112,16 +2117,16 @@
         <v>146</v>
       </c>
       <c r="D20">
-        <v>3.411613</v>
+        <v>2.112805</v>
       </c>
       <c r="E20" t="s">
         <v>266</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H20" t="s">
         <v>399</v>
@@ -2138,16 +2143,16 @@
         <v>147</v>
       </c>
       <c r="D21">
-        <v>3.003754</v>
+        <v>3.457333</v>
       </c>
       <c r="E21" t="s">
         <v>267</v>
       </c>
       <c r="F21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H21" t="s">
         <v>399</v>
@@ -2190,16 +2195,16 @@
         <v>148</v>
       </c>
       <c r="D23">
-        <v>2.736333</v>
+        <v>2.067398</v>
       </c>
       <c r="E23" t="s">
         <v>268</v>
       </c>
       <c r="F23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G23" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="H23" t="s">
         <v>400</v>
@@ -2216,16 +2221,16 @@
         <v>149</v>
       </c>
       <c r="D24">
-        <v>2.366993</v>
+        <v>3.200631</v>
       </c>
       <c r="E24" t="s">
         <v>269</v>
       </c>
       <c r="F24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G24" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="H24" t="s">
         <v>400</v>
@@ -2242,16 +2247,16 @@
         <v>150</v>
       </c>
       <c r="D25">
-        <v>3.307419</v>
+        <v>1.861677</v>
       </c>
       <c r="E25" t="s">
         <v>270</v>
       </c>
       <c r="F25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="H25" t="s">
         <v>400</v>
@@ -2268,16 +2273,16 @@
         <v>151</v>
       </c>
       <c r="D26">
-        <v>3.306954</v>
+        <v>2.866559</v>
       </c>
       <c r="E26" t="s">
         <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G26" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="H26" t="s">
         <v>400</v>
@@ -2294,7 +2299,7 @@
         <v>152</v>
       </c>
       <c r="D27">
-        <v>3.673422</v>
+        <v>2.418868</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -2303,7 +2308,7 @@
         <v>373</v>
       </c>
       <c r="G27" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="H27" t="s">
         <v>400</v>
@@ -2320,7 +2325,7 @@
         <v>153</v>
       </c>
       <c r="D28">
-        <v>3.846284</v>
+        <v>2.404389</v>
       </c>
       <c r="E28" t="s">
         <v>273</v>
@@ -2329,7 +2334,7 @@
         <v>373</v>
       </c>
       <c r="G28" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="H28" t="s">
         <v>400</v>
@@ -2346,16 +2351,16 @@
         <v>154</v>
       </c>
       <c r="D29">
-        <v>3.918065</v>
+        <v>2.883912</v>
       </c>
       <c r="E29" t="s">
         <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G29" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="H29" t="s">
         <v>400</v>
@@ -2372,7 +2377,7 @@
         <v>155</v>
       </c>
       <c r="D30">
-        <v>3.157333</v>
+        <v>2.200322</v>
       </c>
       <c r="E30" t="s">
         <v>275</v>
@@ -2381,7 +2386,7 @@
         <v>374</v>
       </c>
       <c r="G30" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H30" t="s">
         <v>400</v>
@@ -2398,7 +2403,7 @@
         <v>156</v>
       </c>
       <c r="D31">
-        <v>2.525974</v>
+        <v>3.349667</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -2407,7 +2412,7 @@
         <v>374</v>
       </c>
       <c r="G31" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H31" t="s">
         <v>400</v>
@@ -2424,7 +2429,7 @@
         <v>157</v>
       </c>
       <c r="D32">
-        <v>2.873377</v>
+        <v>3.351104</v>
       </c>
       <c r="E32" t="s">
         <v>277</v>
@@ -2433,7 +2438,7 @@
         <v>374</v>
       </c>
       <c r="G32" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H32" t="s">
         <v>400</v>
@@ -2450,16 +2455,16 @@
         <v>158</v>
       </c>
       <c r="D33">
-        <v>2.429217</v>
+        <v>3.19873</v>
       </c>
       <c r="E33" t="s">
         <v>278</v>
       </c>
       <c r="F33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G33" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H33" t="s">
         <v>400</v>
@@ -2476,16 +2481,16 @@
         <v>159</v>
       </c>
       <c r="D34">
-        <v>2.831642</v>
+        <v>2.110938</v>
       </c>
       <c r="E34" t="s">
         <v>279</v>
       </c>
       <c r="F34" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G34" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H34" t="s">
         <v>400</v>
@@ -2502,16 +2507,16 @@
         <v>160</v>
       </c>
       <c r="D35">
-        <v>3.023659</v>
+        <v>3.517685</v>
       </c>
       <c r="E35" t="s">
         <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G35" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H35" t="s">
         <v>400</v>
@@ -2528,16 +2533,16 @@
         <v>161</v>
       </c>
       <c r="D36">
-        <v>2.24183</v>
+        <v>3.674751</v>
       </c>
       <c r="E36" t="s">
         <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G36" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H36" t="s">
         <v>400</v>
@@ -2554,13 +2559,13 @@
         <v>162</v>
       </c>
       <c r="D37">
-        <v>3.111726</v>
+        <v>3.17476</v>
       </c>
       <c r="E37" t="s">
         <v>282</v>
       </c>
       <c r="F37" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G37" t="s">
         <v>378</v>
@@ -2580,13 +2585,13 @@
         <v>163</v>
       </c>
       <c r="D38">
-        <v>3.0081</v>
+        <v>3.603909</v>
       </c>
       <c r="E38" t="s">
         <v>283</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G38" t="s">
         <v>378</v>
@@ -2606,13 +2611,13 @@
         <v>164</v>
       </c>
       <c r="D39">
-        <v>3.170779</v>
+        <v>2.790032</v>
       </c>
       <c r="E39" t="s">
         <v>284</v>
       </c>
       <c r="F39" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G39" t="s">
         <v>378</v>
@@ -2632,13 +2637,13 @@
         <v>165</v>
       </c>
       <c r="D40">
-        <v>3.607492</v>
+        <v>2.636977</v>
       </c>
       <c r="E40" t="s">
         <v>285</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G40" t="s">
         <v>378</v>
@@ -2658,13 +2663,13 @@
         <v>166</v>
       </c>
       <c r="D41">
-        <v>2.419536</v>
+        <v>3.517799</v>
       </c>
       <c r="E41" t="s">
         <v>286</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
         <v>378</v>
@@ -2684,13 +2689,13 @@
         <v>167</v>
       </c>
       <c r="D42">
-        <v>3.349843</v>
+        <v>3.25768</v>
       </c>
       <c r="E42" t="s">
         <v>287</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G42" t="s">
         <v>378</v>
@@ -2736,16 +2741,16 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>2.539498</v>
+        <v>2.48065</v>
       </c>
       <c r="E44" t="s">
         <v>288</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H44" t="s">
         <v>401</v>
@@ -2762,16 +2767,16 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>2.176687</v>
+        <v>1.856677</v>
       </c>
       <c r="E45" t="s">
         <v>289</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H45" t="s">
         <v>401</v>
@@ -2788,16 +2793,16 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>2.435347</v>
+        <v>2.217325</v>
       </c>
       <c r="E46" t="s">
         <v>290</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H46" t="s">
         <v>401</v>
@@ -2814,16 +2819,16 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>2.646885</v>
+        <v>3.105643</v>
       </c>
       <c r="E47" t="s">
         <v>291</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H47" t="s">
         <v>401</v>
@@ -2840,16 +2845,16 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>2.097476</v>
+        <v>2.942384</v>
       </c>
       <c r="E48" t="s">
         <v>292</v>
       </c>
       <c r="F48" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G48" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="H48" t="s">
         <v>401</v>
@@ -2866,16 +2871,16 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>2.022961</v>
+        <v>3.016835</v>
       </c>
       <c r="E49" t="s">
         <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="H49" t="s">
         <v>401</v>
@@ -2892,7 +2897,7 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>3.312752</v>
+        <v>3.892233</v>
       </c>
       <c r="E50" t="s">
         <v>294</v>
@@ -2901,7 +2906,7 @@
         <v>378</v>
       </c>
       <c r="G50" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H50" t="s">
         <v>401</v>
@@ -2918,7 +2923,7 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>3.859539</v>
+        <v>3.730645</v>
       </c>
       <c r="E51" t="s">
         <v>295</v>
@@ -2927,7 +2932,7 @@
         <v>378</v>
       </c>
       <c r="G51" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H51" t="s">
         <v>401</v>
@@ -2944,16 +2949,16 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>2.952145</v>
+        <v>2.561875</v>
       </c>
       <c r="E52" t="s">
         <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G52" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H52" t="s">
         <v>401</v>
@@ -2970,16 +2975,16 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>3.456209</v>
+        <v>3.616294</v>
       </c>
       <c r="E53" t="s">
         <v>297</v>
       </c>
       <c r="F53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G53" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H53" t="s">
         <v>401</v>
@@ -2996,16 +3001,16 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>3.644408</v>
+        <v>2.49373</v>
       </c>
       <c r="E54" t="s">
         <v>298</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H54" t="s">
         <v>401</v>
@@ -3022,16 +3027,16 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>3.172871</v>
+        <v>3.279655</v>
       </c>
       <c r="E55" t="s">
         <v>299</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G55" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H55" t="s">
         <v>401</v>
@@ -3048,7 +3053,7 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>2.067398</v>
+        <v>2.851827</v>
       </c>
       <c r="E56" t="s">
         <v>300</v>
@@ -3057,7 +3062,7 @@
         <v>379</v>
       </c>
       <c r="G56" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="H56" t="s">
         <v>401</v>
@@ -3074,7 +3079,7 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>3.200631</v>
+        <v>2.599676</v>
       </c>
       <c r="E57" t="s">
         <v>301</v>
@@ -3083,7 +3088,7 @@
         <v>379</v>
       </c>
       <c r="G57" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="H57" t="s">
         <v>401</v>
@@ -3100,16 +3105,16 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>1.861677</v>
+        <v>3.111726</v>
       </c>
       <c r="E58" t="s">
         <v>302</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G58" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H58" t="s">
         <v>401</v>
@@ -3126,16 +3131,16 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>2.866559</v>
+        <v>3.0081</v>
       </c>
       <c r="E59" t="s">
         <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G59" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H59" t="s">
         <v>401</v>
@@ -3152,7 +3157,7 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>3.175478</v>
+        <v>3.170779</v>
       </c>
       <c r="E60" t="s">
         <v>304</v>
@@ -3161,7 +3166,7 @@
         <v>380</v>
       </c>
       <c r="G60" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H60" t="s">
         <v>401</v>
@@ -3178,7 +3183,7 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>3.394953</v>
+        <v>3.607492</v>
       </c>
       <c r="E61" t="s">
         <v>305</v>
@@ -3187,7 +3192,7 @@
         <v>380</v>
       </c>
       <c r="G61" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H61" t="s">
         <v>401</v>
@@ -3204,7 +3209,7 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>3.507237</v>
+        <v>2.419536</v>
       </c>
       <c r="E62" t="s">
         <v>306</v>
@@ -3213,7 +3218,7 @@
         <v>380</v>
       </c>
       <c r="G62" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H62" t="s">
         <v>401</v>
@@ -3230,7 +3235,7 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>3.367846</v>
+        <v>3.349843</v>
       </c>
       <c r="E63" t="s">
         <v>307</v>
@@ -3239,7 +3244,7 @@
         <v>380</v>
       </c>
       <c r="G63" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H63" t="s">
         <v>401</v>
@@ -3282,7 +3287,7 @@
         <v>188</v>
       </c>
       <c r="D65">
-        <v>3.062712</v>
+        <v>3.164865</v>
       </c>
       <c r="E65" t="s">
         <v>308</v>
@@ -3291,7 +3296,7 @@
         <v>381</v>
       </c>
       <c r="G65" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H65" t="s">
         <v>402</v>
@@ -3308,7 +3313,7 @@
         <v>189</v>
       </c>
       <c r="D66">
-        <v>3.823843</v>
+        <v>3.369014</v>
       </c>
       <c r="E66" t="s">
         <v>309</v>
@@ -3317,7 +3322,7 @@
         <v>381</v>
       </c>
       <c r="G66" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H66" t="s">
         <v>402</v>
@@ -3334,7 +3339,7 @@
         <v>190</v>
       </c>
       <c r="D67">
-        <v>3.233677</v>
+        <v>3.780795</v>
       </c>
       <c r="E67" t="s">
         <v>310</v>
@@ -3343,7 +3348,7 @@
         <v>381</v>
       </c>
       <c r="G67" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H67" t="s">
         <v>402</v>
@@ -3360,7 +3365,7 @@
         <v>191</v>
       </c>
       <c r="D68">
-        <v>2.112805</v>
+        <v>3.789667</v>
       </c>
       <c r="E68" t="s">
         <v>311</v>
@@ -3369,7 +3374,7 @@
         <v>381</v>
       </c>
       <c r="G68" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H68" t="s">
         <v>402</v>
@@ -3386,7 +3391,7 @@
         <v>192</v>
       </c>
       <c r="D69">
-        <v>3.457333</v>
+        <v>3.124063</v>
       </c>
       <c r="E69" t="s">
         <v>312</v>
@@ -3395,7 +3400,7 @@
         <v>381</v>
       </c>
       <c r="G69" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H69" t="s">
         <v>402</v>
@@ -3412,16 +3417,16 @@
         <v>193</v>
       </c>
       <c r="D70">
-        <v>3.516719</v>
+        <v>2.550789</v>
       </c>
       <c r="E70" t="s">
         <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G70" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="H70" t="s">
         <v>402</v>
@@ -3438,16 +3443,16 @@
         <v>194</v>
       </c>
       <c r="D71">
-        <v>3.140683</v>
+        <v>2.463057</v>
       </c>
       <c r="E71" t="s">
         <v>314</v>
       </c>
       <c r="F71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G71" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="H71" t="s">
         <v>402</v>
@@ -3464,7 +3469,7 @@
         <v>195</v>
       </c>
       <c r="D72">
-        <v>2.002564</v>
+        <v>2.539498</v>
       </c>
       <c r="E72" t="s">
         <v>315</v>
@@ -3473,7 +3478,7 @@
         <v>382</v>
       </c>
       <c r="G72" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H72" t="s">
         <v>402</v>
@@ -3490,16 +3495,16 @@
         <v>196</v>
       </c>
       <c r="D73">
-        <v>2.771154</v>
+        <v>2.176687</v>
       </c>
       <c r="E73" t="s">
         <v>316</v>
       </c>
       <c r="F73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G73" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="H73" t="s">
         <v>402</v>
@@ -3516,16 +3521,16 @@
         <v>197</v>
       </c>
       <c r="D74">
-        <v>1.83858</v>
+        <v>2.435347</v>
       </c>
       <c r="E74" t="s">
         <v>317</v>
       </c>
       <c r="F74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G74" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="H74" t="s">
         <v>402</v>
@@ -3542,16 +3547,16 @@
         <v>198</v>
       </c>
       <c r="D75">
-        <v>3.61732</v>
+        <v>2.646885</v>
       </c>
       <c r="E75" t="s">
         <v>318</v>
       </c>
       <c r="F75" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G75" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="H75" t="s">
         <v>402</v>
@@ -3568,16 +3573,16 @@
         <v>199</v>
       </c>
       <c r="D76">
-        <v>3.602326</v>
+        <v>3.312752</v>
       </c>
       <c r="E76" t="s">
         <v>319</v>
       </c>
       <c r="F76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G76" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H76" t="s">
         <v>402</v>
@@ -3594,16 +3599,16 @@
         <v>200</v>
       </c>
       <c r="D77">
-        <v>3.190164</v>
+        <v>3.859539</v>
       </c>
       <c r="E77" t="s">
         <v>320</v>
       </c>
       <c r="F77" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G77" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H77" t="s">
         <v>402</v>
@@ -3620,16 +3625,16 @@
         <v>201</v>
       </c>
       <c r="D78">
-        <v>3.257516</v>
+        <v>2.952145</v>
       </c>
       <c r="E78" t="s">
         <v>321</v>
       </c>
       <c r="F78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G78" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H78" t="s">
         <v>402</v>
@@ -3646,16 +3651,16 @@
         <v>202</v>
       </c>
       <c r="D79">
-        <v>2.719745</v>
+        <v>3.456209</v>
       </c>
       <c r="E79" t="s">
         <v>322</v>
       </c>
       <c r="F79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G79" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H79" t="s">
         <v>402</v>
@@ -3672,16 +3677,16 @@
         <v>203</v>
       </c>
       <c r="D80">
-        <v>2.018567</v>
+        <v>3.644408</v>
       </c>
       <c r="E80" t="s">
         <v>323</v>
       </c>
       <c r="F80" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G80" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H80" t="s">
         <v>402</v>
@@ -3698,16 +3703,16 @@
         <v>204</v>
       </c>
       <c r="D81">
-        <v>2.619934</v>
+        <v>3.172871</v>
       </c>
       <c r="E81" t="s">
         <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G81" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="H81" t="s">
         <v>402</v>
@@ -3730,10 +3735,10 @@
         <v>325</v>
       </c>
       <c r="F82" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G82" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H82" t="s">
         <v>402</v>
@@ -3756,10 +3761,10 @@
         <v>326</v>
       </c>
       <c r="F83" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G83" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H83" t="s">
         <v>402</v>
@@ -3782,10 +3787,10 @@
         <v>327</v>
       </c>
       <c r="F84" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G84" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H84" t="s">
         <v>402</v>
@@ -3828,16 +3833,16 @@
         <v>208</v>
       </c>
       <c r="D86">
-        <v>3.393189</v>
+        <v>2.619934</v>
       </c>
       <c r="E86" t="s">
         <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G86" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H86" t="s">
         <v>403</v>
@@ -3854,16 +3859,16 @@
         <v>209</v>
       </c>
       <c r="D87">
-        <v>3.056436</v>
+        <v>3.175478</v>
       </c>
       <c r="E87" t="s">
         <v>329</v>
       </c>
       <c r="F87" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G87" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="H87" t="s">
         <v>403</v>
@@ -3880,16 +3885,16 @@
         <v>210</v>
       </c>
       <c r="D88">
-        <v>2.561875</v>
+        <v>3.394953</v>
       </c>
       <c r="E88" t="s">
         <v>330</v>
       </c>
       <c r="F88" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G88" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="H88" t="s">
         <v>403</v>
@@ -3906,16 +3911,16 @@
         <v>211</v>
       </c>
       <c r="D89">
-        <v>3.616294</v>
+        <v>3.507237</v>
       </c>
       <c r="E89" t="s">
         <v>331</v>
       </c>
       <c r="F89" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G89" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="H89" t="s">
         <v>403</v>
@@ -3932,16 +3937,16 @@
         <v>212</v>
       </c>
       <c r="D90">
-        <v>2.49373</v>
+        <v>3.367846</v>
       </c>
       <c r="E90" t="s">
         <v>332</v>
       </c>
       <c r="F90" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G90" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="H90" t="s">
         <v>403</v>
@@ -3958,16 +3963,16 @@
         <v>213</v>
       </c>
       <c r="D91">
-        <v>3.279655</v>
+        <v>2.771154</v>
       </c>
       <c r="E91" t="s">
         <v>333</v>
       </c>
       <c r="F91" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G91" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H91" t="s">
         <v>403</v>
@@ -3984,16 +3989,16 @@
         <v>214</v>
       </c>
       <c r="D92">
-        <v>2.851827</v>
+        <v>1.83858</v>
       </c>
       <c r="E92" t="s">
         <v>334</v>
       </c>
       <c r="F92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G92" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H92" t="s">
         <v>403</v>
@@ -4010,16 +4015,16 @@
         <v>215</v>
       </c>
       <c r="D93">
-        <v>2.599676</v>
+        <v>2.596942</v>
       </c>
       <c r="E93" t="s">
         <v>335</v>
       </c>
       <c r="F93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G93" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H93" t="s">
         <v>403</v>
@@ -4036,16 +4041,16 @@
         <v>216</v>
       </c>
       <c r="D94">
-        <v>3.174096</v>
+        <v>2.368807</v>
       </c>
       <c r="E94" t="s">
         <v>336</v>
       </c>
       <c r="F94" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94" t="s">
         <v>390</v>
-      </c>
-      <c r="G94" t="s">
-        <v>394</v>
       </c>
       <c r="H94" t="s">
         <v>403</v>
@@ -4062,16 +4067,16 @@
         <v>217</v>
       </c>
       <c r="D95">
-        <v>2.419878</v>
+        <v>2.228664</v>
       </c>
       <c r="E95" t="s">
         <v>337</v>
       </c>
       <c r="F95" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" t="s">
         <v>390</v>
-      </c>
-      <c r="G95" t="s">
-        <v>394</v>
       </c>
       <c r="H95" t="s">
         <v>403</v>
@@ -4088,16 +4093,16 @@
         <v>218</v>
       </c>
       <c r="D96">
-        <v>2.831348</v>
+        <v>2.417284</v>
       </c>
       <c r="E96" t="s">
         <v>338</v>
       </c>
       <c r="F96" t="s">
+        <v>388</v>
+      </c>
+      <c r="G96" t="s">
         <v>390</v>
-      </c>
-      <c r="G96" t="s">
-        <v>394</v>
       </c>
       <c r="H96" t="s">
         <v>403</v>
@@ -4114,16 +4119,16 @@
         <v>219</v>
       </c>
       <c r="D97">
-        <v>2.48065</v>
+        <v>3.12283</v>
       </c>
       <c r="E97" t="s">
         <v>339</v>
       </c>
       <c r="F97" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G97" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="H97" t="s">
         <v>403</v>
@@ -4140,16 +4145,16 @@
         <v>220</v>
       </c>
       <c r="D98">
-        <v>1.856677</v>
+        <v>3.174096</v>
       </c>
       <c r="E98" t="s">
         <v>340</v>
       </c>
       <c r="F98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G98" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="H98" t="s">
         <v>403</v>
@@ -4166,16 +4171,16 @@
         <v>221</v>
       </c>
       <c r="D99">
-        <v>2.217325</v>
+        <v>2.419878</v>
       </c>
       <c r="E99" t="s">
         <v>341</v>
       </c>
       <c r="F99" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G99" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="H99" t="s">
         <v>403</v>
@@ -4192,16 +4197,16 @@
         <v>222</v>
       </c>
       <c r="D100">
-        <v>3.105643</v>
+        <v>2.831348</v>
       </c>
       <c r="E100" t="s">
         <v>342</v>
       </c>
       <c r="F100" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G100" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="H100" t="s">
         <v>403</v>
@@ -4218,16 +4223,16 @@
         <v>223</v>
       </c>
       <c r="D101">
-        <v>2.942384</v>
+        <v>3.61732</v>
       </c>
       <c r="E101" t="s">
         <v>343</v>
       </c>
       <c r="F101" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G101" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="H101" t="s">
         <v>403</v>
@@ -4244,16 +4249,16 @@
         <v>224</v>
       </c>
       <c r="D102">
-        <v>3.016835</v>
+        <v>3.602326</v>
       </c>
       <c r="E102" t="s">
         <v>344</v>
       </c>
       <c r="F102" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G102" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="H102" t="s">
         <v>403</v>
@@ -4270,16 +4275,16 @@
         <v>225</v>
       </c>
       <c r="D103">
-        <v>3.892233</v>
+        <v>3.190164</v>
       </c>
       <c r="E103" t="s">
         <v>345</v>
       </c>
       <c r="F103" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G103" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="H103" t="s">
         <v>403</v>
@@ -4296,16 +4301,16 @@
         <v>226</v>
       </c>
       <c r="D104">
-        <v>3.730645</v>
+        <v>3.257516</v>
       </c>
       <c r="E104" t="s">
         <v>346</v>
       </c>
       <c r="F104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G104" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="H104" t="s">
         <v>403</v>
@@ -4322,16 +4327,16 @@
         <v>227</v>
       </c>
       <c r="D105">
-        <v>2.110938</v>
+        <v>2.719745</v>
       </c>
       <c r="E105" t="s">
         <v>347</v>
       </c>
       <c r="F105" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G105" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H105" t="s">
         <v>403</v>
@@ -4380,10 +4385,10 @@
         <v>348</v>
       </c>
       <c r="F107" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G107" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H107" t="s">
         <v>404</v>
@@ -4406,10 +4411,10 @@
         <v>349</v>
       </c>
       <c r="F108" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G108" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H108" t="s">
         <v>404</v>
@@ -4426,16 +4431,16 @@
         <v>230</v>
       </c>
       <c r="D109">
-        <v>2.536991</v>
+        <v>3.516719</v>
       </c>
       <c r="E109" t="s">
         <v>350</v>
       </c>
       <c r="F109" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G109" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="H109" t="s">
         <v>404</v>
@@ -4452,16 +4457,16 @@
         <v>231</v>
       </c>
       <c r="D110">
-        <v>2.663855</v>
+        <v>3.140683</v>
       </c>
       <c r="E110" t="s">
         <v>351</v>
       </c>
       <c r="F110" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G110" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="H110" t="s">
         <v>404</v>
@@ -4478,16 +4483,16 @@
         <v>232</v>
       </c>
       <c r="D111">
-        <v>3.517685</v>
+        <v>2.002564</v>
       </c>
       <c r="E111" t="s">
         <v>352</v>
       </c>
       <c r="F111" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G111" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="H111" t="s">
         <v>404</v>
@@ -4504,16 +4509,16 @@
         <v>233</v>
       </c>
       <c r="D112">
-        <v>3.674751</v>
+        <v>2.018567</v>
       </c>
       <c r="E112" t="s">
         <v>353</v>
       </c>
       <c r="F112" t="s">
+        <v>393</v>
+      </c>
+      <c r="G112" t="s">
         <v>395</v>
-      </c>
-      <c r="G112" t="s">
-        <v>391</v>
       </c>
       <c r="H112" t="s">
         <v>404</v>
@@ -4530,16 +4535,16 @@
         <v>234</v>
       </c>
       <c r="D113">
-        <v>3.17476</v>
+        <v>2.097476</v>
       </c>
       <c r="E113" t="s">
         <v>354</v>
       </c>
       <c r="F113" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G113" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H113" t="s">
         <v>404</v>
@@ -4556,16 +4561,16 @@
         <v>235</v>
       </c>
       <c r="D114">
-        <v>3.603909</v>
+        <v>2.022961</v>
       </c>
       <c r="E114" t="s">
         <v>355</v>
       </c>
       <c r="F114" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G114" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H114" t="s">
         <v>404</v>
@@ -4582,7 +4587,7 @@
         <v>236</v>
       </c>
       <c r="D115">
-        <v>2.790032</v>
+        <v>2.726875</v>
       </c>
       <c r="E115" t="s">
         <v>356</v>
@@ -4591,7 +4596,7 @@
         <v>395</v>
       </c>
       <c r="G115" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H115" t="s">
         <v>404</v>
@@ -4608,16 +4613,16 @@
         <v>237</v>
       </c>
       <c r="D116">
-        <v>2.636977</v>
+        <v>2.536991</v>
       </c>
       <c r="E116" t="s">
         <v>357</v>
       </c>
       <c r="F116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G116" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H116" t="s">
         <v>404</v>
@@ -4634,16 +4639,16 @@
         <v>238</v>
       </c>
       <c r="D117">
-        <v>3.517799</v>
+        <v>2.663855</v>
       </c>
       <c r="E117" t="s">
         <v>358</v>
       </c>
       <c r="F117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G117" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H117" t="s">
         <v>404</v>
@@ -4660,16 +4665,16 @@
         <v>239</v>
       </c>
       <c r="D118">
-        <v>3.25768</v>
+        <v>3.393189</v>
       </c>
       <c r="E118" t="s">
         <v>359</v>
       </c>
       <c r="F118" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G118" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H118" t="s">
         <v>404</v>
@@ -4686,16 +4691,16 @@
         <v>240</v>
       </c>
       <c r="D119">
-        <v>2.596942</v>
+        <v>3.056436</v>
       </c>
       <c r="E119" t="s">
         <v>360</v>
       </c>
       <c r="F119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G119" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H119" t="s">
         <v>404</v>
@@ -4712,16 +4717,16 @@
         <v>241</v>
       </c>
       <c r="D120">
-        <v>2.368807</v>
+        <v>2.736333</v>
       </c>
       <c r="E120" t="s">
         <v>361</v>
       </c>
       <c r="F120" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G120" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H120" t="s">
         <v>404</v>
@@ -4738,16 +4743,16 @@
         <v>242</v>
       </c>
       <c r="D121">
-        <v>2.228664</v>
+        <v>2.366993</v>
       </c>
       <c r="E121" t="s">
         <v>362</v>
       </c>
       <c r="F121" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G121" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H121" t="s">
         <v>404</v>
@@ -4764,16 +4769,16 @@
         <v>243</v>
       </c>
       <c r="D122">
-        <v>2.417284</v>
+        <v>3.307419</v>
       </c>
       <c r="E122" t="s">
         <v>363</v>
       </c>
       <c r="F122" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G122" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H122" t="s">
         <v>404</v>
@@ -4790,16 +4795,16 @@
         <v>244</v>
       </c>
       <c r="D123">
-        <v>3.12283</v>
+        <v>3.306954</v>
       </c>
       <c r="E123" t="s">
         <v>364</v>
       </c>
       <c r="F123" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G123" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H123" t="s">
         <v>404</v>
@@ -4816,16 +4821,16 @@
         <v>245</v>
       </c>
       <c r="D124">
-        <v>2.418868</v>
+        <v>3.673422</v>
       </c>
       <c r="E124" t="s">
         <v>365</v>
       </c>
       <c r="F124" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G124" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H124" t="s">
         <v>404</v>
@@ -4842,16 +4847,16 @@
         <v>246</v>
       </c>
       <c r="D125">
-        <v>2.404389</v>
+        <v>3.846284</v>
       </c>
       <c r="E125" t="s">
         <v>366</v>
       </c>
       <c r="F125" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G125" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H125" t="s">
         <v>404</v>
@@ -4868,7 +4873,7 @@
         <v>247</v>
       </c>
       <c r="D126">
-        <v>3.19873</v>
+        <v>3.918065</v>
       </c>
       <c r="E126" t="s">
         <v>367</v>
@@ -4877,7 +4882,7 @@
         <v>398</v>
       </c>
       <c r="G126" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H126" t="s">
         <v>404</v>

--- a/output/BOOSTresult.xlsx
+++ b/output/BOOSTresult.xlsx
@@ -37,6 +37,96 @@
     <t>答辩老师</t>
   </si>
   <si>
+    <t>王玙</t>
+  </si>
+  <si>
+    <t>朱惠斌</t>
+  </si>
+  <si>
+    <t>岳冠宇</t>
+  </si>
+  <si>
+    <t>程晓宏</t>
+  </si>
+  <si>
+    <t>叶一帆</t>
+  </si>
+  <si>
+    <t>吴志鸿</t>
+  </si>
+  <si>
+    <t>陈志炜</t>
+  </si>
+  <si>
+    <t>陈泽钜</t>
+  </si>
+  <si>
+    <t>陈远根</t>
+  </si>
+  <si>
+    <t>何宇恒</t>
+  </si>
+  <si>
+    <t>郑愈明</t>
+  </si>
+  <si>
+    <t>朱文婧</t>
+  </si>
+  <si>
+    <t>周依婷</t>
+  </si>
+  <si>
+    <t>胡绪佩</t>
+  </si>
+  <si>
+    <t>邱润</t>
+  </si>
+  <si>
+    <t>郑建禹</t>
+  </si>
+  <si>
+    <t>李恒达</t>
+  </si>
+  <si>
+    <t>廖钰萍</t>
+  </si>
+  <si>
+    <t>刘丽珍</t>
+  </si>
+  <si>
+    <t>黄禄松</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>杨月琪</t>
+  </si>
+  <si>
+    <t>王之杰</t>
+  </si>
+  <si>
+    <t>张俊耀</t>
+  </si>
+  <si>
+    <t>张安仲</t>
+  </si>
+  <si>
+    <t>蔡正浩</t>
+  </si>
+  <si>
+    <t>陈朗</t>
+  </si>
+  <si>
+    <t>陈韬宇</t>
+  </si>
+  <si>
+    <t>陈浩</t>
+  </si>
+  <si>
+    <t>许舒玲</t>
+  </si>
+  <si>
     <t>陈伟杰</t>
   </si>
   <si>
@@ -52,25 +142,193 @@
     <t>洪泽波</t>
   </si>
   <si>
-    <t>程晓宏</t>
-  </si>
-  <si>
-    <t>叶一帆</t>
-  </si>
-  <si>
-    <t>吴志鸿</t>
-  </si>
-  <si>
-    <t>陈志炜</t>
-  </si>
-  <si>
-    <t>陈泽钜</t>
-  </si>
-  <si>
-    <t>陈远根</t>
-  </si>
-  <si>
-    <t>何宇恒</t>
+    <t>林世杰</t>
+  </si>
+  <si>
+    <t>傅滨</t>
+  </si>
+  <si>
+    <t>林志华</t>
+  </si>
+  <si>
+    <t>王宇鹏</t>
+  </si>
+  <si>
+    <t>陈欣</t>
+  </si>
+  <si>
+    <t>林雅静</t>
+  </si>
+  <si>
+    <t>包斌虎</t>
+  </si>
+  <si>
+    <t>刘嗣林</t>
+  </si>
+  <si>
+    <t>林颜锡</t>
+  </si>
+  <si>
+    <t>庄怡静</t>
+  </si>
+  <si>
+    <t>赵畅</t>
+  </si>
+  <si>
+    <t>周政演</t>
+  </si>
+  <si>
+    <t>刘宏岩</t>
+  </si>
+  <si>
+    <t>陈俞辛</t>
+  </si>
+  <si>
+    <t>陈晓彬</t>
+  </si>
+  <si>
+    <t>黄聿镔</t>
+  </si>
+  <si>
+    <t>黄培鑫</t>
+  </si>
+  <si>
+    <t>苏韫月</t>
+  </si>
+  <si>
+    <t>王全炯</t>
+  </si>
+  <si>
+    <t>李彩贞</t>
+  </si>
+  <si>
+    <t>吕振威</t>
+  </si>
+  <si>
+    <t>蓝梦婕</t>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>郑钧兰</t>
+  </si>
+  <si>
+    <t>黄毓明</t>
+  </si>
+  <si>
+    <t>魏璐炜</t>
+  </si>
+  <si>
+    <t>吴竞凯</t>
+  </si>
+  <si>
+    <t>钟林泱</t>
+  </si>
+  <si>
+    <t>陈璟</t>
+  </si>
+  <si>
+    <t>佘岳昕</t>
+  </si>
+  <si>
+    <t>王源</t>
+  </si>
+  <si>
+    <t>许文霖</t>
+  </si>
+  <si>
+    <t>郑莹</t>
+  </si>
+  <si>
+    <t>甘伟坤</t>
+  </si>
+  <si>
+    <t>胡继文</t>
+  </si>
+  <si>
+    <t>陈思龙</t>
+  </si>
+  <si>
+    <t>邓沁兰</t>
+  </si>
+  <si>
+    <t>陈少捷</t>
+  </si>
+  <si>
+    <t>钱若杨</t>
+  </si>
+  <si>
+    <t>尤庆源</t>
+  </si>
+  <si>
+    <t>林伟嘉</t>
+  </si>
+  <si>
+    <t>郑孔宇</t>
+  </si>
+  <si>
+    <t>黄洪文</t>
+  </si>
+  <si>
+    <t>陈玉婷</t>
+  </si>
+  <si>
+    <t>吴嘉蕊</t>
+  </si>
+  <si>
+    <t>陈艺芬</t>
+  </si>
+  <si>
+    <t>刘浩</t>
+  </si>
+  <si>
+    <t>卢泽明</t>
+  </si>
+  <si>
+    <t>陈文垚</t>
+  </si>
+  <si>
+    <t>黄靖茹</t>
+  </si>
+  <si>
+    <t>庄卉</t>
+  </si>
+  <si>
+    <t>张扬</t>
+  </si>
+  <si>
+    <t>伊碧霞</t>
+  </si>
+  <si>
+    <t>丁水源</t>
+  </si>
+  <si>
+    <t>张周伟</t>
+  </si>
+  <si>
+    <t>赵子铮</t>
+  </si>
+  <si>
+    <t>朱志豪</t>
+  </si>
+  <si>
+    <t>何家伟</t>
+  </si>
+  <si>
+    <t>张恩赐</t>
+  </si>
+  <si>
+    <t>郑智文</t>
+  </si>
+  <si>
+    <t>王柯鑫</t>
+  </si>
+  <si>
+    <t>张小强</t>
+  </si>
+  <si>
+    <t>陈芳</t>
   </si>
   <si>
     <t>黄家雄</t>
@@ -82,34 +340,19 @@
     <t>陈景荣</t>
   </si>
   <si>
-    <t>林世杰</t>
-  </si>
-  <si>
-    <t>傅滨</t>
-  </si>
-  <si>
-    <t>林志华</t>
-  </si>
-  <si>
-    <t>王宇鹏</t>
-  </si>
-  <si>
-    <t>陈欣</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>黄洪文</t>
-  </si>
-  <si>
-    <t>陈玉婷</t>
-  </si>
-  <si>
-    <t>吴嘉蕊</t>
-  </si>
-  <si>
-    <t>陈艺芬</t>
+    <t>陈顺兴</t>
+  </si>
+  <si>
+    <t>李凌凯</t>
+  </si>
+  <si>
+    <t>陈慧琳</t>
+  </si>
+  <si>
+    <t>林子青</t>
+  </si>
+  <si>
+    <t>黄伟达</t>
   </si>
   <si>
     <t>邱怡琳</t>
@@ -118,24 +361,21 @@
     <t>陈诗</t>
   </si>
   <si>
-    <t>陈朗</t>
-  </si>
-  <si>
-    <t>陈韬宇</t>
-  </si>
-  <si>
-    <t>陈浩</t>
-  </si>
-  <si>
-    <t>许舒玲</t>
-  </si>
-  <si>
-    <t>陈芳</t>
+    <t>袁玉珍</t>
+  </si>
+  <si>
+    <t>胡青元</t>
+  </si>
+  <si>
+    <t>邓明锴</t>
   </si>
   <si>
     <t>杨欣</t>
   </si>
   <si>
+    <t>黄志铭</t>
+  </si>
+  <si>
     <t>缪欣</t>
   </si>
   <si>
@@ -160,244 +400,91 @@
     <t>赵艳姣</t>
   </si>
   <si>
-    <t>包斌虎</t>
-  </si>
-  <si>
-    <t>刘嗣林</t>
-  </si>
-  <si>
-    <t>林颜锡</t>
-  </si>
-  <si>
-    <t>庄怡静</t>
-  </si>
-  <si>
-    <t>赵畅</t>
-  </si>
-  <si>
-    <t>周政演</t>
-  </si>
-  <si>
-    <t>刘宏岩</t>
-  </si>
-  <si>
-    <t>陈俞辛</t>
-  </si>
-  <si>
-    <t>吕振威</t>
-  </si>
-  <si>
-    <t>蓝梦婕</t>
-  </si>
-  <si>
-    <t>王伟</t>
-  </si>
-  <si>
-    <t>郑钧兰</t>
-  </si>
-  <si>
-    <t>黄毓明</t>
-  </si>
-  <si>
-    <t>魏璐炜</t>
-  </si>
-  <si>
-    <t>陈晓彬</t>
-  </si>
-  <si>
-    <t>黄聿镔</t>
-  </si>
-  <si>
-    <t>黄培鑫</t>
-  </si>
-  <si>
-    <t>苏韫月</t>
-  </si>
-  <si>
-    <t>王全炯</t>
-  </si>
-  <si>
-    <t>李彩贞</t>
-  </si>
-  <si>
-    <t>丁水源</t>
-  </si>
-  <si>
-    <t>张周伟</t>
-  </si>
-  <si>
-    <t>赵子铮</t>
-  </si>
-  <si>
-    <t>朱志豪</t>
-  </si>
-  <si>
-    <t>何家伟</t>
-  </si>
-  <si>
-    <t>张恩赐</t>
-  </si>
-  <si>
-    <t>郑智文</t>
-  </si>
-  <si>
-    <t>郑莹</t>
-  </si>
-  <si>
-    <t>甘伟坤</t>
-  </si>
-  <si>
-    <t>胡继文</t>
-  </si>
-  <si>
-    <t>陈思龙</t>
-  </si>
-  <si>
-    <t>吴竞凯</t>
-  </si>
-  <si>
-    <t>钟林泱</t>
-  </si>
-  <si>
-    <t>陈璟</t>
-  </si>
-  <si>
-    <t>佘岳昕</t>
-  </si>
-  <si>
-    <t>王源</t>
-  </si>
-  <si>
-    <t>许文霖</t>
-  </si>
-  <si>
-    <t>杨月琪</t>
-  </si>
-  <si>
-    <t>王之杰</t>
-  </si>
-  <si>
-    <t>张俊耀</t>
-  </si>
-  <si>
-    <t>林雅静</t>
-  </si>
-  <si>
-    <t>邓沁兰</t>
-  </si>
-  <si>
-    <t>陈少捷</t>
-  </si>
-  <si>
-    <t>钱若杨</t>
-  </si>
-  <si>
-    <t>尤庆源</t>
-  </si>
-  <si>
-    <t>张安仲</t>
-  </si>
-  <si>
-    <t>蔡正浩</t>
-  </si>
-  <si>
-    <t>郑建禹</t>
-  </si>
-  <si>
-    <t>李恒达</t>
-  </si>
-  <si>
-    <t>廖钰萍</t>
-  </si>
-  <si>
-    <t>刘丽珍</t>
-  </si>
-  <si>
-    <t>黄禄松</t>
-  </si>
-  <si>
-    <t>陈慧琳</t>
-  </si>
-  <si>
-    <t>林子青</t>
-  </si>
-  <si>
-    <t>黄伟达</t>
-  </si>
-  <si>
-    <t>郑愈明</t>
-  </si>
-  <si>
-    <t>朱文婧</t>
-  </si>
-  <si>
-    <t>周依婷</t>
-  </si>
-  <si>
-    <t>胡绪佩</t>
-  </si>
-  <si>
-    <t>邱润</t>
-  </si>
-  <si>
-    <t>胡青元</t>
-  </si>
-  <si>
-    <t>邓明锴</t>
-  </si>
-  <si>
-    <t>王玙</t>
-  </si>
-  <si>
-    <t>朱惠斌</t>
-  </si>
-  <si>
-    <t>岳冠宇</t>
-  </si>
-  <si>
-    <t>袁玉珍</t>
-  </si>
-  <si>
-    <t>林伟嘉</t>
-  </si>
-  <si>
-    <t>郑孔宇</t>
-  </si>
-  <si>
-    <t>黄志铭</t>
-  </si>
-  <si>
-    <t>王柯鑫</t>
-  </si>
-  <si>
-    <t>张小强</t>
-  </si>
-  <si>
-    <t>陈顺兴</t>
-  </si>
-  <si>
-    <t>李凌凯</t>
-  </si>
-  <si>
-    <t>刘浩</t>
-  </si>
-  <si>
-    <t>卢泽明</t>
-  </si>
-  <si>
-    <t>陈文垚</t>
-  </si>
-  <si>
-    <t>黄靖茹</t>
-  </si>
-  <si>
-    <t>庄卉</t>
-  </si>
-  <si>
-    <t>张扬</t>
-  </si>
-  <si>
-    <t>伊碧霞</t>
+    <t>031602235</t>
+  </si>
+  <si>
+    <t>031602643</t>
+  </si>
+  <si>
+    <t>051601135</t>
+  </si>
+  <si>
+    <t>031602406</t>
+  </si>
+  <si>
+    <t>031602438</t>
+  </si>
+  <si>
+    <t>031602634</t>
+  </si>
+  <si>
+    <t>031602209</t>
+  </si>
+  <si>
+    <t>031602611</t>
+  </si>
+  <si>
+    <t>031602610</t>
+  </si>
+  <si>
+    <t>031602113</t>
+  </si>
+  <si>
+    <t>031602147</t>
+  </si>
+  <si>
+    <t>031602148</t>
+  </si>
+  <si>
+    <t>081600144</t>
+  </si>
+  <si>
+    <t>031602114</t>
+  </si>
+  <si>
+    <t>051601414</t>
+  </si>
+  <si>
+    <t>031602246</t>
+  </si>
+  <si>
+    <t>031602320</t>
+  </si>
+  <si>
+    <t>031602323</t>
+  </si>
+  <si>
+    <t>131601225</t>
+  </si>
+  <si>
+    <t>181600112</t>
+  </si>
+  <si>
+    <t>031602437</t>
+  </si>
+  <si>
+    <t>031602531</t>
+  </si>
+  <si>
+    <t>131601154</t>
+  </si>
+  <si>
+    <t>181600235</t>
+  </si>
+  <si>
+    <t>031502103</t>
+  </si>
+  <si>
+    <t>031602606</t>
+  </si>
+  <si>
+    <t>031602608</t>
+  </si>
+  <si>
+    <t>031602605</t>
+  </si>
+  <si>
+    <t>031602636</t>
   </si>
   <si>
     <t>031502607</t>
@@ -415,25 +502,193 @@
     <t>031602312</t>
   </si>
   <si>
-    <t>031602406</t>
-  </si>
-  <si>
-    <t>031602438</t>
-  </si>
-  <si>
-    <t>031602634</t>
-  </si>
-  <si>
-    <t>031602209</t>
-  </si>
-  <si>
-    <t>031602611</t>
-  </si>
-  <si>
-    <t>031602610</t>
-  </si>
-  <si>
-    <t>031602113</t>
+    <t>031602421</t>
+  </si>
+  <si>
+    <t>081600107</t>
+  </si>
+  <si>
+    <t>031602128</t>
+  </si>
+  <si>
+    <t>031602333</t>
+  </si>
+  <si>
+    <t>031602506</t>
+  </si>
+  <si>
+    <t>031602227</t>
+  </si>
+  <si>
+    <t>031502301</t>
+  </si>
+  <si>
+    <t>031602327</t>
+  </si>
+  <si>
+    <t>031602326</t>
+  </si>
+  <si>
+    <t>031602544</t>
+  </si>
+  <si>
+    <t>111500206</t>
+  </si>
+  <si>
+    <t>031602543</t>
+  </si>
+  <si>
+    <t>031602523</t>
+  </si>
+  <si>
+    <t>031602507</t>
+  </si>
+  <si>
+    <t>031602404</t>
+  </si>
+  <si>
+    <t>031602218</t>
+  </si>
+  <si>
+    <t>031602217</t>
+  </si>
+  <si>
+    <t>031602631</t>
+  </si>
+  <si>
+    <t>031602331</t>
+  </si>
+  <si>
+    <t>031602417</t>
+  </si>
+  <si>
+    <t>031602425</t>
+  </si>
+  <si>
+    <t>031602415</t>
+  </si>
+  <si>
+    <t>031602332</t>
+  </si>
+  <si>
+    <t>031602247</t>
+  </si>
+  <si>
+    <t>041602209</t>
+  </si>
+  <si>
+    <t>031602136</t>
+  </si>
+  <si>
+    <t>031602137</t>
+  </si>
+  <si>
+    <t>081600143</t>
+  </si>
+  <si>
+    <t>031602402</t>
+  </si>
+  <si>
+    <t>031602131</t>
+  </si>
+  <si>
+    <t>031602431</t>
+  </si>
+  <si>
+    <t>031602140</t>
+  </si>
+  <si>
+    <t>031602642</t>
+  </si>
+  <si>
+    <t>031602310</t>
+  </si>
+  <si>
+    <t>031602512</t>
+  </si>
+  <si>
+    <t>031602607</t>
+  </si>
+  <si>
+    <t>031602309</t>
+  </si>
+  <si>
+    <t>031602205</t>
+  </si>
+  <si>
+    <t>031602527</t>
+  </si>
+  <si>
+    <t>031602143</t>
+  </si>
+  <si>
+    <t>031602624</t>
+  </si>
+  <si>
+    <t>031602442</t>
+  </si>
+  <si>
+    <t>031602619</t>
+  </si>
+  <si>
+    <t>031602307</t>
+  </si>
+  <si>
+    <t>031602532</t>
+  </si>
+  <si>
+    <t>031602405</t>
+  </si>
+  <si>
+    <t>031602423</t>
+  </si>
+  <si>
+    <t>031602328</t>
+  </si>
+  <si>
+    <t>031602206</t>
+  </si>
+  <si>
+    <t>031602315</t>
+  </si>
+  <si>
+    <t>031602444</t>
+  </si>
+  <si>
+    <t>031602345</t>
+  </si>
+  <si>
+    <t>031602341</t>
+  </si>
+  <si>
+    <t>041602204</t>
+  </si>
+  <si>
+    <t>041602630</t>
+  </si>
+  <si>
+    <t>031602146</t>
+  </si>
+  <si>
+    <t>031601232</t>
+  </si>
+  <si>
+    <t>031602511</t>
+  </si>
+  <si>
+    <t>031602144</t>
+  </si>
+  <si>
+    <t>031602248</t>
+  </si>
+  <si>
+    <t>031602530</t>
+  </si>
+  <si>
+    <t>031602245</t>
+  </si>
+  <si>
+    <t>031602203</t>
   </si>
   <si>
     <t>031602115</t>
@@ -445,31 +700,19 @@
     <t>031602303</t>
   </si>
   <si>
-    <t>031602421</t>
-  </si>
-  <si>
-    <t>081600107</t>
-  </si>
-  <si>
-    <t>031602128</t>
-  </si>
-  <si>
-    <t>031602333</t>
-  </si>
-  <si>
-    <t>031602506</t>
-  </si>
-  <si>
-    <t>031602619</t>
-  </si>
-  <si>
-    <t>031602307</t>
-  </si>
-  <si>
-    <t>031602532</t>
-  </si>
-  <si>
-    <t>031602405</t>
+    <t>031602505</t>
+  </si>
+  <si>
+    <t>111600112</t>
+  </si>
+  <si>
+    <t>031602105</t>
+  </si>
+  <si>
+    <t>031602228</t>
+  </si>
+  <si>
+    <t>031602412</t>
   </si>
   <si>
     <t>031602427</t>
@@ -478,24 +721,21 @@
     <t>031602403</t>
   </si>
   <si>
-    <t>031602606</t>
-  </si>
-  <si>
-    <t>031602608</t>
-  </si>
-  <si>
-    <t>031602605</t>
-  </si>
-  <si>
-    <t>031602636</t>
-  </si>
-  <si>
-    <t>031602203</t>
+    <t>031602538</t>
+  </si>
+  <si>
+    <t>081600410</t>
+  </si>
+  <si>
+    <t>031602210</t>
   </si>
   <si>
     <t>031602242</t>
   </si>
   <si>
+    <t>031601123</t>
+  </si>
+  <si>
     <t>031602630</t>
   </si>
   <si>
@@ -520,244 +760,91 @@
     <t>131601249</t>
   </si>
   <si>
-    <t>031502301</t>
-  </si>
-  <si>
-    <t>031602327</t>
-  </si>
-  <si>
-    <t>031602326</t>
-  </si>
-  <si>
-    <t>031602544</t>
-  </si>
-  <si>
-    <t>111500206</t>
-  </si>
-  <si>
-    <t>031602543</t>
-  </si>
-  <si>
-    <t>031602523</t>
-  </si>
-  <si>
-    <t>031602507</t>
-  </si>
-  <si>
-    <t>031602425</t>
-  </si>
-  <si>
-    <t>031602415</t>
-  </si>
-  <si>
-    <t>031602332</t>
-  </si>
-  <si>
-    <t>031602247</t>
-  </si>
-  <si>
-    <t>041602209</t>
-  </si>
-  <si>
-    <t>031602136</t>
-  </si>
-  <si>
-    <t>031602404</t>
-  </si>
-  <si>
-    <t>031602218</t>
-  </si>
-  <si>
-    <t>031602217</t>
-  </si>
-  <si>
-    <t>031602631</t>
-  </si>
-  <si>
-    <t>031602331</t>
-  </si>
-  <si>
-    <t>031602417</t>
-  </si>
-  <si>
-    <t>041602204</t>
-  </si>
-  <si>
-    <t>041602630</t>
-  </si>
-  <si>
-    <t>031602146</t>
-  </si>
-  <si>
-    <t>031601232</t>
-  </si>
-  <si>
-    <t>031602511</t>
-  </si>
-  <si>
-    <t>031602144</t>
-  </si>
-  <si>
-    <t>031602248</t>
-  </si>
-  <si>
-    <t>031602642</t>
-  </si>
-  <si>
-    <t>031602310</t>
-  </si>
-  <si>
-    <t>031602512</t>
-  </si>
-  <si>
-    <t>031602607</t>
-  </si>
-  <si>
-    <t>031602137</t>
-  </si>
-  <si>
-    <t>081600143</t>
-  </si>
-  <si>
-    <t>031602402</t>
-  </si>
-  <si>
-    <t>031602131</t>
-  </si>
-  <si>
-    <t>031602431</t>
-  </si>
-  <si>
-    <t>031602140</t>
-  </si>
-  <si>
-    <t>031602437</t>
-  </si>
-  <si>
-    <t>031602531</t>
-  </si>
-  <si>
-    <t>131601154</t>
-  </si>
-  <si>
-    <t>031602227</t>
-  </si>
-  <si>
-    <t>031602309</t>
-  </si>
-  <si>
-    <t>031602205</t>
-  </si>
-  <si>
-    <t>031602527</t>
-  </si>
-  <si>
-    <t>031602143</t>
-  </si>
-  <si>
-    <t>181600235</t>
-  </si>
-  <si>
-    <t>031502103</t>
-  </si>
-  <si>
-    <t>031602246</t>
-  </si>
-  <si>
-    <t>031602320</t>
-  </si>
-  <si>
-    <t>031602323</t>
-  </si>
-  <si>
-    <t>131601225</t>
-  </si>
-  <si>
-    <t>181600112</t>
-  </si>
-  <si>
-    <t>031602105</t>
-  </si>
-  <si>
-    <t>031602228</t>
-  </si>
-  <si>
-    <t>031602412</t>
-  </si>
-  <si>
-    <t>031602147</t>
-  </si>
-  <si>
-    <t>031602148</t>
-  </si>
-  <si>
-    <t>081600144</t>
-  </si>
-  <si>
-    <t>031602114</t>
-  </si>
-  <si>
-    <t>051601414</t>
-  </si>
-  <si>
-    <t>081600410</t>
-  </si>
-  <si>
-    <t>031602210</t>
-  </si>
-  <si>
-    <t>031602235</t>
-  </si>
-  <si>
-    <t>031602643</t>
-  </si>
-  <si>
-    <t>051601135</t>
-  </si>
-  <si>
-    <t>031602538</t>
-  </si>
-  <si>
-    <t>031602624</t>
-  </si>
-  <si>
-    <t>031602442</t>
-  </si>
-  <si>
-    <t>031601123</t>
-  </si>
-  <si>
-    <t>031602530</t>
-  </si>
-  <si>
-    <t>031602245</t>
-  </si>
-  <si>
-    <t>031602505</t>
-  </si>
-  <si>
-    <t>111600112</t>
-  </si>
-  <si>
-    <t>031602423</t>
-  </si>
-  <si>
-    <t>031602328</t>
-  </si>
-  <si>
-    <t>031602206</t>
-  </si>
-  <si>
-    <t>031602315</t>
-  </si>
-  <si>
-    <t>031602444</t>
-  </si>
-  <si>
-    <t>031602345</t>
-  </si>
-  <si>
-    <t>031602341</t>
+    <t>代理商结算平台的设计与实现</t>
+  </si>
+  <si>
+    <t>新冠肺炎疫情数据可视化及查询系统</t>
+  </si>
+  <si>
+    <t>基于语义相似度算法的唐诗推荐安卓应用</t>
+  </si>
+  <si>
+    <t>基于Go语言的权限管理系统</t>
+  </si>
+  <si>
+    <t>基于Vue的智能读书打卡系统</t>
+  </si>
+  <si>
+    <t>基于协同过滤的智能交友推荐系统</t>
+  </si>
+  <si>
+    <t>基于Transformer的短文本相似度匹配算法</t>
+  </si>
+  <si>
+    <t>非局部神经网络在图像降噪中的应用研究</t>
+  </si>
+  <si>
+    <t>基于android的征稿app的设计与实现</t>
+  </si>
+  <si>
+    <t>低秩稀疏分解在背景建模中的应用研究</t>
+  </si>
+  <si>
+    <t>基于视差注意机制的立体图像颜色校正方法研究</t>
+  </si>
+  <si>
+    <t>基于匹配图像的立体图像颜色校正方法研究</t>
+  </si>
+  <si>
+    <t>超大规模集成电路布局合法化问题研究</t>
+  </si>
+  <si>
+    <t>自动创建备忘内容的备忘系统</t>
+  </si>
+  <si>
+    <t>基于OCR的身份证要素提取系统</t>
+  </si>
+  <si>
+    <t>心电序列的分类分析</t>
+  </si>
+  <si>
+    <t>基于Android Studio的福大校园生活app开发</t>
+  </si>
+  <si>
+    <t>基于Unity引擎的游戏开发</t>
+  </si>
+  <si>
+    <t>平衡聚类算法的实现及其可视化</t>
+  </si>
+  <si>
+    <t>冰壶对抗仿真</t>
+  </si>
+  <si>
+    <t>同步手绘板的设计与实现</t>
+  </si>
+  <si>
+    <t>跨平台文件快速传递应用的设计与实现</t>
+  </si>
+  <si>
+    <t>防疫地图与个人健康打卡微信小程序的设计与实现</t>
+  </si>
+  <si>
+    <t>教师点名辅助系统</t>
+  </si>
+  <si>
+    <t>基于计算机视觉的高空抛物检测系统</t>
+  </si>
+  <si>
+    <t>基于人脸识别的口罩佩戴检测系统</t>
+  </si>
+  <si>
+    <t>基于深度学习的交通标志识别</t>
+  </si>
+  <si>
+    <t>基于深度学习的人脸图像识别技术的研究</t>
+  </si>
+  <si>
+    <t>基于深度学习的文本情感分析的研究与实现</t>
   </si>
   <si>
     <t>基于布线驱动的VLSI混合单元布局问题研究</t>
@@ -775,25 +862,193 @@
     <t>基于深度学习的WIFI指纹室内定位算法研究</t>
   </si>
   <si>
-    <t>基于Go语言的权限管理系统</t>
-  </si>
-  <si>
-    <t>基于Vue的智能读书打卡系统</t>
-  </si>
-  <si>
-    <t>基于协同过滤的智能交友推荐系统</t>
-  </si>
-  <si>
-    <t>基于Transformer的短文本相似度匹配算法</t>
-  </si>
-  <si>
-    <t>非局部神经网络在图像降噪中的应用研究</t>
-  </si>
-  <si>
-    <t>基于android的征稿app的设计与实现</t>
-  </si>
-  <si>
-    <t>低秩稀疏分解在背景建模中的应用研究</t>
+    <t>基于机器学习的细粒度用户行为分析系统</t>
+  </si>
+  <si>
+    <t>基于Mask R-CNN算法的细胞实例分割</t>
+  </si>
+  <si>
+    <t>智慧教室学生状态检测系统</t>
+  </si>
+  <si>
+    <t>基于SVM和KNN算法的微博情绪识别</t>
+  </si>
+  <si>
+    <t>基于android的垃圾识别软件</t>
+  </si>
+  <si>
+    <t>基于springboot的点餐系统</t>
+  </si>
+  <si>
+    <t>基于机器学习的茶花品种分类识别</t>
+  </si>
+  <si>
+    <t>基于Cocos2d-x的智能策略牌类游戏</t>
+  </si>
+  <si>
+    <t>基于cocos2d-x的roguelike风格闯关类游戏</t>
+  </si>
+  <si>
+    <t>基于Unity3D的乙酰苯胺制备虚拟仿真实验软件</t>
+  </si>
+  <si>
+    <t>网络报文过滤器原理和机制研究</t>
+  </si>
+  <si>
+    <t>基于强化学习的网络流量异常检测系统</t>
+  </si>
+  <si>
+    <t>一种分布式可编程交换机资源扩容方法</t>
+  </si>
+  <si>
+    <t>基于SDN的网络功能服务链扩容算法研究</t>
+  </si>
+  <si>
+    <t>基于数据挖掘的糖尿病预测模型</t>
+  </si>
+  <si>
+    <t>基于Spring MVC的大学生创业平台开发</t>
+  </si>
+  <si>
+    <t>基于Spring MVC的网上商城设计与开发</t>
+  </si>
+  <si>
+    <t>深度学习提取音乐特征在DeepFM音乐推荐算法中的效果增益</t>
+  </si>
+  <si>
+    <t>基于机器阅读理解的问答模型</t>
+  </si>
+  <si>
+    <t>基于Java Web的线上房屋智能匹配租赁管理系统</t>
+  </si>
+  <si>
+    <t>基于基站传感器的最优栅栏覆盖研究</t>
+  </si>
+  <si>
+    <t>现代芯片设计中的新布线问题研究</t>
+  </si>
+  <si>
+    <t>基于深度神经网络的用户流动监管系统</t>
+  </si>
+  <si>
+    <t>面向数据中心的实时资源调度</t>
+  </si>
+  <si>
+    <t>智能电网的需求响应管理</t>
+  </si>
+  <si>
+    <t>摄像网络中的目标覆盖研究</t>
+  </si>
+  <si>
+    <t>基于胶囊网络的分类方法</t>
+  </si>
+  <si>
+    <t>基于点云的3D目标检测</t>
+  </si>
+  <si>
+    <t>基于注意力机制的细粒度分类方法</t>
+  </si>
+  <si>
+    <t>基于路径坐标优化的压缩感知重构算法</t>
+  </si>
+  <si>
+    <t>基于姿态分析和3D-CNN的视频行人重识别方法</t>
+  </si>
+  <si>
+    <t>基于矩阵L_2,0范数的特征选择方法</t>
+  </si>
+  <si>
+    <t>基于unity 3D的击打小游戏开发</t>
+  </si>
+  <si>
+    <t>个性化图书推荐系统的设计与实现</t>
+  </si>
+  <si>
+    <t>预约停车收费微信小程序的设计与实现</t>
+  </si>
+  <si>
+    <t>基于深度神经网络的智能问答系统</t>
+  </si>
+  <si>
+    <t>国网电网项目中区域生态保护红线监测管理软件开发</t>
+  </si>
+  <si>
+    <t>基于卷积神经网络的视频烟雾检测</t>
+  </si>
+  <si>
+    <t>基于机器学习的降雨预报</t>
+  </si>
+  <si>
+    <t>基于视频图像的烟雾检测算法实现</t>
+  </si>
+  <si>
+    <t>基于深度学习的微博文本情感分析</t>
+  </si>
+  <si>
+    <t>基于Web的疫情信息系统</t>
+  </si>
+  <si>
+    <t>基于SVM的航拍图像语义场景识别</t>
+  </si>
+  <si>
+    <t>基于特征抽取的图像艺术风格分类及实现</t>
+  </si>
+  <si>
+    <t>山水画布局标签图生成的聚类算法设计与实现</t>
+  </si>
+  <si>
+    <t>工笔画线条及超像素特征的计算与实现</t>
+  </si>
+  <si>
+    <t>基于计算机视觉的课堂学情分析系统</t>
+  </si>
+  <si>
+    <t>基于目标检测的课堂属性分析</t>
+  </si>
+  <si>
+    <t>监控场景下的异常着装检测</t>
+  </si>
+  <si>
+    <t>监控场景下基于yolo的火焰检测</t>
+  </si>
+  <si>
+    <t>基于图像分析的恶意代码检测</t>
+  </si>
+  <si>
+    <t>基于华为Kubeedge边缘计算系统的改进</t>
+  </si>
+  <si>
+    <t>密文域上的可逆数据隐藏系统</t>
+  </si>
+  <si>
+    <t>基于种子扩展的社区发现算法研究</t>
+  </si>
+  <si>
+    <t>面向大规模网络划分的图分割算法研究</t>
+  </si>
+  <si>
+    <t>面向属性网络的社区发现算法研究</t>
+  </si>
+  <si>
+    <t>基于社区嵌入的网络表示学习方法研究</t>
+  </si>
+  <si>
+    <t>基于LSM-Tree的分布式存储引擎研究</t>
+  </si>
+  <si>
+    <t>基于医疗知识图谱的问答系统</t>
+  </si>
+  <si>
+    <t>基于流计算的实时书籍推荐系统</t>
+  </si>
+  <si>
+    <t>深度学习在电影个性化推荐模型中的应用研究</t>
+  </si>
+  <si>
+    <t>融合区块链技术公益平台网站的研发</t>
+  </si>
+  <si>
+    <t>基于Spring Boot的诗词问答APP设计与实现</t>
   </si>
   <si>
     <t>基于SSM的云打印系统的设计与实现</t>
@@ -805,31 +1060,19 @@
     <t>基于java的在线考试平台设计与实现</t>
   </si>
   <si>
-    <t>基于机器学习的细粒度用户行为分析系统</t>
-  </si>
-  <si>
-    <t>基于Mask R-CNN算法的细胞实例分割</t>
-  </si>
-  <si>
-    <t>智慧教室学生状态检测系统</t>
-  </si>
-  <si>
-    <t>基于SVM和KNN算法的微博情绪识别</t>
-  </si>
-  <si>
-    <t>基于android的垃圾识别软件</t>
-  </si>
-  <si>
-    <t>基于SVM的航拍图像语义场景识别</t>
-  </si>
-  <si>
-    <t>基于特征抽取的图像艺术风格分类及实现</t>
-  </si>
-  <si>
-    <t>山水画布局标签图生成的聚类算法设计与实现</t>
-  </si>
-  <si>
-    <t>工笔画线条及超像素特征的计算与实现</t>
+    <t>一类动态推荐算法的设计与应用</t>
+  </si>
+  <si>
+    <t>城市给水管网虚拟仿真与漏损识别系统</t>
+  </si>
+  <si>
+    <t>基于微信小程序的文章分享系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于ARKit的增强现实模拟经营游戏设计与实现</t>
+  </si>
+  <si>
+    <t>基于微信小程序的文库系统的设计与前端开发</t>
   </si>
   <si>
     <t>基于RPGMaker MV开发的像素meta游戏</t>
@@ -838,24 +1081,21 @@
     <t>基于SSM框架的博客系统</t>
   </si>
   <si>
-    <t>基于人脸识别的口罩佩戴检测系统</t>
-  </si>
-  <si>
-    <t>基于深度学习的交通标志识别</t>
-  </si>
-  <si>
-    <t>基于深度学习的人脸图像识别技术的研究</t>
-  </si>
-  <si>
-    <t>基于深度学习的文本情感分析的研究与实现</t>
-  </si>
-  <si>
-    <t>基于Spring Boot的诗词问答APP设计与实现</t>
+    <t>基于spring boot的挂号管理系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于安卓的大学生家教平台</t>
+  </si>
+  <si>
+    <t>网上学习课堂的设计和实现</t>
   </si>
   <si>
     <t>基于SSM框架的在线考试系统的设计与实现</t>
   </si>
   <si>
+    <t>面向恶劣天气基于机器学习算法的交通信号灯识别方法研究</t>
+  </si>
+  <si>
     <t>基于人体骨架的动作识别</t>
   </si>
   <si>
@@ -880,376 +1120,137 @@
     <t>基于深度学习的文字识别</t>
   </si>
   <si>
-    <t>基于机器学习的茶花品种分类识别</t>
-  </si>
-  <si>
-    <t>基于Cocos2d-x的智能策略牌类游戏</t>
-  </si>
-  <si>
-    <t>基于cocos2d-x的roguelike风格闯关类游戏</t>
-  </si>
-  <si>
-    <t>基于Unity3D的乙酰苯胺制备虚拟仿真实验软件</t>
-  </si>
-  <si>
-    <t>网络报文过滤器原理和机制研究</t>
-  </si>
-  <si>
-    <t>基于强化学习的网络流量异常检测系统</t>
-  </si>
-  <si>
-    <t>一种分布式可编程交换机资源扩容方法</t>
-  </si>
-  <si>
-    <t>基于SDN的网络功能服务链扩容算法研究</t>
-  </si>
-  <si>
-    <t>基于基站传感器的最优栅栏覆盖研究</t>
-  </si>
-  <si>
-    <t>现代芯片设计中的新布线问题研究</t>
-  </si>
-  <si>
-    <t>基于深度神经网络的用户流动监管系统</t>
-  </si>
-  <si>
-    <t>面向数据中心的实时资源调度</t>
-  </si>
-  <si>
-    <t>智能电网的需求响应管理</t>
-  </si>
-  <si>
-    <t>摄像网络中的目标覆盖研究</t>
-  </si>
-  <si>
-    <t>基于数据挖掘的糖尿病预测模型</t>
-  </si>
-  <si>
-    <t>基于Spring MVC的大学生创业平台开发</t>
-  </si>
-  <si>
-    <t>基于Spring MVC的网上商城设计与开发</t>
-  </si>
-  <si>
-    <t>深度学习提取音乐特征在DeepFM音乐推荐算法中的效果增益</t>
-  </si>
-  <si>
-    <t>基于机器阅读理解的问答模型</t>
-  </si>
-  <si>
-    <t>基于Java Web的线上房屋智能匹配租赁管理系统</t>
-  </si>
-  <si>
-    <t>基于种子扩展的社区发现算法研究</t>
-  </si>
-  <si>
-    <t>面向大规模网络划分的图分割算法研究</t>
-  </si>
-  <si>
-    <t>面向属性网络的社区发现算法研究</t>
-  </si>
-  <si>
-    <t>基于社区嵌入的网络表示学习方法研究</t>
-  </si>
-  <si>
-    <t>基于LSM-Tree的分布式存储引擎研究</t>
-  </si>
-  <si>
-    <t>基于医疗知识图谱的问答系统</t>
-  </si>
-  <si>
-    <t>基于流计算的实时书籍推荐系统</t>
-  </si>
-  <si>
-    <t>基于unity 3D的击打小游戏开发</t>
-  </si>
-  <si>
-    <t>个性化图书推荐系统的设计与实现</t>
-  </si>
-  <si>
-    <t>预约停车收费微信小程序的设计与实现</t>
-  </si>
-  <si>
-    <t>基于深度神经网络的智能问答系统</t>
-  </si>
-  <si>
-    <t>基于胶囊网络的分类方法</t>
-  </si>
-  <si>
-    <t>基于点云的3D目标检测</t>
-  </si>
-  <si>
-    <t>基于注意力机制的细粒度分类方法</t>
-  </si>
-  <si>
-    <t>基于路径坐标优化的压缩感知重构算法</t>
-  </si>
-  <si>
-    <t>基于姿态分析和3D-CNN的视频行人重识别方法</t>
-  </si>
-  <si>
-    <t>基于矩阵L_2,0范数的特征选择方法</t>
-  </si>
-  <si>
-    <t>同步手绘板的设计与实现</t>
-  </si>
-  <si>
-    <t>跨平台文件快速传递应用的设计与实现</t>
-  </si>
-  <si>
-    <t>防疫地图与个人健康打卡微信小程序的设计与实现</t>
-  </si>
-  <si>
-    <t>基于springboot的点餐系统</t>
-  </si>
-  <si>
-    <t>国网电网项目中区域生态保护红线监测管理软件开发</t>
-  </si>
-  <si>
-    <t>基于卷积神经网络的视频烟雾检测</t>
-  </si>
-  <si>
-    <t>基于机器学习的降雨预报</t>
-  </si>
-  <si>
-    <t>基于视频图像的烟雾检测算法实现</t>
-  </si>
-  <si>
-    <t>教师点名辅助系统</t>
-  </si>
-  <si>
-    <t>基于计算机视觉的高空抛物检测系统</t>
-  </si>
-  <si>
-    <t>心电序列的分类分析</t>
-  </si>
-  <si>
-    <t>基于Android Studio的福大校园生活app开发</t>
-  </si>
-  <si>
-    <t>基于Unity引擎的游戏开发</t>
-  </si>
-  <si>
-    <t>平衡聚类算法的实现及其可视化</t>
-  </si>
-  <si>
-    <t>冰壶对抗仿真</t>
-  </si>
-  <si>
-    <t>基于微信小程序的文章分享系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于ARKit的增强现实模拟经营游戏设计与实现</t>
-  </si>
-  <si>
-    <t>基于微信小程序的文库系统的设计与前端开发</t>
-  </si>
-  <si>
-    <t>基于视差注意机制的立体图像颜色校正方法研究</t>
-  </si>
-  <si>
-    <t>基于匹配图像的立体图像颜色校正方法研究</t>
-  </si>
-  <si>
-    <t>超大规模集成电路布局合法化问题研究</t>
-  </si>
-  <si>
-    <t>自动创建备忘内容的备忘系统</t>
-  </si>
-  <si>
-    <t>基于OCR的身份证要素提取系统</t>
-  </si>
-  <si>
-    <t>基于安卓的大学生家教平台</t>
-  </si>
-  <si>
-    <t>网上学习课堂的设计和实现</t>
-  </si>
-  <si>
-    <t>代理商结算平台的设计与实现</t>
-  </si>
-  <si>
-    <t>新冠肺炎疫情数据可视化及查询系统</t>
-  </si>
-  <si>
-    <t>基于语义相似度算法的唐诗推荐安卓应用</t>
-  </si>
-  <si>
-    <t>基于spring boot的挂号管理系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于深度学习的微博文本情感分析</t>
-  </si>
-  <si>
-    <t>基于Web的疫情信息系统</t>
-  </si>
-  <si>
-    <t>面向恶劣天气基于机器学习算法的交通信号灯识别方法研究</t>
-  </si>
-  <si>
-    <t>深度学习在电影个性化推荐模型中的应用研究</t>
-  </si>
-  <si>
-    <t>融合区块链技术公益平台网站的研发</t>
-  </si>
-  <si>
-    <t>一类动态推荐算法的设计与应用</t>
-  </si>
-  <si>
-    <t>城市给水管网虚拟仿真与漏损识别系统</t>
-  </si>
-  <si>
-    <t>基于计算机视觉的课堂学情分析系统</t>
-  </si>
-  <si>
-    <t>基于目标检测的课堂属性分析</t>
-  </si>
-  <si>
-    <t>监控场景下的异常着装检测</t>
-  </si>
-  <si>
-    <t>监控场景下基于yolo的火焰检测</t>
-  </si>
-  <si>
-    <t>基于图像分析的恶意代码检测</t>
-  </si>
-  <si>
-    <t>基于华为Kubeedge边缘计算系统的改进</t>
-  </si>
-  <si>
-    <t>密文域上的可逆数据隐藏系统</t>
+    <t>孙岚</t>
+  </si>
+  <si>
+    <t>苏雅茹</t>
+  </si>
+  <si>
+    <t>牛玉贞</t>
+  </si>
+  <si>
+    <t>何振峰</t>
+  </si>
+  <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>阮一文</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
   </si>
   <si>
     <t>傅仰耿</t>
   </si>
   <si>
-    <t>苏雅茹</t>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>余小燕</t>
+  </si>
+  <si>
+    <t>张栋</t>
+  </si>
+  <si>
+    <t>白清源</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
+    <t>于元隆</t>
+  </si>
+  <si>
+    <t>王秀</t>
+  </si>
+  <si>
+    <t>谢伙生</t>
+  </si>
+  <si>
+    <t>吴运兵</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
+    <t>柯逍</t>
+  </si>
+  <si>
+    <t>郭昆</t>
+  </si>
+  <si>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>朱丹红</t>
   </si>
   <si>
     <t>谢丽聪</t>
   </si>
   <si>
-    <t>吴英杰</t>
-  </si>
-  <si>
-    <t>陈昭炯</t>
+    <t>叶东毅</t>
+  </si>
+  <si>
+    <t>陈勃</t>
   </si>
   <si>
     <t>林秋月</t>
   </si>
   <si>
-    <t>王一蕾</t>
-  </si>
-  <si>
-    <t>朱丹红</t>
+    <t>于志敏</t>
+  </si>
+  <si>
+    <t>陈欢</t>
   </si>
   <si>
     <t>韩晓芸</t>
   </si>
   <si>
+    <t>程永利</t>
+  </si>
+  <si>
     <t>刘文犀</t>
   </si>
   <si>
-    <t>张栋</t>
-  </si>
-  <si>
-    <t>郭龙坤</t>
-  </si>
-  <si>
-    <t>白清源</t>
-  </si>
-  <si>
-    <t>郭昆</t>
-  </si>
-  <si>
-    <t>王秀</t>
-  </si>
-  <si>
-    <t>于元隆</t>
-  </si>
-  <si>
-    <t>余春艳</t>
-  </si>
-  <si>
-    <t>余小燕</t>
-  </si>
-  <si>
-    <t>谢伙生</t>
-  </si>
-  <si>
-    <t>阮一文</t>
-  </si>
-  <si>
-    <t>何振峰</t>
-  </si>
-  <si>
-    <t>陈勃</t>
-  </si>
-  <si>
-    <t>牛玉贞</t>
-  </si>
-  <si>
-    <t>陈欢</t>
-  </si>
-  <si>
-    <t>孙岚</t>
-  </si>
-  <si>
-    <t>于志敏</t>
-  </si>
-  <si>
-    <t>吴运兵</t>
-  </si>
-  <si>
-    <t>程永利</t>
-  </si>
-  <si>
-    <t>叶菁</t>
-  </si>
-  <si>
-    <t>叶东毅</t>
-  </si>
-  <si>
-    <t>柯逍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">谢伙生,
+    <t xml:space="preserve">谢丽聪,
 刘文犀,
+陈昭炯,
+林秋月,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王秀,
+谢伙生,
+郭龙坤,
+朱丹红,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苏雅茹,
+何振峰,
+柯逍,
+韩晓芸,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王一蕾,
+傅仰耿,
+叶东毅,
+余春艳,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈勃,
+余小燕,
 孙岚,
-郭龙坤,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余小燕,
-陈欢,
-牛玉贞,
 程永利,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">苏雅茹,
-于志敏,
-叶东毅,
+    <t xml:space="preserve">叶菁,
 阮一文,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柯逍,
-王一蕾,
-陈昭炯,
-何振峰,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朱丹红,
-傅仰耿,
-林秋月,
-叶菁,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩晓芸,
-陈勃,
+张栋,
 白清源,
 </t>
   </si>
@@ -1649,7 +1650,7 @@
         <v>128</v>
       </c>
       <c r="D2">
-        <v>3.796564</v>
+        <v>3.516719</v>
       </c>
       <c r="E2" t="s">
         <v>248</v>
@@ -1658,7 +1659,7 @@
         <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H2" t="s">
         <v>399</v>
@@ -1675,7 +1676,7 @@
         <v>129</v>
       </c>
       <c r="D3">
-        <v>2.956563</v>
+        <v>3.140683</v>
       </c>
       <c r="E3" t="s">
         <v>249</v>
@@ -1684,7 +1685,7 @@
         <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H3" t="s">
         <v>399</v>
@@ -1701,7 +1702,7 @@
         <v>130</v>
       </c>
       <c r="D4">
-        <v>4.000683</v>
+        <v>2.002564</v>
       </c>
       <c r="E4" t="s">
         <v>250</v>
@@ -1710,7 +1711,7 @@
         <v>368</v>
       </c>
       <c r="G4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H4" t="s">
         <v>399</v>
@@ -1727,16 +1728,16 @@
         <v>131</v>
       </c>
       <c r="D5">
-        <v>3.411613</v>
+        <v>3.157333</v>
       </c>
       <c r="E5" t="s">
         <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G5" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H5" t="s">
         <v>399</v>
@@ -1753,16 +1754,16 @@
         <v>132</v>
       </c>
       <c r="D6">
-        <v>3.003754</v>
+        <v>2.525974</v>
       </c>
       <c r="E6" t="s">
         <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H6" t="s">
         <v>399</v>
@@ -1779,7 +1780,7 @@
         <v>133</v>
       </c>
       <c r="D7">
-        <v>3.157333</v>
+        <v>2.873377</v>
       </c>
       <c r="E7" t="s">
         <v>253</v>
@@ -1788,7 +1789,7 @@
         <v>369</v>
       </c>
       <c r="G7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
         <v>399</v>
@@ -1805,7 +1806,7 @@
         <v>134</v>
       </c>
       <c r="D8">
-        <v>2.525974</v>
+        <v>2.429217</v>
       </c>
       <c r="E8" t="s">
         <v>254</v>
@@ -1814,7 +1815,7 @@
         <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="H8" t="s">
         <v>399</v>
@@ -1831,7 +1832,7 @@
         <v>135</v>
       </c>
       <c r="D9">
-        <v>2.873377</v>
+        <v>2.831642</v>
       </c>
       <c r="E9" t="s">
         <v>255</v>
@@ -1840,7 +1841,7 @@
         <v>369</v>
       </c>
       <c r="G9" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="H9" t="s">
         <v>399</v>
@@ -1857,7 +1858,7 @@
         <v>136</v>
       </c>
       <c r="D10">
-        <v>2.429217</v>
+        <v>3.023659</v>
       </c>
       <c r="E10" t="s">
         <v>256</v>
@@ -1866,7 +1867,7 @@
         <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="H10" t="s">
         <v>399</v>
@@ -1883,7 +1884,7 @@
         <v>137</v>
       </c>
       <c r="D11">
-        <v>2.831642</v>
+        <v>2.24183</v>
       </c>
       <c r="E11" t="s">
         <v>257</v>
@@ -1892,7 +1893,7 @@
         <v>369</v>
       </c>
       <c r="G11" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="H11" t="s">
         <v>399</v>
@@ -1909,16 +1910,16 @@
         <v>138</v>
       </c>
       <c r="D12">
-        <v>3.023659</v>
+        <v>3.61732</v>
       </c>
       <c r="E12" t="s">
         <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H12" t="s">
         <v>399</v>
@@ -1935,16 +1936,16 @@
         <v>139</v>
       </c>
       <c r="D13">
-        <v>2.24183</v>
+        <v>3.602326</v>
       </c>
       <c r="E13" t="s">
         <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H13" t="s">
         <v>399</v>
@@ -1961,7 +1962,7 @@
         <v>140</v>
       </c>
       <c r="D14">
-        <v>1.957941</v>
+        <v>3.190164</v>
       </c>
       <c r="E14" t="s">
         <v>260</v>
@@ -1970,7 +1971,7 @@
         <v>370</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="H14" t="s">
         <v>399</v>
@@ -1987,7 +1988,7 @@
         <v>141</v>
       </c>
       <c r="D15">
-        <v>2.223476</v>
+        <v>3.257516</v>
       </c>
       <c r="E15" t="s">
         <v>261</v>
@@ -1996,7 +1997,7 @@
         <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="H15" t="s">
         <v>399</v>
@@ -2013,7 +2014,7 @@
         <v>142</v>
       </c>
       <c r="D16">
-        <v>2.004438</v>
+        <v>2.719745</v>
       </c>
       <c r="E16" t="s">
         <v>262</v>
@@ -2022,7 +2023,7 @@
         <v>370</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="H16" t="s">
         <v>399</v>
@@ -2039,7 +2040,7 @@
         <v>143</v>
       </c>
       <c r="D17">
-        <v>3.062712</v>
+        <v>2.596942</v>
       </c>
       <c r="E17" t="s">
         <v>263</v>
@@ -2048,7 +2049,7 @@
         <v>371</v>
       </c>
       <c r="G17" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H17" t="s">
         <v>399</v>
@@ -2065,7 +2066,7 @@
         <v>144</v>
       </c>
       <c r="D18">
-        <v>3.823843</v>
+        <v>2.368807</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
@@ -2074,7 +2075,7 @@
         <v>371</v>
       </c>
       <c r="G18" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H18" t="s">
         <v>399</v>
@@ -2091,7 +2092,7 @@
         <v>145</v>
       </c>
       <c r="D19">
-        <v>3.233677</v>
+        <v>2.228664</v>
       </c>
       <c r="E19" t="s">
         <v>265</v>
@@ -2100,7 +2101,7 @@
         <v>371</v>
       </c>
       <c r="G19" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H19" t="s">
         <v>399</v>
@@ -2117,7 +2118,7 @@
         <v>146</v>
       </c>
       <c r="D20">
-        <v>2.112805</v>
+        <v>2.417284</v>
       </c>
       <c r="E20" t="s">
         <v>266</v>
@@ -2126,7 +2127,7 @@
         <v>371</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H20" t="s">
         <v>399</v>
@@ -2143,7 +2144,7 @@
         <v>147</v>
       </c>
       <c r="D21">
-        <v>3.457333</v>
+        <v>3.12283</v>
       </c>
       <c r="E21" t="s">
         <v>267</v>
@@ -2152,7 +2153,7 @@
         <v>371</v>
       </c>
       <c r="G21" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H21" t="s">
         <v>399</v>
@@ -2195,7 +2196,7 @@
         <v>148</v>
       </c>
       <c r="D23">
-        <v>2.067398</v>
+        <v>2.188328</v>
       </c>
       <c r="E23" t="s">
         <v>268</v>
@@ -2204,7 +2205,7 @@
         <v>372</v>
       </c>
       <c r="G23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H23" t="s">
         <v>400</v>
@@ -2221,7 +2222,7 @@
         <v>149</v>
       </c>
       <c r="D24">
-        <v>3.200631</v>
+        <v>2.150459</v>
       </c>
       <c r="E24" t="s">
         <v>269</v>
@@ -2230,7 +2231,7 @@
         <v>372</v>
       </c>
       <c r="G24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H24" t="s">
         <v>400</v>
@@ -2247,7 +2248,7 @@
         <v>150</v>
       </c>
       <c r="D25">
-        <v>1.861677</v>
+        <v>2.563192</v>
       </c>
       <c r="E25" t="s">
         <v>270</v>
@@ -2256,7 +2257,7 @@
         <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H25" t="s">
         <v>400</v>
@@ -2273,16 +2274,16 @@
         <v>151</v>
       </c>
       <c r="D26">
-        <v>2.866559</v>
+        <v>2.771154</v>
       </c>
       <c r="E26" t="s">
         <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H26" t="s">
         <v>400</v>
@@ -2299,7 +2300,7 @@
         <v>152</v>
       </c>
       <c r="D27">
-        <v>2.418868</v>
+        <v>1.83858</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -2308,7 +2309,7 @@
         <v>373</v>
       </c>
       <c r="G27" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H27" t="s">
         <v>400</v>
@@ -2325,16 +2326,16 @@
         <v>153</v>
       </c>
       <c r="D28">
-        <v>2.404389</v>
+        <v>2.883912</v>
       </c>
       <c r="E28" t="s">
         <v>273</v>
       </c>
       <c r="F28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G28" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H28" t="s">
         <v>400</v>
@@ -2351,7 +2352,7 @@
         <v>154</v>
       </c>
       <c r="D29">
-        <v>2.883912</v>
+        <v>2.200322</v>
       </c>
       <c r="E29" t="s">
         <v>274</v>
@@ -2377,7 +2378,7 @@
         <v>155</v>
       </c>
       <c r="D30">
-        <v>2.200322</v>
+        <v>3.349667</v>
       </c>
       <c r="E30" t="s">
         <v>275</v>
@@ -2403,7 +2404,7 @@
         <v>156</v>
       </c>
       <c r="D31">
-        <v>3.349667</v>
+        <v>3.351104</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -2429,16 +2430,16 @@
         <v>157</v>
       </c>
       <c r="D32">
-        <v>3.351104</v>
+        <v>3.796564</v>
       </c>
       <c r="E32" t="s">
         <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H32" t="s">
         <v>400</v>
@@ -2455,7 +2456,7 @@
         <v>158</v>
       </c>
       <c r="D33">
-        <v>3.19873</v>
+        <v>2.956563</v>
       </c>
       <c r="E33" t="s">
         <v>278</v>
@@ -2464,7 +2465,7 @@
         <v>375</v>
       </c>
       <c r="G33" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H33" t="s">
         <v>400</v>
@@ -2481,16 +2482,16 @@
         <v>159</v>
       </c>
       <c r="D34">
-        <v>2.110938</v>
+        <v>4.000683</v>
       </c>
       <c r="E34" t="s">
         <v>279</v>
       </c>
       <c r="F34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G34" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H34" t="s">
         <v>400</v>
@@ -2507,16 +2508,16 @@
         <v>160</v>
       </c>
       <c r="D35">
-        <v>3.517685</v>
+        <v>3.411613</v>
       </c>
       <c r="E35" t="s">
         <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G35" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H35" t="s">
         <v>400</v>
@@ -2533,16 +2534,16 @@
         <v>161</v>
       </c>
       <c r="D36">
-        <v>3.674751</v>
+        <v>3.003754</v>
       </c>
       <c r="E36" t="s">
         <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G36" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H36" t="s">
         <v>400</v>
@@ -2559,16 +2560,16 @@
         <v>162</v>
       </c>
       <c r="D37">
-        <v>3.17476</v>
+        <v>3.062712</v>
       </c>
       <c r="E37" t="s">
         <v>282</v>
       </c>
       <c r="F37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G37" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H37" t="s">
         <v>400</v>
@@ -2585,16 +2586,16 @@
         <v>163</v>
       </c>
       <c r="D38">
-        <v>3.603909</v>
+        <v>3.823843</v>
       </c>
       <c r="E38" t="s">
         <v>283</v>
       </c>
       <c r="F38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G38" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H38" t="s">
         <v>400</v>
@@ -2611,16 +2612,16 @@
         <v>164</v>
       </c>
       <c r="D39">
-        <v>2.790032</v>
+        <v>3.233677</v>
       </c>
       <c r="E39" t="s">
         <v>284</v>
       </c>
       <c r="F39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G39" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H39" t="s">
         <v>400</v>
@@ -2637,16 +2638,16 @@
         <v>165</v>
       </c>
       <c r="D40">
-        <v>2.636977</v>
+        <v>2.112805</v>
       </c>
       <c r="E40" t="s">
         <v>285</v>
       </c>
       <c r="F40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H40" t="s">
         <v>400</v>
@@ -2663,16 +2664,16 @@
         <v>166</v>
       </c>
       <c r="D41">
-        <v>3.517799</v>
+        <v>3.457333</v>
       </c>
       <c r="E41" t="s">
         <v>286</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H41" t="s">
         <v>400</v>
@@ -2689,7 +2690,7 @@
         <v>167</v>
       </c>
       <c r="D42">
-        <v>3.25768</v>
+        <v>2.619934</v>
       </c>
       <c r="E42" t="s">
         <v>287</v>
@@ -2698,7 +2699,7 @@
         <v>377</v>
       </c>
       <c r="G42" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H42" t="s">
         <v>400</v>
@@ -2949,7 +2950,7 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>2.561875</v>
+        <v>3.111726</v>
       </c>
       <c r="E52" t="s">
         <v>296</v>
@@ -2958,7 +2959,7 @@
         <v>379</v>
       </c>
       <c r="G52" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H52" t="s">
         <v>401</v>
@@ -2975,7 +2976,7 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>3.616294</v>
+        <v>3.0081</v>
       </c>
       <c r="E53" t="s">
         <v>297</v>
@@ -2984,7 +2985,7 @@
         <v>379</v>
       </c>
       <c r="G53" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H53" t="s">
         <v>401</v>
@@ -3001,7 +3002,7 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>2.49373</v>
+        <v>3.170779</v>
       </c>
       <c r="E54" t="s">
         <v>298</v>
@@ -3010,7 +3011,7 @@
         <v>379</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H54" t="s">
         <v>401</v>
@@ -3027,7 +3028,7 @@
         <v>179</v>
       </c>
       <c r="D55">
-        <v>3.279655</v>
+        <v>3.607492</v>
       </c>
       <c r="E55" t="s">
         <v>299</v>
@@ -3036,7 +3037,7 @@
         <v>379</v>
       </c>
       <c r="G55" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H55" t="s">
         <v>401</v>
@@ -3053,7 +3054,7 @@
         <v>180</v>
       </c>
       <c r="D56">
-        <v>2.851827</v>
+        <v>2.419536</v>
       </c>
       <c r="E56" t="s">
         <v>300</v>
@@ -3062,7 +3063,7 @@
         <v>379</v>
       </c>
       <c r="G56" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H56" t="s">
         <v>401</v>
@@ -3079,7 +3080,7 @@
         <v>181</v>
       </c>
       <c r="D57">
-        <v>2.599676</v>
+        <v>3.349843</v>
       </c>
       <c r="E57" t="s">
         <v>301</v>
@@ -3088,7 +3089,7 @@
         <v>379</v>
       </c>
       <c r="G57" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H57" t="s">
         <v>401</v>
@@ -3105,7 +3106,7 @@
         <v>182</v>
       </c>
       <c r="D58">
-        <v>3.111726</v>
+        <v>2.561875</v>
       </c>
       <c r="E58" t="s">
         <v>302</v>
@@ -3114,7 +3115,7 @@
         <v>380</v>
       </c>
       <c r="G58" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H58" t="s">
         <v>401</v>
@@ -3131,7 +3132,7 @@
         <v>183</v>
       </c>
       <c r="D59">
-        <v>3.0081</v>
+        <v>3.616294</v>
       </c>
       <c r="E59" t="s">
         <v>303</v>
@@ -3140,7 +3141,7 @@
         <v>380</v>
       </c>
       <c r="G59" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H59" t="s">
         <v>401</v>
@@ -3157,7 +3158,7 @@
         <v>184</v>
       </c>
       <c r="D60">
-        <v>3.170779</v>
+        <v>2.49373</v>
       </c>
       <c r="E60" t="s">
         <v>304</v>
@@ -3166,7 +3167,7 @@
         <v>380</v>
       </c>
       <c r="G60" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H60" t="s">
         <v>401</v>
@@ -3183,7 +3184,7 @@
         <v>185</v>
       </c>
       <c r="D61">
-        <v>3.607492</v>
+        <v>3.279655</v>
       </c>
       <c r="E61" t="s">
         <v>305</v>
@@ -3192,7 +3193,7 @@
         <v>380</v>
       </c>
       <c r="G61" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H61" t="s">
         <v>401</v>
@@ -3209,7 +3210,7 @@
         <v>186</v>
       </c>
       <c r="D62">
-        <v>2.419536</v>
+        <v>2.851827</v>
       </c>
       <c r="E62" t="s">
         <v>306</v>
@@ -3218,7 +3219,7 @@
         <v>380</v>
       </c>
       <c r="G62" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H62" t="s">
         <v>401</v>
@@ -3235,7 +3236,7 @@
         <v>187</v>
       </c>
       <c r="D63">
-        <v>3.349843</v>
+        <v>2.599676</v>
       </c>
       <c r="E63" t="s">
         <v>307</v>
@@ -3244,7 +3245,7 @@
         <v>380</v>
       </c>
       <c r="G63" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H63" t="s">
         <v>401</v>
@@ -3287,7 +3288,7 @@
         <v>188</v>
       </c>
       <c r="D65">
-        <v>3.164865</v>
+        <v>3.312752</v>
       </c>
       <c r="E65" t="s">
         <v>308</v>
@@ -3296,7 +3297,7 @@
         <v>381</v>
       </c>
       <c r="G65" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H65" t="s">
         <v>402</v>
@@ -3313,7 +3314,7 @@
         <v>189</v>
       </c>
       <c r="D66">
-        <v>3.369014</v>
+        <v>3.859539</v>
       </c>
       <c r="E66" t="s">
         <v>309</v>
@@ -3322,7 +3323,7 @@
         <v>381</v>
       </c>
       <c r="G66" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H66" t="s">
         <v>402</v>
@@ -3339,7 +3340,7 @@
         <v>190</v>
       </c>
       <c r="D67">
-        <v>3.780795</v>
+        <v>2.952145</v>
       </c>
       <c r="E67" t="s">
         <v>310</v>
@@ -3348,7 +3349,7 @@
         <v>381</v>
       </c>
       <c r="G67" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H67" t="s">
         <v>402</v>
@@ -3365,7 +3366,7 @@
         <v>191</v>
       </c>
       <c r="D68">
-        <v>3.789667</v>
+        <v>3.456209</v>
       </c>
       <c r="E68" t="s">
         <v>311</v>
@@ -3374,7 +3375,7 @@
         <v>381</v>
       </c>
       <c r="G68" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H68" t="s">
         <v>402</v>
@@ -3391,7 +3392,7 @@
         <v>192</v>
       </c>
       <c r="D69">
-        <v>3.124063</v>
+        <v>3.644408</v>
       </c>
       <c r="E69" t="s">
         <v>312</v>
@@ -3400,7 +3401,7 @@
         <v>381</v>
       </c>
       <c r="G69" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H69" t="s">
         <v>402</v>
@@ -3417,7 +3418,7 @@
         <v>193</v>
       </c>
       <c r="D70">
-        <v>2.550789</v>
+        <v>3.172871</v>
       </c>
       <c r="E70" t="s">
         <v>313</v>
@@ -3426,7 +3427,7 @@
         <v>381</v>
       </c>
       <c r="G70" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="H70" t="s">
         <v>402</v>
@@ -3443,16 +3444,16 @@
         <v>194</v>
       </c>
       <c r="D71">
-        <v>2.463057</v>
+        <v>2.539498</v>
       </c>
       <c r="E71" t="s">
         <v>314</v>
       </c>
       <c r="F71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G71" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="H71" t="s">
         <v>402</v>
@@ -3469,7 +3470,7 @@
         <v>195</v>
       </c>
       <c r="D72">
-        <v>2.539498</v>
+        <v>2.176687</v>
       </c>
       <c r="E72" t="s">
         <v>315</v>
@@ -3495,7 +3496,7 @@
         <v>196</v>
       </c>
       <c r="D73">
-        <v>2.176687</v>
+        <v>2.435347</v>
       </c>
       <c r="E73" t="s">
         <v>316</v>
@@ -3521,7 +3522,7 @@
         <v>197</v>
       </c>
       <c r="D74">
-        <v>2.435347</v>
+        <v>2.646885</v>
       </c>
       <c r="E74" t="s">
         <v>317</v>
@@ -3547,16 +3548,16 @@
         <v>198</v>
       </c>
       <c r="D75">
-        <v>2.646885</v>
+        <v>3.175478</v>
       </c>
       <c r="E75" t="s">
         <v>318</v>
       </c>
       <c r="F75" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H75" t="s">
         <v>402</v>
@@ -3573,7 +3574,7 @@
         <v>199</v>
       </c>
       <c r="D76">
-        <v>3.312752</v>
+        <v>3.394953</v>
       </c>
       <c r="E76" t="s">
         <v>319</v>
@@ -3582,7 +3583,7 @@
         <v>383</v>
       </c>
       <c r="G76" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H76" t="s">
         <v>402</v>
@@ -3599,7 +3600,7 @@
         <v>200</v>
       </c>
       <c r="D77">
-        <v>3.859539</v>
+        <v>3.507237</v>
       </c>
       <c r="E77" t="s">
         <v>320</v>
@@ -3608,7 +3609,7 @@
         <v>383</v>
       </c>
       <c r="G77" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H77" t="s">
         <v>402</v>
@@ -3625,7 +3626,7 @@
         <v>201</v>
       </c>
       <c r="D78">
-        <v>2.952145</v>
+        <v>3.367846</v>
       </c>
       <c r="E78" t="s">
         <v>321</v>
@@ -3634,7 +3635,7 @@
         <v>383</v>
       </c>
       <c r="G78" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H78" t="s">
         <v>402</v>
@@ -3651,16 +3652,16 @@
         <v>202</v>
       </c>
       <c r="D79">
-        <v>3.456209</v>
+        <v>2.097476</v>
       </c>
       <c r="E79" t="s">
         <v>322</v>
       </c>
       <c r="F79" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G79" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H79" t="s">
         <v>402</v>
@@ -3677,16 +3678,16 @@
         <v>203</v>
       </c>
       <c r="D80">
-        <v>3.644408</v>
+        <v>2.022961</v>
       </c>
       <c r="E80" t="s">
         <v>323</v>
       </c>
       <c r="F80" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G80" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H80" t="s">
         <v>402</v>
@@ -3703,16 +3704,16 @@
         <v>204</v>
       </c>
       <c r="D81">
-        <v>3.172871</v>
+        <v>2.067398</v>
       </c>
       <c r="E81" t="s">
         <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G81" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H81" t="s">
         <v>402</v>
@@ -3729,13 +3730,13 @@
         <v>205</v>
       </c>
       <c r="D82">
-        <v>2.188328</v>
+        <v>3.200631</v>
       </c>
       <c r="E82" t="s">
         <v>325</v>
       </c>
       <c r="F82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G82" t="s">
         <v>372</v>
@@ -3755,13 +3756,13 @@
         <v>206</v>
       </c>
       <c r="D83">
-        <v>2.150459</v>
+        <v>1.861677</v>
       </c>
       <c r="E83" t="s">
         <v>326</v>
       </c>
       <c r="F83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G83" t="s">
         <v>372</v>
@@ -3781,13 +3782,13 @@
         <v>207</v>
       </c>
       <c r="D84">
-        <v>2.563192</v>
+        <v>2.866559</v>
       </c>
       <c r="E84" t="s">
         <v>327</v>
       </c>
       <c r="F84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G84" t="s">
         <v>372</v>
@@ -3833,16 +3834,16 @@
         <v>208</v>
       </c>
       <c r="D86">
-        <v>2.619934</v>
+        <v>2.736333</v>
       </c>
       <c r="E86" t="s">
         <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G86" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H86" t="s">
         <v>403</v>
@@ -3859,7 +3860,7 @@
         <v>209</v>
       </c>
       <c r="D87">
-        <v>3.175478</v>
+        <v>2.366993</v>
       </c>
       <c r="E87" t="s">
         <v>329</v>
@@ -3868,7 +3869,7 @@
         <v>386</v>
       </c>
       <c r="G87" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="H87" t="s">
         <v>403</v>
@@ -3885,7 +3886,7 @@
         <v>210</v>
       </c>
       <c r="D88">
-        <v>3.394953</v>
+        <v>3.307419</v>
       </c>
       <c r="E88" t="s">
         <v>330</v>
@@ -3894,7 +3895,7 @@
         <v>386</v>
       </c>
       <c r="G88" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="H88" t="s">
         <v>403</v>
@@ -3911,7 +3912,7 @@
         <v>211</v>
       </c>
       <c r="D89">
-        <v>3.507237</v>
+        <v>3.306954</v>
       </c>
       <c r="E89" t="s">
         <v>331</v>
@@ -3920,7 +3921,7 @@
         <v>386</v>
       </c>
       <c r="G89" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="H89" t="s">
         <v>403</v>
@@ -3937,7 +3938,7 @@
         <v>212</v>
       </c>
       <c r="D90">
-        <v>3.367846</v>
+        <v>3.673422</v>
       </c>
       <c r="E90" t="s">
         <v>332</v>
@@ -3946,7 +3947,7 @@
         <v>386</v>
       </c>
       <c r="G90" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="H90" t="s">
         <v>403</v>
@@ -3963,16 +3964,16 @@
         <v>213</v>
       </c>
       <c r="D91">
-        <v>2.771154</v>
+        <v>3.846284</v>
       </c>
       <c r="E91" t="s">
         <v>333</v>
       </c>
       <c r="F91" t="s">
+        <v>386</v>
+      </c>
+      <c r="G91" t="s">
         <v>387</v>
-      </c>
-      <c r="G91" t="s">
-        <v>373</v>
       </c>
       <c r="H91" t="s">
         <v>403</v>
@@ -3989,16 +3990,16 @@
         <v>214</v>
       </c>
       <c r="D92">
-        <v>1.83858</v>
+        <v>3.918065</v>
       </c>
       <c r="E92" t="s">
         <v>334</v>
       </c>
       <c r="F92" t="s">
+        <v>386</v>
+      </c>
+      <c r="G92" t="s">
         <v>387</v>
-      </c>
-      <c r="G92" t="s">
-        <v>373</v>
       </c>
       <c r="H92" t="s">
         <v>403</v>
@@ -4015,16 +4016,16 @@
         <v>215</v>
       </c>
       <c r="D93">
-        <v>2.596942</v>
+        <v>3.164865</v>
       </c>
       <c r="E93" t="s">
         <v>335</v>
       </c>
       <c r="F93" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G93" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H93" t="s">
         <v>403</v>
@@ -4041,16 +4042,16 @@
         <v>216</v>
       </c>
       <c r="D94">
-        <v>2.368807</v>
+        <v>3.369014</v>
       </c>
       <c r="E94" t="s">
         <v>336</v>
       </c>
       <c r="F94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G94" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H94" t="s">
         <v>403</v>
@@ -4067,16 +4068,16 @@
         <v>217</v>
       </c>
       <c r="D95">
-        <v>2.228664</v>
+        <v>3.780795</v>
       </c>
       <c r="E95" t="s">
         <v>337</v>
       </c>
       <c r="F95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G95" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H95" t="s">
         <v>403</v>
@@ -4093,16 +4094,16 @@
         <v>218</v>
       </c>
       <c r="D96">
-        <v>2.417284</v>
+        <v>3.789667</v>
       </c>
       <c r="E96" t="s">
         <v>338</v>
       </c>
       <c r="F96" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G96" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H96" t="s">
         <v>403</v>
@@ -4119,16 +4120,16 @@
         <v>219</v>
       </c>
       <c r="D97">
-        <v>3.12283</v>
+        <v>3.124063</v>
       </c>
       <c r="E97" t="s">
         <v>339</v>
       </c>
       <c r="F97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G97" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H97" t="s">
         <v>403</v>
@@ -4145,16 +4146,16 @@
         <v>220</v>
       </c>
       <c r="D98">
-        <v>3.174096</v>
+        <v>2.550789</v>
       </c>
       <c r="E98" t="s">
         <v>340</v>
       </c>
       <c r="F98" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G98" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H98" t="s">
         <v>403</v>
@@ -4171,16 +4172,16 @@
         <v>221</v>
       </c>
       <c r="D99">
-        <v>2.419878</v>
+        <v>2.463057</v>
       </c>
       <c r="E99" t="s">
         <v>341</v>
       </c>
       <c r="F99" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G99" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H99" t="s">
         <v>403</v>
@@ -4197,16 +4198,16 @@
         <v>222</v>
       </c>
       <c r="D100">
-        <v>2.831348</v>
+        <v>2.536991</v>
       </c>
       <c r="E100" t="s">
         <v>342</v>
       </c>
       <c r="F100" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G100" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H100" t="s">
         <v>403</v>
@@ -4223,16 +4224,16 @@
         <v>223</v>
       </c>
       <c r="D101">
-        <v>3.61732</v>
+        <v>2.663855</v>
       </c>
       <c r="E101" t="s">
         <v>343</v>
       </c>
       <c r="F101" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G101" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H101" t="s">
         <v>403</v>
@@ -4249,16 +4250,16 @@
         <v>224</v>
       </c>
       <c r="D102">
-        <v>3.602326</v>
+        <v>3.19873</v>
       </c>
       <c r="E102" t="s">
         <v>344</v>
       </c>
       <c r="F102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G102" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="H102" t="s">
         <v>403</v>
@@ -4275,7 +4276,7 @@
         <v>225</v>
       </c>
       <c r="D103">
-        <v>3.190164</v>
+        <v>1.957941</v>
       </c>
       <c r="E103" t="s">
         <v>345</v>
@@ -4284,7 +4285,7 @@
         <v>390</v>
       </c>
       <c r="G103" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="H103" t="s">
         <v>403</v>
@@ -4301,7 +4302,7 @@
         <v>226</v>
       </c>
       <c r="D104">
-        <v>3.257516</v>
+        <v>2.223476</v>
       </c>
       <c r="E104" t="s">
         <v>346</v>
@@ -4310,7 +4311,7 @@
         <v>390</v>
       </c>
       <c r="G104" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="H104" t="s">
         <v>403</v>
@@ -4327,7 +4328,7 @@
         <v>227</v>
       </c>
       <c r="D105">
-        <v>2.719745</v>
+        <v>2.004438</v>
       </c>
       <c r="E105" t="s">
         <v>347</v>
@@ -4336,7 +4337,7 @@
         <v>390</v>
       </c>
       <c r="G105" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="H105" t="s">
         <v>403</v>
@@ -4379,7 +4380,7 @@
         <v>228</v>
       </c>
       <c r="D107">
-        <v>3.025857</v>
+        <v>3.393189</v>
       </c>
       <c r="E107" t="s">
         <v>348</v>
@@ -4388,7 +4389,7 @@
         <v>391</v>
       </c>
       <c r="G107" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H107" t="s">
         <v>404</v>
@@ -4405,7 +4406,7 @@
         <v>229</v>
       </c>
       <c r="D108">
-        <v>1.601246</v>
+        <v>3.056436</v>
       </c>
       <c r="E108" t="s">
         <v>349</v>
@@ -4414,7 +4415,7 @@
         <v>391</v>
       </c>
       <c r="G108" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H108" t="s">
         <v>404</v>
@@ -4431,7 +4432,7 @@
         <v>230</v>
       </c>
       <c r="D109">
-        <v>3.516719</v>
+        <v>3.174096</v>
       </c>
       <c r="E109" t="s">
         <v>350</v>
@@ -4440,7 +4441,7 @@
         <v>392</v>
       </c>
       <c r="G109" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H109" t="s">
         <v>404</v>
@@ -4457,7 +4458,7 @@
         <v>231</v>
       </c>
       <c r="D110">
-        <v>3.140683</v>
+        <v>2.419878</v>
       </c>
       <c r="E110" t="s">
         <v>351</v>
@@ -4466,7 +4467,7 @@
         <v>392</v>
       </c>
       <c r="G110" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H110" t="s">
         <v>404</v>
@@ -4483,7 +4484,7 @@
         <v>232</v>
       </c>
       <c r="D111">
-        <v>2.002564</v>
+        <v>2.831348</v>
       </c>
       <c r="E111" t="s">
         <v>352</v>
@@ -4492,7 +4493,7 @@
         <v>392</v>
       </c>
       <c r="G111" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H111" t="s">
         <v>404</v>
@@ -4509,7 +4510,7 @@
         <v>233</v>
       </c>
       <c r="D112">
-        <v>2.018567</v>
+        <v>2.418868</v>
       </c>
       <c r="E112" t="s">
         <v>353</v>
@@ -4518,7 +4519,7 @@
         <v>393</v>
       </c>
       <c r="G112" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="H112" t="s">
         <v>404</v>
@@ -4535,16 +4536,16 @@
         <v>234</v>
       </c>
       <c r="D113">
-        <v>2.097476</v>
+        <v>2.404389</v>
       </c>
       <c r="E113" t="s">
         <v>354</v>
       </c>
       <c r="F113" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G113" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="H113" t="s">
         <v>404</v>
@@ -4561,7 +4562,7 @@
         <v>235</v>
       </c>
       <c r="D114">
-        <v>2.022961</v>
+        <v>2.018567</v>
       </c>
       <c r="E114" t="s">
         <v>355</v>
@@ -4587,7 +4588,7 @@
         <v>236</v>
       </c>
       <c r="D115">
-        <v>2.726875</v>
+        <v>3.025857</v>
       </c>
       <c r="E115" t="s">
         <v>356</v>
@@ -4596,7 +4597,7 @@
         <v>395</v>
       </c>
       <c r="G115" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H115" t="s">
         <v>404</v>
@@ -4613,16 +4614,16 @@
         <v>237</v>
       </c>
       <c r="D116">
-        <v>2.536991</v>
+        <v>1.601246</v>
       </c>
       <c r="E116" t="s">
         <v>357</v>
       </c>
       <c r="F116" t="s">
+        <v>395</v>
+      </c>
+      <c r="G116" t="s">
         <v>396</v>
-      </c>
-      <c r="G116" t="s">
-        <v>389</v>
       </c>
       <c r="H116" t="s">
         <v>404</v>
@@ -4639,7 +4640,7 @@
         <v>238</v>
       </c>
       <c r="D117">
-        <v>2.663855</v>
+        <v>2.110938</v>
       </c>
       <c r="E117" t="s">
         <v>358</v>
@@ -4648,7 +4649,7 @@
         <v>396</v>
       </c>
       <c r="G117" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H117" t="s">
         <v>404</v>
@@ -4665,7 +4666,7 @@
         <v>239</v>
       </c>
       <c r="D118">
-        <v>3.393189</v>
+        <v>2.726875</v>
       </c>
       <c r="E118" t="s">
         <v>359</v>
@@ -4691,16 +4692,16 @@
         <v>240</v>
       </c>
       <c r="D119">
-        <v>3.056436</v>
+        <v>3.517685</v>
       </c>
       <c r="E119" t="s">
         <v>360</v>
       </c>
       <c r="F119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G119" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="H119" t="s">
         <v>404</v>
@@ -4717,7 +4718,7 @@
         <v>241</v>
       </c>
       <c r="D120">
-        <v>2.736333</v>
+        <v>3.674751</v>
       </c>
       <c r="E120" t="s">
         <v>361</v>
@@ -4726,7 +4727,7 @@
         <v>398</v>
       </c>
       <c r="G120" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H120" t="s">
         <v>404</v>
@@ -4743,7 +4744,7 @@
         <v>242</v>
       </c>
       <c r="D121">
-        <v>2.366993</v>
+        <v>3.17476</v>
       </c>
       <c r="E121" t="s">
         <v>362</v>
@@ -4752,7 +4753,7 @@
         <v>398</v>
       </c>
       <c r="G121" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H121" t="s">
         <v>404</v>
@@ -4769,7 +4770,7 @@
         <v>243</v>
       </c>
       <c r="D122">
-        <v>3.307419</v>
+        <v>3.603909</v>
       </c>
       <c r="E122" t="s">
         <v>363</v>
@@ -4778,7 +4779,7 @@
         <v>398</v>
       </c>
       <c r="G122" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H122" t="s">
         <v>404</v>
@@ -4795,7 +4796,7 @@
         <v>244</v>
       </c>
       <c r="D123">
-        <v>3.306954</v>
+        <v>2.790032</v>
       </c>
       <c r="E123" t="s">
         <v>364</v>
@@ -4804,7 +4805,7 @@
         <v>398</v>
       </c>
       <c r="G123" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H123" t="s">
         <v>404</v>
@@ -4821,7 +4822,7 @@
         <v>245</v>
       </c>
       <c r="D124">
-        <v>3.673422</v>
+        <v>2.636977</v>
       </c>
       <c r="E124" t="s">
         <v>365</v>
@@ -4830,7 +4831,7 @@
         <v>398</v>
       </c>
       <c r="G124" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H124" t="s">
         <v>404</v>
@@ -4847,7 +4848,7 @@
         <v>246</v>
       </c>
       <c r="D125">
-        <v>3.846284</v>
+        <v>3.517799</v>
       </c>
       <c r="E125" t="s">
         <v>366</v>
@@ -4856,7 +4857,7 @@
         <v>398</v>
       </c>
       <c r="G125" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H125" t="s">
         <v>404</v>
@@ -4873,7 +4874,7 @@
         <v>247</v>
       </c>
       <c r="D126">
-        <v>3.918065</v>
+        <v>3.25768</v>
       </c>
       <c r="E126" t="s">
         <v>367</v>
@@ -4882,7 +4883,7 @@
         <v>398</v>
       </c>
       <c r="G126" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H126" t="s">
         <v>404</v>

--- a/output/BOOSTresult.xlsx
+++ b/output/BOOSTresult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="406">
   <si>
     <t>姓名</t>
   </si>
@@ -37,6 +37,213 @@
     <t>答辩老师</t>
   </si>
   <si>
+    <t>陈晓彬</t>
+  </si>
+  <si>
+    <t>黄聿镔</t>
+  </si>
+  <si>
+    <t>黄培鑫</t>
+  </si>
+  <si>
+    <t>苏韫月</t>
+  </si>
+  <si>
+    <t>王全炯</t>
+  </si>
+  <si>
+    <t>李彩贞</t>
+  </si>
+  <si>
+    <t>程晓宏</t>
+  </si>
+  <si>
+    <t>叶一帆</t>
+  </si>
+  <si>
+    <t>吴志鸿</t>
+  </si>
+  <si>
+    <t>陈志炜</t>
+  </si>
+  <si>
+    <t>陈泽钜</t>
+  </si>
+  <si>
+    <t>陈远根</t>
+  </si>
+  <si>
+    <t>何宇恒</t>
+  </si>
+  <si>
+    <t>黄洪文</t>
+  </si>
+  <si>
+    <t>陈玉婷</t>
+  </si>
+  <si>
+    <t>吴嘉蕊</t>
+  </si>
+  <si>
+    <t>陈艺芬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>林雅静</t>
+  </si>
+  <si>
+    <t>邓沁兰</t>
+  </si>
+  <si>
+    <t>陈少捷</t>
+  </si>
+  <si>
+    <t>钱若杨</t>
+  </si>
+  <si>
+    <t>尤庆源</t>
+  </si>
+  <si>
+    <t>郑莹</t>
+  </si>
+  <si>
+    <t>甘伟坤</t>
+  </si>
+  <si>
+    <t>胡继文</t>
+  </si>
+  <si>
+    <t>陈思龙</t>
+  </si>
+  <si>
+    <t>包斌虎</t>
+  </si>
+  <si>
+    <t>刘嗣林</t>
+  </si>
+  <si>
+    <t>林颜锡</t>
+  </si>
+  <si>
+    <t>庄怡静</t>
+  </si>
+  <si>
+    <t>赵畅</t>
+  </si>
+  <si>
+    <t>周政演</t>
+  </si>
+  <si>
+    <t>刘宏岩</t>
+  </si>
+  <si>
+    <t>陈俞辛</t>
+  </si>
+  <si>
+    <t>杨月琪</t>
+  </si>
+  <si>
+    <t>王之杰</t>
+  </si>
+  <si>
+    <t>张俊耀</t>
+  </si>
+  <si>
+    <t>林世杰</t>
+  </si>
+  <si>
+    <t>傅滨</t>
+  </si>
+  <si>
+    <t>林志华</t>
+  </si>
+  <si>
+    <t>王宇鹏</t>
+  </si>
+  <si>
+    <t>陈欣</t>
+  </si>
+  <si>
+    <t>刘浩</t>
+  </si>
+  <si>
+    <t>卢泽明</t>
+  </si>
+  <si>
+    <t>陈文垚</t>
+  </si>
+  <si>
+    <t>黄靖茹</t>
+  </si>
+  <si>
+    <t>庄卉</t>
+  </si>
+  <si>
+    <t>张扬</t>
+  </si>
+  <si>
+    <t>伊碧霞</t>
+  </si>
+  <si>
+    <t>王柯鑫</t>
+  </si>
+  <si>
+    <t>张小强</t>
+  </si>
+  <si>
+    <t>林伟嘉</t>
+  </si>
+  <si>
+    <t>郑孔宇</t>
+  </si>
+  <si>
+    <t>陈朗</t>
+  </si>
+  <si>
+    <t>陈韬宇</t>
+  </si>
+  <si>
+    <t>陈浩</t>
+  </si>
+  <si>
+    <t>许舒玲</t>
+  </si>
+  <si>
+    <t>缪欣</t>
+  </si>
+  <si>
+    <t>陈柏涛</t>
+  </si>
+  <si>
+    <t>章邴瀚</t>
+  </si>
+  <si>
+    <t>李琦</t>
+  </si>
+  <si>
+    <t>王彬</t>
+  </si>
+  <si>
+    <t>吴佳炜</t>
+  </si>
+  <si>
+    <t>蔡宇航</t>
+  </si>
+  <si>
+    <t>赵艳姣</t>
+  </si>
+  <si>
+    <t>陈慧琳</t>
+  </si>
+  <si>
+    <t>林子青</t>
+  </si>
+  <si>
+    <t>黄伟达</t>
+  </si>
+  <si>
     <t>王玙</t>
   </si>
   <si>
@@ -46,25 +253,82 @@
     <t>岳冠宇</t>
   </si>
   <si>
-    <t>程晓宏</t>
-  </si>
-  <si>
-    <t>叶一帆</t>
-  </si>
-  <si>
-    <t>吴志鸿</t>
-  </si>
-  <si>
-    <t>陈志炜</t>
-  </si>
-  <si>
-    <t>陈泽钜</t>
-  </si>
-  <si>
-    <t>陈远根</t>
-  </si>
-  <si>
-    <t>何宇恒</t>
+    <t>郑建禹</t>
+  </si>
+  <si>
+    <t>李恒达</t>
+  </si>
+  <si>
+    <t>廖钰萍</t>
+  </si>
+  <si>
+    <t>刘丽珍</t>
+  </si>
+  <si>
+    <t>黄禄松</t>
+  </si>
+  <si>
+    <t>吴竞凯</t>
+  </si>
+  <si>
+    <t>钟林泱</t>
+  </si>
+  <si>
+    <t>陈璟</t>
+  </si>
+  <si>
+    <t>佘岳昕</t>
+  </si>
+  <si>
+    <t>王源</t>
+  </si>
+  <si>
+    <t>许文霖</t>
+  </si>
+  <si>
+    <t>胡青元</t>
+  </si>
+  <si>
+    <t>邓明锴</t>
+  </si>
+  <si>
+    <t>黄志铭</t>
+  </si>
+  <si>
+    <t>陈顺兴</t>
+  </si>
+  <si>
+    <t>李凌凯</t>
+  </si>
+  <si>
+    <t>吕振威</t>
+  </si>
+  <si>
+    <t>蓝梦婕</t>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>郑钧兰</t>
+  </si>
+  <si>
+    <t>黄毓明</t>
+  </si>
+  <si>
+    <t>魏璐炜</t>
+  </si>
+  <si>
+    <t>黄家雄</t>
+  </si>
+  <si>
+    <t>陈国才</t>
+  </si>
+  <si>
+    <t>陈景荣</t>
+  </si>
+  <si>
+    <t>杨欣</t>
   </si>
   <si>
     <t>郑愈明</t>
@@ -82,31 +346,7 @@
     <t>邱润</t>
   </si>
   <si>
-    <t>郑建禹</t>
-  </si>
-  <si>
-    <t>李恒达</t>
-  </si>
-  <si>
-    <t>廖钰萍</t>
-  </si>
-  <si>
-    <t>刘丽珍</t>
-  </si>
-  <si>
-    <t>黄禄松</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>杨月琪</t>
-  </si>
-  <si>
-    <t>王之杰</t>
-  </si>
-  <si>
-    <t>张俊耀</t>
+    <t>陈芳</t>
   </si>
   <si>
     <t>张安仲</t>
@@ -115,16 +355,28 @@
     <t>蔡正浩</t>
   </si>
   <si>
-    <t>陈朗</t>
-  </si>
-  <si>
-    <t>陈韬宇</t>
-  </si>
-  <si>
-    <t>陈浩</t>
-  </si>
-  <si>
-    <t>许舒玲</t>
+    <t>袁玉珍</t>
+  </si>
+  <si>
+    <t>丁水源</t>
+  </si>
+  <si>
+    <t>张周伟</t>
+  </si>
+  <si>
+    <t>赵子铮</t>
+  </si>
+  <si>
+    <t>朱志豪</t>
+  </si>
+  <si>
+    <t>何家伟</t>
+  </si>
+  <si>
+    <t>张恩赐</t>
+  </si>
+  <si>
+    <t>郑智文</t>
   </si>
   <si>
     <t>陈伟杰</t>
@@ -142,262 +394,214 @@
     <t>洪泽波</t>
   </si>
   <si>
-    <t>林世杰</t>
-  </si>
-  <si>
-    <t>傅滨</t>
-  </si>
-  <si>
-    <t>林志华</t>
-  </si>
-  <si>
-    <t>王宇鹏</t>
-  </si>
-  <si>
-    <t>陈欣</t>
-  </si>
-  <si>
-    <t>林雅静</t>
-  </si>
-  <si>
-    <t>包斌虎</t>
-  </si>
-  <si>
-    <t>刘嗣林</t>
-  </si>
-  <si>
-    <t>林颜锡</t>
-  </si>
-  <si>
-    <t>庄怡静</t>
-  </si>
-  <si>
-    <t>赵畅</t>
-  </si>
-  <si>
-    <t>周政演</t>
-  </si>
-  <si>
-    <t>刘宏岩</t>
-  </si>
-  <si>
-    <t>陈俞辛</t>
-  </si>
-  <si>
-    <t>陈晓彬</t>
-  </si>
-  <si>
-    <t>黄聿镔</t>
-  </si>
-  <si>
-    <t>黄培鑫</t>
-  </si>
-  <si>
-    <t>苏韫月</t>
-  </si>
-  <si>
-    <t>王全炯</t>
-  </si>
-  <si>
-    <t>李彩贞</t>
-  </si>
-  <si>
-    <t>吕振威</t>
-  </si>
-  <si>
-    <t>蓝梦婕</t>
-  </si>
-  <si>
-    <t>王伟</t>
-  </si>
-  <si>
-    <t>郑钧兰</t>
-  </si>
-  <si>
-    <t>黄毓明</t>
-  </si>
-  <si>
-    <t>魏璐炜</t>
-  </si>
-  <si>
-    <t>吴竞凯</t>
-  </si>
-  <si>
-    <t>钟林泱</t>
-  </si>
-  <si>
-    <t>陈璟</t>
-  </si>
-  <si>
-    <t>佘岳昕</t>
-  </si>
-  <si>
-    <t>王源</t>
-  </si>
-  <si>
-    <t>许文霖</t>
-  </si>
-  <si>
-    <t>郑莹</t>
-  </si>
-  <si>
-    <t>甘伟坤</t>
-  </si>
-  <si>
-    <t>胡继文</t>
-  </si>
-  <si>
-    <t>陈思龙</t>
-  </si>
-  <si>
-    <t>邓沁兰</t>
-  </si>
-  <si>
-    <t>陈少捷</t>
-  </si>
-  <si>
-    <t>钱若杨</t>
-  </si>
-  <si>
-    <t>尤庆源</t>
-  </si>
-  <si>
-    <t>林伟嘉</t>
-  </si>
-  <si>
-    <t>郑孔宇</t>
-  </si>
-  <si>
-    <t>黄洪文</t>
-  </si>
-  <si>
-    <t>陈玉婷</t>
-  </si>
-  <si>
-    <t>吴嘉蕊</t>
-  </si>
-  <si>
-    <t>陈艺芬</t>
-  </si>
-  <si>
-    <t>刘浩</t>
-  </si>
-  <si>
-    <t>卢泽明</t>
-  </si>
-  <si>
-    <t>陈文垚</t>
-  </si>
-  <si>
-    <t>黄靖茹</t>
-  </si>
-  <si>
-    <t>庄卉</t>
-  </si>
-  <si>
-    <t>张扬</t>
-  </si>
-  <si>
-    <t>伊碧霞</t>
-  </si>
-  <si>
-    <t>丁水源</t>
-  </si>
-  <si>
-    <t>张周伟</t>
-  </si>
-  <si>
-    <t>赵子铮</t>
-  </si>
-  <si>
-    <t>朱志豪</t>
-  </si>
-  <si>
-    <t>何家伟</t>
-  </si>
-  <si>
-    <t>张恩赐</t>
-  </si>
-  <si>
-    <t>郑智文</t>
-  </si>
-  <si>
-    <t>王柯鑫</t>
-  </si>
-  <si>
-    <t>张小强</t>
-  </si>
-  <si>
-    <t>陈芳</t>
-  </si>
-  <si>
-    <t>黄家雄</t>
-  </si>
-  <si>
-    <t>陈国才</t>
-  </si>
-  <si>
-    <t>陈景荣</t>
-  </si>
-  <si>
-    <t>陈顺兴</t>
-  </si>
-  <si>
-    <t>李凌凯</t>
-  </si>
-  <si>
-    <t>陈慧琳</t>
-  </si>
-  <si>
-    <t>林子青</t>
-  </si>
-  <si>
-    <t>黄伟达</t>
-  </si>
-  <si>
     <t>邱怡琳</t>
   </si>
   <si>
     <t>陈诗</t>
   </si>
   <si>
-    <t>袁玉珍</t>
-  </si>
-  <si>
-    <t>胡青元</t>
-  </si>
-  <si>
-    <t>邓明锴</t>
-  </si>
-  <si>
-    <t>杨欣</t>
-  </si>
-  <si>
-    <t>黄志铭</t>
-  </si>
-  <si>
-    <t>缪欣</t>
-  </si>
-  <si>
-    <t>陈柏涛</t>
-  </si>
-  <si>
-    <t>章邴瀚</t>
-  </si>
-  <si>
-    <t>李琦</t>
-  </si>
-  <si>
-    <t>王彬</t>
-  </si>
-  <si>
-    <t>吴佳炜</t>
-  </si>
-  <si>
-    <t>蔡宇航</t>
-  </si>
-  <si>
-    <t>赵艳姣</t>
+    <t>031602404</t>
+  </si>
+  <si>
+    <t>031602218</t>
+  </si>
+  <si>
+    <t>031602217</t>
+  </si>
+  <si>
+    <t>031602631</t>
+  </si>
+  <si>
+    <t>031602331</t>
+  </si>
+  <si>
+    <t>031602417</t>
+  </si>
+  <si>
+    <t>031602406</t>
+  </si>
+  <si>
+    <t>031602438</t>
+  </si>
+  <si>
+    <t>031602634</t>
+  </si>
+  <si>
+    <t>031602209</t>
+  </si>
+  <si>
+    <t>031602611</t>
+  </si>
+  <si>
+    <t>031602610</t>
+  </si>
+  <si>
+    <t>031602113</t>
+  </si>
+  <si>
+    <t>031602619</t>
+  </si>
+  <si>
+    <t>031602307</t>
+  </si>
+  <si>
+    <t>031602532</t>
+  </si>
+  <si>
+    <t>031602405</t>
+  </si>
+  <si>
+    <t>031602227</t>
+  </si>
+  <si>
+    <t>031602309</t>
+  </si>
+  <si>
+    <t>031602205</t>
+  </si>
+  <si>
+    <t>031602527</t>
+  </si>
+  <si>
+    <t>031602143</t>
+  </si>
+  <si>
+    <t>031602642</t>
+  </si>
+  <si>
+    <t>031602310</t>
+  </si>
+  <si>
+    <t>031602512</t>
+  </si>
+  <si>
+    <t>031602607</t>
+  </si>
+  <si>
+    <t>031502301</t>
+  </si>
+  <si>
+    <t>031602327</t>
+  </si>
+  <si>
+    <t>031602326</t>
+  </si>
+  <si>
+    <t>031602544</t>
+  </si>
+  <si>
+    <t>111500206</t>
+  </si>
+  <si>
+    <t>031602543</t>
+  </si>
+  <si>
+    <t>031602523</t>
+  </si>
+  <si>
+    <t>031602507</t>
+  </si>
+  <si>
+    <t>031602437</t>
+  </si>
+  <si>
+    <t>031602531</t>
+  </si>
+  <si>
+    <t>131601154</t>
+  </si>
+  <si>
+    <t>031602421</t>
+  </si>
+  <si>
+    <t>081600107</t>
+  </si>
+  <si>
+    <t>031602128</t>
+  </si>
+  <si>
+    <t>031602333</t>
+  </si>
+  <si>
+    <t>031602506</t>
+  </si>
+  <si>
+    <t>031602423</t>
+  </si>
+  <si>
+    <t>031602328</t>
+  </si>
+  <si>
+    <t>031602206</t>
+  </si>
+  <si>
+    <t>031602315</t>
+  </si>
+  <si>
+    <t>031602444</t>
+  </si>
+  <si>
+    <t>031602345</t>
+  </si>
+  <si>
+    <t>031602341</t>
+  </si>
+  <si>
+    <t>031602530</t>
+  </si>
+  <si>
+    <t>031602245</t>
+  </si>
+  <si>
+    <t>031602624</t>
+  </si>
+  <si>
+    <t>031602442</t>
+  </si>
+  <si>
+    <t>031602606</t>
+  </si>
+  <si>
+    <t>031602608</t>
+  </si>
+  <si>
+    <t>031602605</t>
+  </si>
+  <si>
+    <t>031602636</t>
+  </si>
+  <si>
+    <t>031602630</t>
+  </si>
+  <si>
+    <t>031602502</t>
+  </si>
+  <si>
+    <t>031602541</t>
+  </si>
+  <si>
+    <t>031602620</t>
+  </si>
+  <si>
+    <t>051501124</t>
+  </si>
+  <si>
+    <t>031502531</t>
+  </si>
+  <si>
+    <t>031602501</t>
+  </si>
+  <si>
+    <t>131601249</t>
+  </si>
+  <si>
+    <t>031602105</t>
+  </si>
+  <si>
+    <t>031602228</t>
+  </si>
+  <si>
+    <t>031602412</t>
   </si>
   <si>
     <t>031602235</t>
@@ -409,25 +613,82 @@
     <t>051601135</t>
   </si>
   <si>
-    <t>031602406</t>
-  </si>
-  <si>
-    <t>031602438</t>
-  </si>
-  <si>
-    <t>031602634</t>
-  </si>
-  <si>
-    <t>031602209</t>
-  </si>
-  <si>
-    <t>031602611</t>
-  </si>
-  <si>
-    <t>031602610</t>
-  </si>
-  <si>
-    <t>031602113</t>
+    <t>031602246</t>
+  </si>
+  <si>
+    <t>031602320</t>
+  </si>
+  <si>
+    <t>031602323</t>
+  </si>
+  <si>
+    <t>131601225</t>
+  </si>
+  <si>
+    <t>181600112</t>
+  </si>
+  <si>
+    <t>031602137</t>
+  </si>
+  <si>
+    <t>081600143</t>
+  </si>
+  <si>
+    <t>031602402</t>
+  </si>
+  <si>
+    <t>031602131</t>
+  </si>
+  <si>
+    <t>031602431</t>
+  </si>
+  <si>
+    <t>031602140</t>
+  </si>
+  <si>
+    <t>081600410</t>
+  </si>
+  <si>
+    <t>031602210</t>
+  </si>
+  <si>
+    <t>031601123</t>
+  </si>
+  <si>
+    <t>031602505</t>
+  </si>
+  <si>
+    <t>111600112</t>
+  </si>
+  <si>
+    <t>031602425</t>
+  </si>
+  <si>
+    <t>031602415</t>
+  </si>
+  <si>
+    <t>031602332</t>
+  </si>
+  <si>
+    <t>031602247</t>
+  </si>
+  <si>
+    <t>041602209</t>
+  </si>
+  <si>
+    <t>031602136</t>
+  </si>
+  <si>
+    <t>031602115</t>
+  </si>
+  <si>
+    <t>031602302</t>
+  </si>
+  <si>
+    <t>031602303</t>
+  </si>
+  <si>
+    <t>031602242</t>
   </si>
   <si>
     <t>031602147</t>
@@ -445,28 +706,7 @@
     <t>051601414</t>
   </si>
   <si>
-    <t>031602246</t>
-  </si>
-  <si>
-    <t>031602320</t>
-  </si>
-  <si>
-    <t>031602323</t>
-  </si>
-  <si>
-    <t>131601225</t>
-  </si>
-  <si>
-    <t>181600112</t>
-  </si>
-  <si>
-    <t>031602437</t>
-  </si>
-  <si>
-    <t>031602531</t>
-  </si>
-  <si>
-    <t>131601154</t>
+    <t>031602203</t>
   </si>
   <si>
     <t>181600235</t>
@@ -475,16 +715,28 @@
     <t>031502103</t>
   </si>
   <si>
-    <t>031602606</t>
-  </si>
-  <si>
-    <t>031602608</t>
-  </si>
-  <si>
-    <t>031602605</t>
-  </si>
-  <si>
-    <t>031602636</t>
+    <t>031602538</t>
+  </si>
+  <si>
+    <t>041602204</t>
+  </si>
+  <si>
+    <t>041602630</t>
+  </si>
+  <si>
+    <t>031602146</t>
+  </si>
+  <si>
+    <t>031601232</t>
+  </si>
+  <si>
+    <t>031602511</t>
+  </si>
+  <si>
+    <t>031602144</t>
+  </si>
+  <si>
+    <t>031602248</t>
   </si>
   <si>
     <t>031502607</t>
@@ -502,262 +754,214 @@
     <t>031602312</t>
   </si>
   <si>
-    <t>031602421</t>
-  </si>
-  <si>
-    <t>081600107</t>
-  </si>
-  <si>
-    <t>031602128</t>
-  </si>
-  <si>
-    <t>031602333</t>
-  </si>
-  <si>
-    <t>031602506</t>
-  </si>
-  <si>
-    <t>031602227</t>
-  </si>
-  <si>
-    <t>031502301</t>
-  </si>
-  <si>
-    <t>031602327</t>
-  </si>
-  <si>
-    <t>031602326</t>
-  </si>
-  <si>
-    <t>031602544</t>
-  </si>
-  <si>
-    <t>111500206</t>
-  </si>
-  <si>
-    <t>031602543</t>
-  </si>
-  <si>
-    <t>031602523</t>
-  </si>
-  <si>
-    <t>031602507</t>
-  </si>
-  <si>
-    <t>031602404</t>
-  </si>
-  <si>
-    <t>031602218</t>
-  </si>
-  <si>
-    <t>031602217</t>
-  </si>
-  <si>
-    <t>031602631</t>
-  </si>
-  <si>
-    <t>031602331</t>
-  </si>
-  <si>
-    <t>031602417</t>
-  </si>
-  <si>
-    <t>031602425</t>
-  </si>
-  <si>
-    <t>031602415</t>
-  </si>
-  <si>
-    <t>031602332</t>
-  </si>
-  <si>
-    <t>031602247</t>
-  </si>
-  <si>
-    <t>041602209</t>
-  </si>
-  <si>
-    <t>031602136</t>
-  </si>
-  <si>
-    <t>031602137</t>
-  </si>
-  <si>
-    <t>081600143</t>
-  </si>
-  <si>
-    <t>031602402</t>
-  </si>
-  <si>
-    <t>031602131</t>
-  </si>
-  <si>
-    <t>031602431</t>
-  </si>
-  <si>
-    <t>031602140</t>
-  </si>
-  <si>
-    <t>031602642</t>
-  </si>
-  <si>
-    <t>031602310</t>
-  </si>
-  <si>
-    <t>031602512</t>
-  </si>
-  <si>
-    <t>031602607</t>
-  </si>
-  <si>
-    <t>031602309</t>
-  </si>
-  <si>
-    <t>031602205</t>
-  </si>
-  <si>
-    <t>031602527</t>
-  </si>
-  <si>
-    <t>031602143</t>
-  </si>
-  <si>
-    <t>031602624</t>
-  </si>
-  <si>
-    <t>031602442</t>
-  </si>
-  <si>
-    <t>031602619</t>
-  </si>
-  <si>
-    <t>031602307</t>
-  </si>
-  <si>
-    <t>031602532</t>
-  </si>
-  <si>
-    <t>031602405</t>
-  </si>
-  <si>
-    <t>031602423</t>
-  </si>
-  <si>
-    <t>031602328</t>
-  </si>
-  <si>
-    <t>031602206</t>
-  </si>
-  <si>
-    <t>031602315</t>
-  </si>
-  <si>
-    <t>031602444</t>
-  </si>
-  <si>
-    <t>031602345</t>
-  </si>
-  <si>
-    <t>031602341</t>
-  </si>
-  <si>
-    <t>041602204</t>
-  </si>
-  <si>
-    <t>041602630</t>
-  </si>
-  <si>
-    <t>031602146</t>
-  </si>
-  <si>
-    <t>031601232</t>
-  </si>
-  <si>
-    <t>031602511</t>
-  </si>
-  <si>
-    <t>031602144</t>
-  </si>
-  <si>
-    <t>031602248</t>
-  </si>
-  <si>
-    <t>031602530</t>
-  </si>
-  <si>
-    <t>031602245</t>
-  </si>
-  <si>
-    <t>031602203</t>
-  </si>
-  <si>
-    <t>031602115</t>
-  </si>
-  <si>
-    <t>031602302</t>
-  </si>
-  <si>
-    <t>031602303</t>
-  </si>
-  <si>
-    <t>031602505</t>
-  </si>
-  <si>
-    <t>111600112</t>
-  </si>
-  <si>
-    <t>031602105</t>
-  </si>
-  <si>
-    <t>031602228</t>
-  </si>
-  <si>
-    <t>031602412</t>
-  </si>
-  <si>
     <t>031602427</t>
   </si>
   <si>
     <t>031602403</t>
   </si>
   <si>
-    <t>031602538</t>
-  </si>
-  <si>
-    <t>081600410</t>
-  </si>
-  <si>
-    <t>031602210</t>
-  </si>
-  <si>
-    <t>031602242</t>
-  </si>
-  <si>
-    <t>031601123</t>
-  </si>
-  <si>
-    <t>031602630</t>
-  </si>
-  <si>
-    <t>031602502</t>
-  </si>
-  <si>
-    <t>031602541</t>
-  </si>
-  <si>
-    <t>031602620</t>
-  </si>
-  <si>
-    <t>051501124</t>
-  </si>
-  <si>
-    <t>031502531</t>
-  </si>
-  <si>
-    <t>031602501</t>
-  </si>
-  <si>
-    <t>131601249</t>
+    <t>基于数据挖掘的糖尿病预测模型</t>
+  </si>
+  <si>
+    <t>基于Spring MVC的大学生创业平台开发</t>
+  </si>
+  <si>
+    <t>基于Spring MVC的网上商城设计与开发</t>
+  </si>
+  <si>
+    <t>深度学习提取音乐特征在DeepFM音乐推荐算法中的效果增益</t>
+  </si>
+  <si>
+    <t>基于机器阅读理解的问答模型</t>
+  </si>
+  <si>
+    <t>基于Java Web的线上房屋智能匹配租赁管理系统</t>
+  </si>
+  <si>
+    <t>基于Go语言的权限管理系统</t>
+  </si>
+  <si>
+    <t>基于Vue的智能读书打卡系统</t>
+  </si>
+  <si>
+    <t>基于协同过滤的智能交友推荐系统</t>
+  </si>
+  <si>
+    <t>基于Transformer的短文本相似度匹配算法</t>
+  </si>
+  <si>
+    <t>非局部神经网络在图像降噪中的应用研究</t>
+  </si>
+  <si>
+    <t>基于android的征稿app的设计与实现</t>
+  </si>
+  <si>
+    <t>低秩稀疏分解在背景建模中的应用研究</t>
+  </si>
+  <si>
+    <t>基于SVM的航拍图像语义场景识别</t>
+  </si>
+  <si>
+    <t>基于特征抽取的图像艺术风格分类及实现</t>
+  </si>
+  <si>
+    <t>山水画布局标签图生成的聚类算法设计与实现</t>
+  </si>
+  <si>
+    <t>工笔画线条及超像素特征的计算与实现</t>
+  </si>
+  <si>
+    <t>基于springboot的点餐系统</t>
+  </si>
+  <si>
+    <t>国网电网项目中区域生态保护红线监测管理软件开发</t>
+  </si>
+  <si>
+    <t>基于卷积神经网络的视频烟雾检测</t>
+  </si>
+  <si>
+    <t>基于机器学习的降雨预报</t>
+  </si>
+  <si>
+    <t>基于视频图像的烟雾检测算法实现</t>
+  </si>
+  <si>
+    <t>基于unity 3D的击打小游戏开发</t>
+  </si>
+  <si>
+    <t>个性化图书推荐系统的设计与实现</t>
+  </si>
+  <si>
+    <t>预约停车收费微信小程序的设计与实现</t>
+  </si>
+  <si>
+    <t>基于深度神经网络的智能问答系统</t>
+  </si>
+  <si>
+    <t>基于机器学习的茶花品种分类识别</t>
+  </si>
+  <si>
+    <t>基于Cocos2d-x的智能策略牌类游戏</t>
+  </si>
+  <si>
+    <t>基于cocos2d-x的roguelike风格闯关类游戏</t>
+  </si>
+  <si>
+    <t>基于Unity3D的乙酰苯胺制备虚拟仿真实验软件</t>
+  </si>
+  <si>
+    <t>网络报文过滤器原理和机制研究</t>
+  </si>
+  <si>
+    <t>基于强化学习的网络流量异常检测系统</t>
+  </si>
+  <si>
+    <t>一种分布式可编程交换机资源扩容方法</t>
+  </si>
+  <si>
+    <t>基于SDN的网络功能服务链扩容算法研究</t>
+  </si>
+  <si>
+    <t>同步手绘板的设计与实现</t>
+  </si>
+  <si>
+    <t>跨平台文件快速传递应用的设计与实现</t>
+  </si>
+  <si>
+    <t>防疫地图与个人健康打卡微信小程序的设计与实现</t>
+  </si>
+  <si>
+    <t>基于机器学习的细粒度用户行为分析系统</t>
+  </si>
+  <si>
+    <t>基于Mask R-CNN算法的细胞实例分割</t>
+  </si>
+  <si>
+    <t>智慧教室学生状态检测系统</t>
+  </si>
+  <si>
+    <t>基于SVM和KNN算法的微博情绪识别</t>
+  </si>
+  <si>
+    <t>基于android的垃圾识别软件</t>
+  </si>
+  <si>
+    <t>基于计算机视觉的课堂学情分析系统</t>
+  </si>
+  <si>
+    <t>基于目标检测的课堂属性分析</t>
+  </si>
+  <si>
+    <t>监控场景下的异常着装检测</t>
+  </si>
+  <si>
+    <t>监控场景下基于yolo的火焰检测</t>
+  </si>
+  <si>
+    <t>基于图像分析的恶意代码检测</t>
+  </si>
+  <si>
+    <t>基于华为Kubeedge边缘计算系统的改进</t>
+  </si>
+  <si>
+    <t>密文域上的可逆数据隐藏系统</t>
+  </si>
+  <si>
+    <t>深度学习在电影个性化推荐模型中的应用研究</t>
+  </si>
+  <si>
+    <t>融合区块链技术公益平台网站的研发</t>
+  </si>
+  <si>
+    <t>基于深度学习的微博文本情感分析</t>
+  </si>
+  <si>
+    <t>基于Web的疫情信息系统</t>
+  </si>
+  <si>
+    <t>基于人脸识别的口罩佩戴检测系统</t>
+  </si>
+  <si>
+    <t>基于深度学习的交通标志识别</t>
+  </si>
+  <si>
+    <t>基于深度学习的人脸图像识别技术的研究</t>
+  </si>
+  <si>
+    <t>基于深度学习的文本情感分析的研究与实现</t>
+  </si>
+  <si>
+    <t>基于人体骨架的动作识别</t>
+  </si>
+  <si>
+    <t>基于深度学习的垃圾分类算法研究</t>
+  </si>
+  <si>
+    <t>基于SpringBoot和数据分析的进销存业务系统</t>
+  </si>
+  <si>
+    <t>基于对抗生成网络的局部图像融合</t>
+  </si>
+  <si>
+    <t>基于Unity引擎的移动端AR塔防游戏设计</t>
+  </si>
+  <si>
+    <t>基于JavaFX的可视化布局系统</t>
+  </si>
+  <si>
+    <t>细粒度车辆识别</t>
+  </si>
+  <si>
+    <t>基于深度学习的文字识别</t>
+  </si>
+  <si>
+    <t>基于微信小程序的文章分享系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于ARKit的增强现实模拟经营游戏设计与实现</t>
+  </si>
+  <si>
+    <t>基于微信小程序的文库系统的设计与前端开发</t>
   </si>
   <si>
     <t>代理商结算平台的设计与实现</t>
@@ -769,25 +973,82 @@
     <t>基于语义相似度算法的唐诗推荐安卓应用</t>
   </si>
   <si>
-    <t>基于Go语言的权限管理系统</t>
-  </si>
-  <si>
-    <t>基于Vue的智能读书打卡系统</t>
-  </si>
-  <si>
-    <t>基于协同过滤的智能交友推荐系统</t>
-  </si>
-  <si>
-    <t>基于Transformer的短文本相似度匹配算法</t>
-  </si>
-  <si>
-    <t>非局部神经网络在图像降噪中的应用研究</t>
-  </si>
-  <si>
-    <t>基于android的征稿app的设计与实现</t>
-  </si>
-  <si>
-    <t>低秩稀疏分解在背景建模中的应用研究</t>
+    <t>心电序列的分类分析</t>
+  </si>
+  <si>
+    <t>基于Android Studio的福大校园生活app开发</t>
+  </si>
+  <si>
+    <t>基于Unity引擎的游戏开发</t>
+  </si>
+  <si>
+    <t>平衡聚类算法的实现及其可视化</t>
+  </si>
+  <si>
+    <t>冰壶对抗仿真</t>
+  </si>
+  <si>
+    <t>基于胶囊网络的分类方法</t>
+  </si>
+  <si>
+    <t>基于点云的3D目标检测</t>
+  </si>
+  <si>
+    <t>基于注意力机制的细粒度分类方法</t>
+  </si>
+  <si>
+    <t>基于路径坐标优化的压缩感知重构算法</t>
+  </si>
+  <si>
+    <t>基于姿态分析和3D-CNN的视频行人重识别方法</t>
+  </si>
+  <si>
+    <t>基于矩阵L_2,0范数的特征选择方法</t>
+  </si>
+  <si>
+    <t>基于安卓的大学生家教平台</t>
+  </si>
+  <si>
+    <t>网上学习课堂的设计和实现</t>
+  </si>
+  <si>
+    <t>面向恶劣天气基于机器学习算法的交通信号灯识别方法研究</t>
+  </si>
+  <si>
+    <t>一类动态推荐算法的设计与应用</t>
+  </si>
+  <si>
+    <t>城市给水管网虚拟仿真与漏损识别系统</t>
+  </si>
+  <si>
+    <t>基于基站传感器的最优栅栏覆盖研究</t>
+  </si>
+  <si>
+    <t>现代芯片设计中的新布线问题研究</t>
+  </si>
+  <si>
+    <t>基于深度神经网络的用户流动监管系统</t>
+  </si>
+  <si>
+    <t>面向数据中心的实时资源调度</t>
+  </si>
+  <si>
+    <t>智能电网的需求响应管理</t>
+  </si>
+  <si>
+    <t>摄像网络中的目标覆盖研究</t>
+  </si>
+  <si>
+    <t>基于SSM的云打印系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于ssm的网上书店设计与实现</t>
+  </si>
+  <si>
+    <t>基于java的在线考试平台设计与实现</t>
+  </si>
+  <si>
+    <t>基于SSM框架的在线考试系统的设计与实现</t>
   </si>
   <si>
     <t>基于视差注意机制的立体图像颜色校正方法研究</t>
@@ -805,28 +1066,7 @@
     <t>基于OCR的身份证要素提取系统</t>
   </si>
   <si>
-    <t>心电序列的分类分析</t>
-  </si>
-  <si>
-    <t>基于Android Studio的福大校园生活app开发</t>
-  </si>
-  <si>
-    <t>基于Unity引擎的游戏开发</t>
-  </si>
-  <si>
-    <t>平衡聚类算法的实现及其可视化</t>
-  </si>
-  <si>
-    <t>冰壶对抗仿真</t>
-  </si>
-  <si>
-    <t>同步手绘板的设计与实现</t>
-  </si>
-  <si>
-    <t>跨平台文件快速传递应用的设计与实现</t>
-  </si>
-  <si>
-    <t>防疫地图与个人健康打卡微信小程序的设计与实现</t>
+    <t>基于Spring Boot的诗词问答APP设计与实现</t>
   </si>
   <si>
     <t>教师点名辅助系统</t>
@@ -835,16 +1075,28 @@
     <t>基于计算机视觉的高空抛物检测系统</t>
   </si>
   <si>
-    <t>基于人脸识别的口罩佩戴检测系统</t>
-  </si>
-  <si>
-    <t>基于深度学习的交通标志识别</t>
-  </si>
-  <si>
-    <t>基于深度学习的人脸图像识别技术的研究</t>
-  </si>
-  <si>
-    <t>基于深度学习的文本情感分析的研究与实现</t>
+    <t>基于spring boot的挂号管理系统的设计与实现</t>
+  </si>
+  <si>
+    <t>基于种子扩展的社区发现算法研究</t>
+  </si>
+  <si>
+    <t>面向大规模网络划分的图分割算法研究</t>
+  </si>
+  <si>
+    <t>面向属性网络的社区发现算法研究</t>
+  </si>
+  <si>
+    <t>基于社区嵌入的网络表示学习方法研究</t>
+  </si>
+  <si>
+    <t>基于LSM-Tree的分布式存储引擎研究</t>
+  </si>
+  <si>
+    <t>基于医疗知识图谱的问答系统</t>
+  </si>
+  <si>
+    <t>基于流计算的实时书籍推荐系统</t>
   </si>
   <si>
     <t>基于布线驱动的VLSI混合单元布局问题研究</t>
@@ -862,396 +1114,144 @@
     <t>基于深度学习的WIFI指纹室内定位算法研究</t>
   </si>
   <si>
-    <t>基于机器学习的细粒度用户行为分析系统</t>
-  </si>
-  <si>
-    <t>基于Mask R-CNN算法的细胞实例分割</t>
-  </si>
-  <si>
-    <t>智慧教室学生状态检测系统</t>
-  </si>
-  <si>
-    <t>基于SVM和KNN算法的微博情绪识别</t>
-  </si>
-  <si>
-    <t>基于android的垃圾识别软件</t>
-  </si>
-  <si>
-    <t>基于springboot的点餐系统</t>
-  </si>
-  <si>
-    <t>基于机器学习的茶花品种分类识别</t>
-  </si>
-  <si>
-    <t>基于Cocos2d-x的智能策略牌类游戏</t>
-  </si>
-  <si>
-    <t>基于cocos2d-x的roguelike风格闯关类游戏</t>
-  </si>
-  <si>
-    <t>基于Unity3D的乙酰苯胺制备虚拟仿真实验软件</t>
-  </si>
-  <si>
-    <t>网络报文过滤器原理和机制研究</t>
-  </si>
-  <si>
-    <t>基于强化学习的网络流量异常检测系统</t>
-  </si>
-  <si>
-    <t>一种分布式可编程交换机资源扩容方法</t>
-  </si>
-  <si>
-    <t>基于SDN的网络功能服务链扩容算法研究</t>
-  </si>
-  <si>
-    <t>基于数据挖掘的糖尿病预测模型</t>
-  </si>
-  <si>
-    <t>基于Spring MVC的大学生创业平台开发</t>
-  </si>
-  <si>
-    <t>基于Spring MVC的网上商城设计与开发</t>
-  </si>
-  <si>
-    <t>深度学习提取音乐特征在DeepFM音乐推荐算法中的效果增益</t>
-  </si>
-  <si>
-    <t>基于机器阅读理解的问答模型</t>
-  </si>
-  <si>
-    <t>基于Java Web的线上房屋智能匹配租赁管理系统</t>
-  </si>
-  <si>
-    <t>基于基站传感器的最优栅栏覆盖研究</t>
-  </si>
-  <si>
-    <t>现代芯片设计中的新布线问题研究</t>
-  </si>
-  <si>
-    <t>基于深度神经网络的用户流动监管系统</t>
-  </si>
-  <si>
-    <t>面向数据中心的实时资源调度</t>
-  </si>
-  <si>
-    <t>智能电网的需求响应管理</t>
-  </si>
-  <si>
-    <t>摄像网络中的目标覆盖研究</t>
-  </si>
-  <si>
-    <t>基于胶囊网络的分类方法</t>
-  </si>
-  <si>
-    <t>基于点云的3D目标检测</t>
-  </si>
-  <si>
-    <t>基于注意力机制的细粒度分类方法</t>
-  </si>
-  <si>
-    <t>基于路径坐标优化的压缩感知重构算法</t>
-  </si>
-  <si>
-    <t>基于姿态分析和3D-CNN的视频行人重识别方法</t>
-  </si>
-  <si>
-    <t>基于矩阵L_2,0范数的特征选择方法</t>
-  </si>
-  <si>
-    <t>基于unity 3D的击打小游戏开发</t>
-  </si>
-  <si>
-    <t>个性化图书推荐系统的设计与实现</t>
-  </si>
-  <si>
-    <t>预约停车收费微信小程序的设计与实现</t>
-  </si>
-  <si>
-    <t>基于深度神经网络的智能问答系统</t>
-  </si>
-  <si>
-    <t>国网电网项目中区域生态保护红线监测管理软件开发</t>
-  </si>
-  <si>
-    <t>基于卷积神经网络的视频烟雾检测</t>
-  </si>
-  <si>
-    <t>基于机器学习的降雨预报</t>
-  </si>
-  <si>
-    <t>基于视频图像的烟雾检测算法实现</t>
-  </si>
-  <si>
-    <t>基于深度学习的微博文本情感分析</t>
-  </si>
-  <si>
-    <t>基于Web的疫情信息系统</t>
-  </si>
-  <si>
-    <t>基于SVM的航拍图像语义场景识别</t>
-  </si>
-  <si>
-    <t>基于特征抽取的图像艺术风格分类及实现</t>
-  </si>
-  <si>
-    <t>山水画布局标签图生成的聚类算法设计与实现</t>
-  </si>
-  <si>
-    <t>工笔画线条及超像素特征的计算与实现</t>
-  </si>
-  <si>
-    <t>基于计算机视觉的课堂学情分析系统</t>
-  </si>
-  <si>
-    <t>基于目标检测的课堂属性分析</t>
-  </si>
-  <si>
-    <t>监控场景下的异常着装检测</t>
-  </si>
-  <si>
-    <t>监控场景下基于yolo的火焰检测</t>
-  </si>
-  <si>
-    <t>基于图像分析的恶意代码检测</t>
-  </si>
-  <si>
-    <t>基于华为Kubeedge边缘计算系统的改进</t>
-  </si>
-  <si>
-    <t>密文域上的可逆数据隐藏系统</t>
-  </si>
-  <si>
-    <t>基于种子扩展的社区发现算法研究</t>
-  </si>
-  <si>
-    <t>面向大规模网络划分的图分割算法研究</t>
-  </si>
-  <si>
-    <t>面向属性网络的社区发现算法研究</t>
-  </si>
-  <si>
-    <t>基于社区嵌入的网络表示学习方法研究</t>
-  </si>
-  <si>
-    <t>基于LSM-Tree的分布式存储引擎研究</t>
-  </si>
-  <si>
-    <t>基于医疗知识图谱的问答系统</t>
-  </si>
-  <si>
-    <t>基于流计算的实时书籍推荐系统</t>
-  </si>
-  <si>
-    <t>深度学习在电影个性化推荐模型中的应用研究</t>
-  </si>
-  <si>
-    <t>融合区块链技术公益平台网站的研发</t>
-  </si>
-  <si>
-    <t>基于Spring Boot的诗词问答APP设计与实现</t>
-  </si>
-  <si>
-    <t>基于SSM的云打印系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于ssm的网上书店设计与实现</t>
-  </si>
-  <si>
-    <t>基于java的在线考试平台设计与实现</t>
-  </si>
-  <si>
-    <t>一类动态推荐算法的设计与应用</t>
-  </si>
-  <si>
-    <t>城市给水管网虚拟仿真与漏损识别系统</t>
-  </si>
-  <si>
-    <t>基于微信小程序的文章分享系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于ARKit的增强现实模拟经营游戏设计与实现</t>
-  </si>
-  <si>
-    <t>基于微信小程序的文库系统的设计与前端开发</t>
-  </si>
-  <si>
     <t>基于RPGMaker MV开发的像素meta游戏</t>
   </si>
   <si>
     <t>基于SSM框架的博客系统</t>
   </si>
   <si>
-    <t>基于spring boot的挂号管理系统的设计与实现</t>
-  </si>
-  <si>
-    <t>基于安卓的大学生家教平台</t>
-  </si>
-  <si>
-    <t>网上学习课堂的设计和实现</t>
-  </si>
-  <si>
-    <t>基于SSM框架的在线考试系统的设计与实现</t>
-  </si>
-  <si>
-    <t>面向恶劣天气基于机器学习算法的交通信号灯识别方法研究</t>
-  </si>
-  <si>
-    <t>基于人体骨架的动作识别</t>
-  </si>
-  <si>
-    <t>基于深度学习的垃圾分类算法研究</t>
-  </si>
-  <si>
-    <t>基于SpringBoot和数据分析的进销存业务系统</t>
-  </si>
-  <si>
-    <t>基于对抗生成网络的局部图像融合</t>
-  </si>
-  <si>
-    <t>基于Unity引擎的移动端AR塔防游戏设计</t>
-  </si>
-  <si>
-    <t>基于JavaFX的可视化布局系统</t>
-  </si>
-  <si>
-    <t>细粒度车辆识别</t>
-  </si>
-  <si>
-    <t>基于深度学习的文字识别</t>
+    <t>白清源</t>
+  </si>
+  <si>
+    <t>苏雅茹</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
+    <t>余小燕</t>
+  </si>
+  <si>
+    <t>谢伙生</t>
+  </si>
+  <si>
+    <t>王秀</t>
+  </si>
+  <si>
+    <t>张栋</t>
+  </si>
+  <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>柯逍</t>
+  </si>
+  <si>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>吴运兵</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
+  </si>
+  <si>
+    <t>刘文犀</t>
+  </si>
+  <si>
+    <t>陈勃</t>
   </si>
   <si>
     <t>孙岚</t>
   </si>
   <si>
-    <t>苏雅茹</t>
+    <t>何振峰</t>
+  </si>
+  <si>
+    <t>于元隆</t>
+  </si>
+  <si>
+    <t>陈欢</t>
+  </si>
+  <si>
+    <t>程永利</t>
+  </si>
+  <si>
+    <t>叶东毅</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
+    <t>谢丽聪</t>
+  </si>
+  <si>
+    <t>韩晓芸</t>
   </si>
   <si>
     <t>牛玉贞</t>
   </si>
   <si>
-    <t>何振峰</t>
-  </si>
-  <si>
-    <t>余春艳</t>
+    <t>朱丹红</t>
   </si>
   <si>
     <t>阮一文</t>
   </si>
   <si>
-    <t>王一蕾</t>
+    <t>于志敏</t>
+  </si>
+  <si>
+    <t>郭昆</t>
   </si>
   <si>
     <t>傅仰耿</t>
   </si>
   <si>
-    <t>吴英杰</t>
-  </si>
-  <si>
-    <t>余小燕</t>
-  </si>
-  <si>
-    <t>张栋</t>
-  </si>
-  <si>
-    <t>白清源</t>
-  </si>
-  <si>
-    <t>郭龙坤</t>
-  </si>
-  <si>
-    <t>于元隆</t>
-  </si>
-  <si>
-    <t>王秀</t>
-  </si>
-  <si>
-    <t>谢伙生</t>
-  </si>
-  <si>
-    <t>吴运兵</t>
-  </si>
-  <si>
-    <t>陈昭炯</t>
-  </si>
-  <si>
-    <t>柯逍</t>
-  </si>
-  <si>
-    <t>郭昆</t>
-  </si>
-  <si>
-    <t>叶菁</t>
-  </si>
-  <si>
-    <t>朱丹红</t>
-  </si>
-  <si>
-    <t>谢丽聪</t>
-  </si>
-  <si>
-    <t>叶东毅</t>
-  </si>
-  <si>
-    <t>陈勃</t>
-  </si>
-  <si>
     <t>林秋月</t>
   </si>
   <si>
-    <t>于志敏</t>
-  </si>
-  <si>
-    <t>陈欢</t>
-  </si>
-  <si>
-    <t>韩晓芸</t>
-  </si>
-  <si>
-    <t>程永利</t>
-  </si>
-  <si>
-    <t>刘文犀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">谢丽聪,
-刘文犀,
-陈昭炯,
-林秋月,
+    <t xml:space="preserve">刘文犀,
+余春艳,
+谢丽聪,
 </t>
   </si>
   <si>
+    <t xml:space="preserve">傅仰耿,
+王一蕾,
+苏雅茹,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郭龙坤,
+陈勃,
+阮一文,
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">王秀,
+张栋,
+叶菁,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白清源,
+韩晓芸,
+于志敏,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙岚,
+陈欢,
+何振峰,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">程永利,
+柯逍,
 谢伙生,
-郭龙坤,
-朱丹红,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苏雅茹,
-何振峰,
-柯逍,
-韩晓芸,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王一蕾,
-傅仰耿,
-叶东毅,
-余春艳,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈勃,
-余小燕,
-孙岚,
-程永利,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">叶菁,
-阮一文,
-张栋,
-白清源,
 </t>
   </si>
 </sst>
@@ -1610,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,7 +1650,7 @@
         <v>128</v>
       </c>
       <c r="D2">
-        <v>3.516719</v>
+        <v>3.111726</v>
       </c>
       <c r="E2" t="s">
         <v>248</v>
@@ -1659,7 +1659,7 @@
         <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H2" t="s">
         <v>399</v>
@@ -1676,7 +1676,7 @@
         <v>129</v>
       </c>
       <c r="D3">
-        <v>3.140683</v>
+        <v>3.0081</v>
       </c>
       <c r="E3" t="s">
         <v>249</v>
@@ -1685,7 +1685,7 @@
         <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H3" t="s">
         <v>399</v>
@@ -1702,7 +1702,7 @@
         <v>130</v>
       </c>
       <c r="D4">
-        <v>2.002564</v>
+        <v>3.170779</v>
       </c>
       <c r="E4" t="s">
         <v>250</v>
@@ -1711,7 +1711,7 @@
         <v>368</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H4" t="s">
         <v>399</v>
@@ -1728,16 +1728,16 @@
         <v>131</v>
       </c>
       <c r="D5">
-        <v>3.157333</v>
+        <v>3.607492</v>
       </c>
       <c r="E5" t="s">
         <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="H5" t="s">
         <v>399</v>
@@ -1754,16 +1754,16 @@
         <v>132</v>
       </c>
       <c r="D6">
-        <v>2.525974</v>
+        <v>2.419536</v>
       </c>
       <c r="E6" t="s">
         <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G6" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="H6" t="s">
         <v>399</v>
@@ -1780,16 +1780,16 @@
         <v>133</v>
       </c>
       <c r="D7">
-        <v>2.873377</v>
+        <v>3.349843</v>
       </c>
       <c r="E7" t="s">
         <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
         <v>399</v>
@@ -1806,7 +1806,7 @@
         <v>134</v>
       </c>
       <c r="D8">
-        <v>2.429217</v>
+        <v>3.157333</v>
       </c>
       <c r="E8" t="s">
         <v>254</v>
@@ -1815,7 +1815,7 @@
         <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H8" t="s">
         <v>399</v>
@@ -1832,7 +1832,7 @@
         <v>135</v>
       </c>
       <c r="D9">
-        <v>2.831642</v>
+        <v>2.525974</v>
       </c>
       <c r="E9" t="s">
         <v>255</v>
@@ -1841,7 +1841,7 @@
         <v>369</v>
       </c>
       <c r="G9" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H9" t="s">
         <v>399</v>
@@ -1858,7 +1858,7 @@
         <v>136</v>
       </c>
       <c r="D10">
-        <v>3.023659</v>
+        <v>2.873377</v>
       </c>
       <c r="E10" t="s">
         <v>256</v>
@@ -1867,7 +1867,7 @@
         <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H10" t="s">
         <v>399</v>
@@ -1884,7 +1884,7 @@
         <v>137</v>
       </c>
       <c r="D11">
-        <v>2.24183</v>
+        <v>2.429217</v>
       </c>
       <c r="E11" t="s">
         <v>257</v>
@@ -1893,7 +1893,7 @@
         <v>369</v>
       </c>
       <c r="G11" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H11" t="s">
         <v>399</v>
@@ -1910,16 +1910,16 @@
         <v>138</v>
       </c>
       <c r="D12">
-        <v>3.61732</v>
+        <v>2.831642</v>
       </c>
       <c r="E12" t="s">
         <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H12" t="s">
         <v>399</v>
@@ -1936,16 +1936,16 @@
         <v>139</v>
       </c>
       <c r="D13">
-        <v>3.602326</v>
+        <v>3.023659</v>
       </c>
       <c r="E13" t="s">
         <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H13" t="s">
         <v>399</v>
@@ -1962,16 +1962,16 @@
         <v>140</v>
       </c>
       <c r="D14">
-        <v>3.190164</v>
+        <v>2.24183</v>
       </c>
       <c r="E14" t="s">
         <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H14" t="s">
         <v>399</v>
@@ -1988,7 +1988,7 @@
         <v>141</v>
       </c>
       <c r="D15">
-        <v>3.257516</v>
+        <v>2.067398</v>
       </c>
       <c r="E15" t="s">
         <v>261</v>
@@ -1997,7 +1997,7 @@
         <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H15" t="s">
         <v>399</v>
@@ -2014,7 +2014,7 @@
         <v>142</v>
       </c>
       <c r="D16">
-        <v>2.719745</v>
+        <v>3.200631</v>
       </c>
       <c r="E16" t="s">
         <v>262</v>
@@ -2023,7 +2023,7 @@
         <v>370</v>
       </c>
       <c r="G16" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H16" t="s">
         <v>399</v>
@@ -2040,16 +2040,16 @@
         <v>143</v>
       </c>
       <c r="D17">
-        <v>2.596942</v>
+        <v>1.861677</v>
       </c>
       <c r="E17" t="s">
         <v>263</v>
       </c>
       <c r="F17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G17" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H17" t="s">
         <v>399</v>
@@ -2066,16 +2066,16 @@
         <v>144</v>
       </c>
       <c r="D18">
-        <v>2.368807</v>
+        <v>2.866559</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H18" t="s">
         <v>399</v>
@@ -2089,22 +2089,22 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19">
-        <v>2.228664</v>
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>371</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>399</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2115,22 +2115,22 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20">
-        <v>2.417284</v>
+        <v>2.619934</v>
       </c>
       <c r="E20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
         <v>371</v>
       </c>
       <c r="G20" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2141,22 +2141,22 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21">
-        <v>3.12283</v>
+        <v>3.175478</v>
       </c>
       <c r="E21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G21" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="H21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2167,22 +2167,22 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="D22">
+        <v>3.394953</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>397</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2196,7 +2196,7 @@
         <v>148</v>
       </c>
       <c r="D23">
-        <v>2.188328</v>
+        <v>3.507237</v>
       </c>
       <c r="E23" t="s">
         <v>268</v>
@@ -2205,7 +2205,7 @@
         <v>372</v>
       </c>
       <c r="G23" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="H23" t="s">
         <v>400</v>
@@ -2222,7 +2222,7 @@
         <v>149</v>
       </c>
       <c r="D24">
-        <v>2.150459</v>
+        <v>3.367846</v>
       </c>
       <c r="E24" t="s">
         <v>269</v>
@@ -2231,7 +2231,7 @@
         <v>372</v>
       </c>
       <c r="G24" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="H24" t="s">
         <v>400</v>
@@ -2248,16 +2248,16 @@
         <v>150</v>
       </c>
       <c r="D25">
-        <v>2.563192</v>
+        <v>2.539498</v>
       </c>
       <c r="E25" t="s">
         <v>270</v>
       </c>
       <c r="F25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G25" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H25" t="s">
         <v>400</v>
@@ -2274,7 +2274,7 @@
         <v>151</v>
       </c>
       <c r="D26">
-        <v>2.771154</v>
+        <v>2.176687</v>
       </c>
       <c r="E26" t="s">
         <v>271</v>
@@ -2283,7 +2283,7 @@
         <v>373</v>
       </c>
       <c r="G26" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H26" t="s">
         <v>400</v>
@@ -2300,7 +2300,7 @@
         <v>152</v>
       </c>
       <c r="D27">
-        <v>1.83858</v>
+        <v>2.435347</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -2309,7 +2309,7 @@
         <v>373</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H27" t="s">
         <v>400</v>
@@ -2326,16 +2326,16 @@
         <v>153</v>
       </c>
       <c r="D28">
-        <v>2.883912</v>
+        <v>2.646885</v>
       </c>
       <c r="E28" t="s">
         <v>273</v>
       </c>
       <c r="F28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H28" t="s">
         <v>400</v>
@@ -2352,7 +2352,7 @@
         <v>154</v>
       </c>
       <c r="D29">
-        <v>2.200322</v>
+        <v>2.48065</v>
       </c>
       <c r="E29" t="s">
         <v>274</v>
@@ -2361,7 +2361,7 @@
         <v>374</v>
       </c>
       <c r="G29" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H29" t="s">
         <v>400</v>
@@ -2378,7 +2378,7 @@
         <v>155</v>
       </c>
       <c r="D30">
-        <v>3.349667</v>
+        <v>1.856677</v>
       </c>
       <c r="E30" t="s">
         <v>275</v>
@@ -2387,7 +2387,7 @@
         <v>374</v>
       </c>
       <c r="G30" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H30" t="s">
         <v>400</v>
@@ -2404,7 +2404,7 @@
         <v>156</v>
       </c>
       <c r="D31">
-        <v>3.351104</v>
+        <v>2.217325</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -2413,7 +2413,7 @@
         <v>374</v>
       </c>
       <c r="G31" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H31" t="s">
         <v>400</v>
@@ -2430,16 +2430,16 @@
         <v>157</v>
       </c>
       <c r="D32">
-        <v>3.796564</v>
+        <v>3.105643</v>
       </c>
       <c r="E32" t="s">
         <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G32" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H32" t="s">
         <v>400</v>
@@ -2456,16 +2456,16 @@
         <v>158</v>
       </c>
       <c r="D33">
-        <v>2.956563</v>
+        <v>2.942384</v>
       </c>
       <c r="E33" t="s">
         <v>278</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G33" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H33" t="s">
         <v>400</v>
@@ -2482,16 +2482,16 @@
         <v>159</v>
       </c>
       <c r="D34">
-        <v>4.000683</v>
+        <v>3.016835</v>
       </c>
       <c r="E34" t="s">
         <v>279</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G34" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H34" t="s">
         <v>400</v>
@@ -2508,16 +2508,16 @@
         <v>160</v>
       </c>
       <c r="D35">
-        <v>3.411613</v>
+        <v>3.892233</v>
       </c>
       <c r="E35" t="s">
         <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G35" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H35" t="s">
         <v>400</v>
@@ -2534,16 +2534,16 @@
         <v>161</v>
       </c>
       <c r="D36">
-        <v>3.003754</v>
+        <v>3.730645</v>
       </c>
       <c r="E36" t="s">
         <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="H36" t="s">
         <v>400</v>
@@ -2554,25 +2554,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37">
-        <v>3.062712</v>
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>376</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>380</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>400</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2580,25 +2580,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38">
-        <v>3.823843</v>
+        <v>2.188328</v>
       </c>
       <c r="E38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G38" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2606,25 +2606,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39">
-        <v>3.233677</v>
+        <v>2.150459</v>
       </c>
       <c r="E39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G39" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2632,25 +2632,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D40">
-        <v>2.112805</v>
+        <v>2.563192</v>
       </c>
       <c r="E40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H40" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2658,25 +2658,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41">
-        <v>3.457333</v>
+        <v>3.062712</v>
       </c>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F41" t="s">
         <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2684,25 +2684,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42">
-        <v>2.619934</v>
+        <v>3.823843</v>
       </c>
       <c r="E42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
         <v>389</v>
       </c>
       <c r="H42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2710,25 +2710,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
+        <v>167</v>
+      </c>
+      <c r="D43">
+        <v>3.233677</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>389</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2742,16 +2742,16 @@
         <v>168</v>
       </c>
       <c r="D44">
-        <v>2.48065</v>
+        <v>2.112805</v>
       </c>
       <c r="E44" t="s">
         <v>288</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G44" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="H44" t="s">
         <v>401</v>
@@ -2768,16 +2768,16 @@
         <v>169</v>
       </c>
       <c r="D45">
-        <v>1.856677</v>
+        <v>3.457333</v>
       </c>
       <c r="E45" t="s">
         <v>289</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G45" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="H45" t="s">
         <v>401</v>
@@ -2794,16 +2794,16 @@
         <v>170</v>
       </c>
       <c r="D46">
-        <v>2.217325</v>
+        <v>2.736333</v>
       </c>
       <c r="E46" t="s">
         <v>290</v>
       </c>
       <c r="F46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G46" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H46" t="s">
         <v>401</v>
@@ -2820,16 +2820,16 @@
         <v>171</v>
       </c>
       <c r="D47">
-        <v>3.105643</v>
+        <v>2.366993</v>
       </c>
       <c r="E47" t="s">
         <v>291</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G47" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H47" t="s">
         <v>401</v>
@@ -2846,16 +2846,16 @@
         <v>172</v>
       </c>
       <c r="D48">
-        <v>2.942384</v>
+        <v>3.307419</v>
       </c>
       <c r="E48" t="s">
         <v>292</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G48" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H48" t="s">
         <v>401</v>
@@ -2872,16 +2872,16 @@
         <v>173</v>
       </c>
       <c r="D49">
-        <v>3.016835</v>
+        <v>3.306954</v>
       </c>
       <c r="E49" t="s">
         <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G49" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H49" t="s">
         <v>401</v>
@@ -2898,16 +2898,16 @@
         <v>174</v>
       </c>
       <c r="D50">
-        <v>3.892233</v>
+        <v>3.673422</v>
       </c>
       <c r="E50" t="s">
         <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G50" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H50" t="s">
         <v>401</v>
@@ -2924,16 +2924,16 @@
         <v>175</v>
       </c>
       <c r="D51">
-        <v>3.730645</v>
+        <v>3.846284</v>
       </c>
       <c r="E51" t="s">
         <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G51" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="H51" t="s">
         <v>401</v>
@@ -2950,16 +2950,16 @@
         <v>176</v>
       </c>
       <c r="D52">
-        <v>3.111726</v>
+        <v>3.918065</v>
       </c>
       <c r="E52" t="s">
         <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G52" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H52" t="s">
         <v>401</v>
@@ -2976,16 +2976,16 @@
         <v>177</v>
       </c>
       <c r="D53">
-        <v>3.0081</v>
+        <v>2.536991</v>
       </c>
       <c r="E53" t="s">
         <v>297</v>
       </c>
       <c r="F53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G53" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H53" t="s">
         <v>401</v>
@@ -3002,16 +3002,16 @@
         <v>178</v>
       </c>
       <c r="D54">
-        <v>3.170779</v>
+        <v>2.663855</v>
       </c>
       <c r="E54" t="s">
         <v>298</v>
       </c>
       <c r="F54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H54" t="s">
         <v>401</v>
@@ -3022,25 +3022,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55">
-        <v>3.607492</v>
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>381</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3048,25 +3048,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56">
-        <v>2.419536</v>
+        <v>2.097476</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F56" t="s">
         <v>379</v>
       </c>
       <c r="G56" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3074,25 +3074,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57">
-        <v>3.349843</v>
+        <v>2.022961</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
         <v>379</v>
       </c>
       <c r="G57" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H57" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3100,25 +3100,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58">
-        <v>2.561875</v>
+        <v>2.883912</v>
       </c>
       <c r="E58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F58" t="s">
         <v>380</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H58" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3126,25 +3126,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59">
-        <v>3.616294</v>
+        <v>2.200322</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F59" t="s">
         <v>380</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H59" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3152,25 +3152,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60">
-        <v>2.49373</v>
+        <v>3.349667</v>
       </c>
       <c r="E60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F60" t="s">
         <v>380</v>
       </c>
       <c r="G60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H60" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3178,25 +3178,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61">
-        <v>3.279655</v>
+        <v>3.351104</v>
       </c>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
         <v>380</v>
       </c>
       <c r="G61" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H61" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3204,25 +3204,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62">
-        <v>2.851827</v>
+        <v>3.517685</v>
       </c>
       <c r="E62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F62" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G62" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H62" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3230,25 +3230,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63">
-        <v>2.599676</v>
+        <v>3.674751</v>
       </c>
       <c r="E63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H63" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3256,25 +3256,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" t="s">
-        <v>27</v>
+        <v>187</v>
+      </c>
+      <c r="D64">
+        <v>3.17476</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>381</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>374</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3288,7 +3288,7 @@
         <v>188</v>
       </c>
       <c r="D65">
-        <v>3.312752</v>
+        <v>3.603909</v>
       </c>
       <c r="E65" t="s">
         <v>308</v>
@@ -3297,7 +3297,7 @@
         <v>381</v>
       </c>
       <c r="G65" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H65" t="s">
         <v>402</v>
@@ -3314,7 +3314,7 @@
         <v>189</v>
       </c>
       <c r="D66">
-        <v>3.859539</v>
+        <v>2.790032</v>
       </c>
       <c r="E66" t="s">
         <v>309</v>
@@ -3323,7 +3323,7 @@
         <v>381</v>
       </c>
       <c r="G66" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H66" t="s">
         <v>402</v>
@@ -3340,7 +3340,7 @@
         <v>190</v>
       </c>
       <c r="D67">
-        <v>2.952145</v>
+        <v>2.636977</v>
       </c>
       <c r="E67" t="s">
         <v>310</v>
@@ -3349,7 +3349,7 @@
         <v>381</v>
       </c>
       <c r="G67" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H67" t="s">
         <v>402</v>
@@ -3366,7 +3366,7 @@
         <v>191</v>
       </c>
       <c r="D68">
-        <v>3.456209</v>
+        <v>3.517799</v>
       </c>
       <c r="E68" t="s">
         <v>311</v>
@@ -3375,7 +3375,7 @@
         <v>381</v>
       </c>
       <c r="G68" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H68" t="s">
         <v>402</v>
@@ -3392,7 +3392,7 @@
         <v>192</v>
       </c>
       <c r="D69">
-        <v>3.644408</v>
+        <v>3.25768</v>
       </c>
       <c r="E69" t="s">
         <v>312</v>
@@ -3401,7 +3401,7 @@
         <v>381</v>
       </c>
       <c r="G69" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H69" t="s">
         <v>402</v>
@@ -3418,16 +3418,16 @@
         <v>193</v>
       </c>
       <c r="D70">
-        <v>3.172871</v>
+        <v>3.174096</v>
       </c>
       <c r="E70" t="s">
         <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H70" t="s">
         <v>402</v>
@@ -3444,7 +3444,7 @@
         <v>194</v>
       </c>
       <c r="D71">
-        <v>2.539498</v>
+        <v>2.419878</v>
       </c>
       <c r="E71" t="s">
         <v>314</v>
@@ -3453,7 +3453,7 @@
         <v>382</v>
       </c>
       <c r="G71" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H71" t="s">
         <v>402</v>
@@ -3470,7 +3470,7 @@
         <v>195</v>
       </c>
       <c r="D72">
-        <v>2.176687</v>
+        <v>2.831348</v>
       </c>
       <c r="E72" t="s">
         <v>315</v>
@@ -3479,7 +3479,7 @@
         <v>382</v>
       </c>
       <c r="G72" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H72" t="s">
         <v>402</v>
@@ -3490,25 +3490,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73">
-        <v>2.435347</v>
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>382</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>402</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3516,25 +3516,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74">
-        <v>2.646885</v>
+        <v>3.516719</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F74" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G74" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="H74" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3542,25 +3542,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75">
-        <v>3.175478</v>
+        <v>3.140683</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F75" t="s">
         <v>383</v>
       </c>
       <c r="G75" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H75" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3568,25 +3568,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D76">
-        <v>3.394953</v>
+        <v>2.002564</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F76" t="s">
         <v>383</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H76" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3594,25 +3594,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D77">
-        <v>3.507237</v>
+        <v>2.596942</v>
       </c>
       <c r="E77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F77" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G77" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H77" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3620,25 +3620,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D78">
-        <v>3.367846</v>
+        <v>2.368807</v>
       </c>
       <c r="E78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G78" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H78" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3646,25 +3646,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79">
-        <v>2.097476</v>
+        <v>2.228664</v>
       </c>
       <c r="E79" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F79" t="s">
         <v>384</v>
       </c>
       <c r="G79" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H79" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3672,25 +3672,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D80">
-        <v>2.022961</v>
+        <v>2.417284</v>
       </c>
       <c r="E80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F80" t="s">
         <v>384</v>
       </c>
       <c r="G80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H80" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3698,25 +3698,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D81">
-        <v>2.067398</v>
+        <v>3.12283</v>
       </c>
       <c r="E81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G81" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="H81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3724,25 +3724,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D82">
-        <v>3.200631</v>
+        <v>3.312752</v>
       </c>
       <c r="E82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F82" t="s">
         <v>385</v>
       </c>
       <c r="G82" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3750,25 +3750,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D83">
-        <v>1.861677</v>
+        <v>3.859539</v>
       </c>
       <c r="E83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F83" t="s">
         <v>385</v>
       </c>
       <c r="G83" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H83" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3776,25 +3776,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D84">
-        <v>2.866559</v>
+        <v>2.952145</v>
       </c>
       <c r="E84" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F84" t="s">
         <v>385</v>
       </c>
       <c r="G84" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H84" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3802,25 +3802,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
+        <v>207</v>
+      </c>
+      <c r="D85">
+        <v>3.456209</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
+        <v>385</v>
       </c>
       <c r="G85" t="s">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3834,16 +3834,16 @@
         <v>208</v>
       </c>
       <c r="D86">
-        <v>2.736333</v>
+        <v>3.644408</v>
       </c>
       <c r="E86" t="s">
         <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G86" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="H86" t="s">
         <v>403</v>
@@ -3860,16 +3860,16 @@
         <v>209</v>
       </c>
       <c r="D87">
-        <v>2.366993</v>
+        <v>3.172871</v>
       </c>
       <c r="E87" t="s">
         <v>329</v>
       </c>
       <c r="F87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G87" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="H87" t="s">
         <v>403</v>
@@ -3886,7 +3886,7 @@
         <v>210</v>
       </c>
       <c r="D88">
-        <v>3.307419</v>
+        <v>3.025857</v>
       </c>
       <c r="E88" t="s">
         <v>330</v>
@@ -3895,7 +3895,7 @@
         <v>386</v>
       </c>
       <c r="G88" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H88" t="s">
         <v>403</v>
@@ -3912,7 +3912,7 @@
         <v>211</v>
       </c>
       <c r="D89">
-        <v>3.306954</v>
+        <v>1.601246</v>
       </c>
       <c r="E89" t="s">
         <v>331</v>
@@ -3921,7 +3921,7 @@
         <v>386</v>
       </c>
       <c r="G89" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H89" t="s">
         <v>403</v>
@@ -3938,16 +3938,16 @@
         <v>212</v>
       </c>
       <c r="D90">
-        <v>3.673422</v>
+        <v>2.726875</v>
       </c>
       <c r="E90" t="s">
         <v>332</v>
       </c>
       <c r="F90" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G90" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H90" t="s">
         <v>403</v>
@@ -3958,25 +3958,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91">
-        <v>3.846284</v>
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>387</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>403</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3984,25 +3984,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D92">
-        <v>3.918065</v>
+        <v>3.393189</v>
       </c>
       <c r="E92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F92" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G92" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H92" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4010,25 +4010,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D93">
-        <v>3.164865</v>
+        <v>3.056436</v>
       </c>
       <c r="E93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G93" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H93" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4036,25 +4036,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D94">
-        <v>3.369014</v>
+        <v>2.561875</v>
       </c>
       <c r="E94" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F94" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G94" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H94" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4062,25 +4062,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D95">
-        <v>3.780795</v>
+        <v>3.616294</v>
       </c>
       <c r="E95" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F95" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G95" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H95" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4088,25 +4088,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D96">
-        <v>3.789667</v>
+        <v>2.49373</v>
       </c>
       <c r="E96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F96" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G96" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H96" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4114,25 +4114,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D97">
-        <v>3.124063</v>
+        <v>3.279655</v>
       </c>
       <c r="E97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F97" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G97" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H97" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4140,25 +4140,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D98">
-        <v>2.550789</v>
+        <v>2.851827</v>
       </c>
       <c r="E98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F98" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G98" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H98" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4166,25 +4166,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D99">
-        <v>2.463057</v>
+        <v>2.599676</v>
       </c>
       <c r="E99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F99" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G99" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H99" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4192,25 +4192,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100">
-        <v>2.536991</v>
+        <v>1.957941</v>
       </c>
       <c r="E100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F100" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G100" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H100" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4218,25 +4218,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101">
-        <v>2.663855</v>
+        <v>2.223476</v>
       </c>
       <c r="E101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F101" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G101" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H101" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4244,25 +4244,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102">
-        <v>3.19873</v>
+        <v>2.004438</v>
       </c>
       <c r="E102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F102" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G102" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4270,25 +4270,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D103">
-        <v>1.957941</v>
+        <v>2.110938</v>
       </c>
       <c r="E103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F103" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G103" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="H103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4296,25 +4296,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D104">
-        <v>2.223476</v>
+        <v>3.61732</v>
       </c>
       <c r="E104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F104" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G104" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="H104" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4322,25 +4322,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D105">
-        <v>2.004438</v>
+        <v>3.602326</v>
       </c>
       <c r="E105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F105" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G105" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="H105" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4348,25 +4348,25 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
+        <v>227</v>
+      </c>
+      <c r="D106">
+        <v>3.190164</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>347</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="G106" t="s">
-        <v>27</v>
+        <v>384</v>
       </c>
       <c r="H106" t="s">
-        <v>27</v>
+        <v>404</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4380,13 +4380,13 @@
         <v>228</v>
       </c>
       <c r="D107">
-        <v>3.393189</v>
+        <v>3.257516</v>
       </c>
       <c r="E107" t="s">
         <v>348</v>
       </c>
       <c r="F107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G107" t="s">
         <v>384</v>
@@ -4406,13 +4406,13 @@
         <v>229</v>
       </c>
       <c r="D108">
-        <v>3.056436</v>
+        <v>2.719745</v>
       </c>
       <c r="E108" t="s">
         <v>349</v>
       </c>
       <c r="F108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G108" t="s">
         <v>384</v>
@@ -4426,25 +4426,25 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
-      </c>
-      <c r="D109">
-        <v>3.174096</v>
+        <v>24</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>350</v>
+        <v>24</v>
       </c>
       <c r="F109" t="s">
-        <v>392</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>388</v>
+        <v>24</v>
       </c>
       <c r="H109" t="s">
-        <v>404</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4452,25 +4452,25 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110">
-        <v>2.419878</v>
+        <v>3.19873</v>
       </c>
       <c r="E110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F110" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G110" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="H110" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4478,25 +4478,25 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111">
-        <v>2.831348</v>
+        <v>2.771154</v>
       </c>
       <c r="E111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F111" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G111" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="H111" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4504,25 +4504,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112">
-        <v>2.418868</v>
+        <v>1.83858</v>
       </c>
       <c r="E112" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F112" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G112" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="H112" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4530,25 +4530,25 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113">
-        <v>2.404389</v>
+        <v>2.018567</v>
       </c>
       <c r="E113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F113" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G113" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="H113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4556,25 +4556,25 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D114">
-        <v>2.018567</v>
+        <v>3.164865</v>
       </c>
       <c r="E114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F114" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G114" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="H114" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4582,25 +4582,25 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115">
-        <v>3.025857</v>
+        <v>3.369014</v>
       </c>
       <c r="E115" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F115" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G115" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="H115" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4608,25 +4608,25 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D116">
-        <v>1.601246</v>
+        <v>3.780795</v>
       </c>
       <c r="E116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G116" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="H116" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4634,25 +4634,25 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D117">
-        <v>2.110938</v>
+        <v>3.789667</v>
       </c>
       <c r="E117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F117" t="s">
         <v>396</v>
       </c>
       <c r="G117" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="H117" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4660,25 +4660,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D118">
-        <v>2.726875</v>
+        <v>3.124063</v>
       </c>
       <c r="E118" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G118" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="H118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4686,25 +4686,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D119">
-        <v>3.517685</v>
+        <v>2.550789</v>
       </c>
       <c r="E119" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F119" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H119" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4712,25 +4712,25 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D120">
-        <v>3.674751</v>
+        <v>2.463057</v>
       </c>
       <c r="E120" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F120" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H120" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4738,25 +4738,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D121">
-        <v>3.17476</v>
+        <v>3.796564</v>
       </c>
       <c r="E121" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G121" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H121" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4764,25 +4764,25 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D122">
-        <v>3.603909</v>
+        <v>2.956563</v>
       </c>
       <c r="E122" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F122" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G122" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H122" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4790,25 +4790,25 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D123">
-        <v>2.790032</v>
+        <v>4.000683</v>
       </c>
       <c r="E123" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F123" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G123" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H123" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4816,25 +4816,25 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D124">
-        <v>2.636977</v>
+        <v>3.411613</v>
       </c>
       <c r="E124" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G124" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4842,25 +4842,25 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D125">
-        <v>3.517799</v>
+        <v>3.003754</v>
       </c>
       <c r="E125" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F125" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G125" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4868,25 +4868,25 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D126">
-        <v>3.25768</v>
+        <v>2.418868</v>
       </c>
       <c r="E126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F126" t="s">
         <v>398</v>
       </c>
       <c r="G126" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="H126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4894,25 +4894,51 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" t="s">
-        <v>27</v>
+        <v>247</v>
+      </c>
+      <c r="D127">
+        <v>2.404389</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
+        <v>398</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="H127" t="s">
-        <v>27</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
